--- a/QuantStudio/Resource/WindDB2Info.xlsx
+++ b/QuantStudio/Resource/WindDB2Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$G$1875</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$112</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10808" uniqueCount="3998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10942" uniqueCount="4042">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11409,11 +11409,1191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_flstitle_inst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_flsabstract_inst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_reinv_redeem_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券回购标准券折算率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE,SZSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKEXCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港交易所交易日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKEX,HKSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE,SZSE,NIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZCE,DCE,INE,SHFE,CFFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AnnTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ann_dt</t>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DividendTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股派息(税前)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_baseshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股配股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股公司公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股分红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国股票指数业绩表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIndexPerformance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国股票指数业绩表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pct_chg_recent1m</t>
+  </si>
+  <si>
+    <t>pct_chg_recent3m</t>
+  </si>
+  <si>
+    <t>pct_chg_recent6m</t>
+  </si>
+  <si>
+    <t>pct_chg_recent1y</t>
+  </si>
+  <si>
+    <t>pct_chg_recent2y</t>
+  </si>
+  <si>
+    <t>pct_chg_recent3y</t>
+  </si>
+  <si>
+    <t>pct_chg_recent4y</t>
+  </si>
+  <si>
+    <t>pct_chg_recent5y</t>
+  </si>
+  <si>
+    <t>pct_chg_recent6y</t>
+  </si>
+  <si>
+    <t>pct_chg_thisweek</t>
+  </si>
+  <si>
+    <t>本周以来涨跌幅</t>
+  </si>
+  <si>
+    <t>pct_chg_thismonth</t>
+  </si>
+  <si>
+    <t>本月以来涨跌幅</t>
+  </si>
+  <si>
+    <t>pct_chg_thisquarter</t>
+  </si>
+  <si>
+    <t>本季以来涨跌幅</t>
+  </si>
+  <si>
+    <t>pct_chg_thisyear</t>
+  </si>
+  <si>
+    <t>本年以来涨跌幅</t>
+  </si>
+  <si>
+    <t>si_pct_chg</t>
+  </si>
+  <si>
+    <t>发布以来涨跌幅</t>
+  </si>
+  <si>
+    <t>annualyeild</t>
+  </si>
+  <si>
+    <t>年化收益率</t>
+  </si>
+  <si>
+    <t>std_dev_6m</t>
+  </si>
+  <si>
+    <t>std_dev_1y</t>
+  </si>
+  <si>
+    <t>std_dev_2y</t>
+  </si>
+  <si>
+    <t>std_dev_3y</t>
+  </si>
+  <si>
+    <t>sharpratio_6m</t>
+  </si>
+  <si>
+    <t>sharpratio_1y</t>
+  </si>
+  <si>
+    <t>sharpratio_2y</t>
+  </si>
+  <si>
+    <t>sharpratio_3y</t>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近1月涨跌幅</t>
+  </si>
+  <si>
+    <t>最近3月涨跌幅</t>
+  </si>
+  <si>
+    <t>最近6月涨跌幅</t>
+  </si>
+  <si>
+    <t>最近1年涨跌幅</t>
+  </si>
+  <si>
+    <t>最近2年涨跌幅</t>
+  </si>
+  <si>
+    <t>最近3年涨跌幅</t>
+  </si>
+  <si>
+    <t>最近4年涨跌幅</t>
+  </si>
+  <si>
+    <t>最近5年涨跌幅</t>
+  </si>
+  <si>
+    <t>最近6年涨跌幅</t>
+  </si>
+  <si>
+    <t>6个月标准差</t>
+  </si>
+  <si>
+    <t>1年标准差</t>
+  </si>
+  <si>
+    <t>2年标准差</t>
+  </si>
+  <si>
+    <t>3年标准差</t>
+  </si>
+  <si>
+    <t>6个月夏普比率</t>
+  </si>
+  <si>
+    <t>1年夏普比率</t>
+  </si>
+  <si>
+    <t>2年夏普比率</t>
+  </si>
+  <si>
+    <t>3年夏普比率</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价-前结算价</t>
+  </si>
+  <si>
+    <t>s_dq_oichange</t>
+  </si>
+  <si>
+    <t>中国商品期货日行情</t>
+  </si>
+  <si>
+    <t>中国商品期货日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS300IEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300指数日行情</t>
+  </si>
+  <si>
+    <t>1:主力合约;2:真实合约;3:连续合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价-前结算价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_close</t>
+  </si>
+  <si>
+    <t>chg</t>
+  </si>
+  <si>
+    <t>pct_chg</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>沪深300指数日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日</t>
+  </si>
+  <si>
+    <t>ChinaOptionCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权交易日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalendarTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalendarTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCE,SSE,SZSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCE:大连商品交易所;SSE:上海证券交易所;SZSE:深圳证券交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月合约Wind代码</t>
+  </si>
+  <si>
+    <t>期权合约的Wind编码,一般为交易所公布的合约编码加交易所后缀</t>
+  </si>
+  <si>
+    <t>月合约交易所编码</t>
+  </si>
+  <si>
+    <t>交易所公布的期权合约编码</t>
+  </si>
+  <si>
+    <t>月合约全称</t>
+  </si>
+  <si>
+    <t>期权月合约名称的Wind全称</t>
+  </si>
+  <si>
+    <t>期权Wind代码</t>
+  </si>
+  <si>
+    <t>月合约所属期权的Wind代码</t>
+  </si>
+  <si>
+    <t>月合约类别</t>
+  </si>
+  <si>
+    <t>行权价格</t>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+  </si>
+  <si>
+    <t>开始交易日</t>
+  </si>
+  <si>
+    <t>最后交易日</t>
+  </si>
+  <si>
+    <t>最后行权日</t>
+  </si>
+  <si>
+    <t>最后交割日</t>
+  </si>
+  <si>
+    <t>是否交易</t>
+  </si>
+  <si>
+    <t>月合约交易所代码</t>
+  </si>
+  <si>
+    <t>交易所公布的月合约代码</t>
+  </si>
+  <si>
+    <t>月合约交易所简称</t>
+  </si>
+  <si>
+    <t>交易所公布的月合约简称</t>
+  </si>
+  <si>
+    <t>合约单位</t>
+  </si>
+  <si>
+    <t>中国期权基本资料</t>
+  </si>
+  <si>
+    <t>中国期权基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureTable</t>
+  </si>
+  <si>
+    <t>s_info_sccode</t>
+  </si>
+  <si>
+    <t>s_info_callput</t>
+  </si>
+  <si>
+    <t>s_info_strikeprice</t>
+  </si>
+  <si>
+    <t>s_info_month</t>
+  </si>
+  <si>
+    <t>s_info_maturitydate</t>
+  </si>
+  <si>
+    <t>s_info_lasttradingdate</t>
+  </si>
+  <si>
+    <t>s_info_exercisingend</t>
+  </si>
+  <si>
+    <t>s_info_lddate</t>
+  </si>
+  <si>
+    <t>s_info_lprice</t>
+  </si>
+  <si>
+    <t>s_info_trade</t>
+  </si>
+  <si>
+    <t>s_info_excode</t>
+  </si>
+  <si>
+    <t>s_info_counit</t>
+  </si>
+  <si>
+    <t>708001000:认购;708002000:认沽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:否;1:是</t>
+  </si>
+  <si>
+    <t>0:否;1:是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓量变化(手)</t>
+  </si>
+  <si>
+    <t>前结算价</t>
+  </si>
+  <si>
+    <t>涨跌1</t>
+  </si>
+  <si>
+    <t>涨跌2</t>
+  </si>
+  <si>
+    <t>结算价-前结算价</t>
+  </si>
+  <si>
+    <t>s_dq_change1</t>
+  </si>
+  <si>
+    <t>s_dq_change2</t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权日行情</t>
+  </si>
+  <si>
+    <t>ChinaOptionEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarketTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐含波动率(%)</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>涨停价格</t>
+  </si>
+  <si>
+    <t>跌停价格</t>
+  </si>
+  <si>
+    <t>w_anal_underlyingimpliedvol</t>
+  </si>
+  <si>
+    <t>w_anal_delta</t>
+  </si>
+  <si>
+    <t>w_anal_theta</t>
+  </si>
+  <si>
+    <t>w_anal_gamma</t>
+  </si>
+  <si>
+    <t>w_anal_vega</t>
+  </si>
+  <si>
+    <t>w_anal_rho</t>
+  </si>
+  <si>
+    <t>surged_limit</t>
+  </si>
+  <si>
+    <t>decline_limit</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权衍生指标</t>
+  </si>
+  <si>
+    <t>ChinaOptionValuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权衍生指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数简称</t>
+  </si>
+  <si>
+    <t>昨收盘价</t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>最新价</t>
+  </si>
+  <si>
+    <t>证券ID</t>
+  </si>
+  <si>
+    <t>sec_id</t>
+  </si>
+  <si>
+    <t>中国期权相关指数日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaOptionIndexEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaOptionDailyStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权日交易统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权日交易统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的Wind代码</t>
+  </si>
+  <si>
+    <t>期权标的的Wind代码</t>
+  </si>
+  <si>
+    <t>期权的Wind代码</t>
+  </si>
+  <si>
+    <t>期权英文名称</t>
+  </si>
+  <si>
+    <t>交易所名称</t>
+  </si>
+  <si>
+    <t>交易场所</t>
+  </si>
+  <si>
+    <t>期权类型</t>
+  </si>
+  <si>
+    <t>行权方式</t>
+  </si>
+  <si>
+    <t>交割方式</t>
+  </si>
+  <si>
+    <t>合约价值</t>
+  </si>
+  <si>
+    <t>立约价值</t>
+  </si>
+  <si>
+    <t>合约结算月份</t>
+  </si>
+  <si>
+    <t>最小报价单位</t>
+  </si>
+  <si>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>最后结算日</t>
+  </si>
+  <si>
+    <t>最后结算价</t>
+  </si>
+  <si>
+    <t>交易费用</t>
+  </si>
+  <si>
+    <t>头寸限制</t>
+  </si>
+  <si>
+    <t>头寸申报下限</t>
+  </si>
+  <si>
+    <t>期权金</t>
+  </si>
+  <si>
+    <t>期权行权日</t>
+  </si>
+  <si>
+    <t>期权行权价</t>
+  </si>
+  <si>
+    <t>是否仿真交易</t>
+  </si>
+  <si>
+    <t>报价货币单位</t>
+  </si>
+  <si>
+    <t>合约单位量纲</t>
+  </si>
+  <si>
+    <t>期权ID</t>
+  </si>
+  <si>
+    <t>期权的WindID</t>
+  </si>
+  <si>
+    <t>股票期权;ETF期权;指数期权;期货期权</t>
+  </si>
+  <si>
+    <t>实物资产;现金;证券或现金</t>
+  </si>
+  <si>
+    <t>美式;欧式</t>
+  </si>
+  <si>
+    <t>s_info_type</t>
+  </si>
+  <si>
+    <t>s_info_euroamericanbermuda</t>
+  </si>
+  <si>
+    <t>s_info_settlementmethod</t>
+  </si>
+  <si>
+    <t>s_info_listeddate</t>
+  </si>
+  <si>
+    <t>s_info_strikeratio</t>
+  </si>
+  <si>
+    <t>s_info_covalue</t>
+  </si>
+  <si>
+    <t>s_info_lsmonth</t>
+  </si>
+  <si>
+    <t>s_info_minpricefluct</t>
+  </si>
+  <si>
+    <t>s_info_lsdate</t>
+  </si>
+  <si>
+    <t>s_info_lastsettle</t>
+  </si>
+  <si>
+    <t>s_info_tradefee</t>
+  </si>
+  <si>
+    <t>s_info_minposlimit</t>
+  </si>
+  <si>
+    <t>s_info_optionprice</t>
+  </si>
+  <si>
+    <t>s_info_simulation</t>
+  </si>
+  <si>
+    <t>s_info_quoteunit</t>
+  </si>
+  <si>
+    <t>s_info_counitdimension</t>
+  </si>
+  <si>
+    <t>s_info_id</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权标准合约属性</t>
+  </si>
+  <si>
+    <t>ChinaOptionContpro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeatureTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期权标准合约属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权月合约基本资料调整表</t>
+  </si>
+  <si>
+    <t>期权月合约基本资料调整表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COptionDescriptionchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权月合约代码</t>
+  </si>
+  <si>
+    <t>调整日期</t>
+  </si>
+  <si>
+    <t>原交易代码</t>
+  </si>
+  <si>
+    <t>原合约简称</t>
+  </si>
+  <si>
+    <t>原行权价（元）</t>
+  </si>
+  <si>
+    <t>原合约单位（股）</t>
+  </si>
+  <si>
+    <t>新交易代码</t>
+  </si>
+  <si>
+    <t>新合约简称</t>
+  </si>
+  <si>
+    <t>新行权价（元）</t>
+  </si>
+  <si>
+    <t>新合约单位（股）</t>
+  </si>
+  <si>
+    <t>调整原因</t>
+  </si>
+  <si>
+    <t>VARCHAR2(300)</t>
+  </si>
+  <si>
+    <t>s_change_date</t>
+  </si>
+  <si>
+    <t>s_info_code_old</t>
+  </si>
+  <si>
+    <t>s_info_name_old</t>
+  </si>
+  <si>
+    <t>s_exercise_price_old</t>
+  </si>
+  <si>
+    <t>s_unit_old</t>
+  </si>
+  <si>
+    <t>s_info_code_new</t>
+  </si>
+  <si>
+    <t>s_info_name_new</t>
+  </si>
+  <si>
+    <t>s_exercise_price_new</t>
+  </si>
+  <si>
+    <t>s_unit_new</t>
+  </si>
+  <si>
+    <t>s_change_reason</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货指数日行情</t>
+  </si>
+  <si>
+    <t>CFutureIndexEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易货币代码</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货指数日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t>成交金额</t>
+  </si>
+  <si>
+    <t>持仓量</t>
+  </si>
+  <si>
+    <t>结算价</t>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdPartyIndexEOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他第三方商品期货指数行情</t>
+  </si>
+  <si>
+    <t>其他第三方商品期货指数行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约Wind代码</t>
+  </si>
+  <si>
+    <t>中国期货保证金比例</t>
+  </si>
+  <si>
+    <t>中国期货保证金比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月合约的Wind代码，可关联CFuturesContPro的S_INFO_WINDCODE</t>
+  </si>
+  <si>
+    <t>Wind自编，证券唯一性</t>
+  </si>
+  <si>
+    <t>pct_chg_limit</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货合约价格波动限制变更</t>
+  </si>
+  <si>
+    <t>CFuturesPriceChangeLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货库存(仓单)</t>
+  </si>
+  <si>
+    <t>期货库存(仓单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesInstock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存合计</t>
+  </si>
+  <si>
+    <t>库存（注册成仓单）</t>
+  </si>
+  <si>
+    <t>可用库容量</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>fs_info_scname</t>
+  </si>
+  <si>
+    <t>ann_date</t>
+  </si>
+  <si>
+    <t>in_stock_total</t>
+  </si>
+  <si>
+    <t>in_stock</t>
+  </si>
+  <si>
+    <t>available_in_stock</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300指数成份股当日收盘权重</t>
+  </si>
+  <si>
+    <t>沪深300指数成份股当日收盘权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIndexHS300CloseWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算用股本(股)</t>
+  </si>
+  <si>
+    <t>NUMBER(20,2)</t>
+  </si>
+  <si>
+    <t>总股本(股)</t>
+  </si>
+  <si>
+    <t>自由流通比例(%)(归档后)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>权重因子</t>
+  </si>
+  <si>
+    <t>收盘</t>
+  </si>
+  <si>
+    <t>调整后开盘参考价</t>
+  </si>
+  <si>
+    <t>总市值</t>
+  </si>
+  <si>
+    <t>计算用市值</t>
+  </si>
+  <si>
+    <t>i_weight</t>
+  </si>
+  <si>
+    <t>s_in_index</t>
+  </si>
+  <si>
+    <t>i_weight_11</t>
+  </si>
+  <si>
+    <t>i_weight_12</t>
+  </si>
+  <si>
+    <t>i_weight_14</t>
+  </si>
+  <si>
+    <t>i_weight_15</t>
+  </si>
+  <si>
+    <t>i_weight_16</t>
+  </si>
+  <si>
+    <t>i_weight_17</t>
+  </si>
+  <si>
+    <t>i_weight_18</t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>706001000:连续(当月);706002000:连一(次月);706003000:连二(当季);706004000:连三(下季);706005000:连四;706006000:活跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_fullname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_cctype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后交易日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_delistdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstituentTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股中证行业成分明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaOptionDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11421,19 +12601,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_est_flstitle_inst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_est_flsabstract_inst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_reinv_redeem_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ann_date</t>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_ftdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_lasttradingdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货合约价格波动限制变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marginratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cfuturesmarginratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_dq_high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_dq_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国商品期货日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前结算价(元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11441,52 +12681,370 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国债券回购标准券折算率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE,SZSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HKEXCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港交易所交易日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_days</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HKEX,HKSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE,SZSE,NIB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CZCE,DCE,INE,SHFE,CFFEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnnTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>最高价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量(手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓量(手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货保证金比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货合约价格波动限制变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌停板幅度(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_dq_presettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货标准合约属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesContPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_mfprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_punit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_punit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易单位(每手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_tunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_thours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后交易日说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小变动价位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_cemultiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_lprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_maxpricefluct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大价格波动说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCommodityFuturesEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券中文简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_mapping_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约乘数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind 代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_price </t>
+  </si>
+  <si>
+    <t>成交价（元）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_volume </t>
+  </si>
+  <si>
+    <t>成交量（万股）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crncy_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">货币代码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_buyername </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(200) </t>
+  </si>
+  <si>
+    <t>买方营业部名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_sellername </t>
+  </si>
+  <si>
+    <t>卖方营业部名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_frequency </t>
+  </si>
+  <si>
+    <t>笔数</t>
+  </si>
+  <si>
+    <t>AShareBlockTrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股大宗交易数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANNDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY:人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(同一代码+同一日期+同一买方营业部+同一卖方营业部+同一成交价+同一成交量)累计的笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩快报</t>
+  </si>
+  <si>
+    <t>AShareProfitExpress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩预告</t>
+  </si>
+  <si>
+    <t>AShareProfitNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入(元)</t>
+  </si>
+  <si>
+    <t>营业利润(元)</t>
+  </si>
+  <si>
+    <t>利润总额(元)</t>
+  </si>
+  <si>
+    <t>净利润(元)</t>
+  </si>
+  <si>
+    <t>总资产(元)</t>
+  </si>
+  <si>
+    <t>每股收益(摊薄)(元)</t>
+  </si>
+  <si>
+    <t>股东权益合计(不含少数股东权益)(元)</t>
+  </si>
+  <si>
+    <t>是否审计</t>
+  </si>
+  <si>
+    <t>eps_diluted</t>
+  </si>
+  <si>
+    <t>roe_diluted</t>
+  </si>
+  <si>
+    <t>s_isaudit</t>
+  </si>
+  <si>
+    <t>去年同期修正后净利润</t>
+  </si>
+  <si>
+    <t>净资产收益率(摊薄)(%)</t>
+  </si>
+  <si>
+    <t>中国A股业绩快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoynet_profit_excl_min_int_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩预告类型代码</t>
+  </si>
+  <si>
+    <t>预告净利润下限（万元）</t>
+  </si>
+  <si>
+    <t>预告净利润上限（万元）</t>
+  </si>
+  <si>
+    <t>公布次数</t>
+  </si>
+  <si>
+    <t>首次公告日</t>
+  </si>
+  <si>
+    <t>业绩预告摘要</t>
+  </si>
+  <si>
+    <t>s_profitnotice_date</t>
+  </si>
+  <si>
+    <t>s_profitnotice_period</t>
+  </si>
+  <si>
+    <t>s_profitnotice_style</t>
+  </si>
+  <si>
+    <t>s_profitnotice_signchange</t>
+  </si>
+  <si>
+    <t>s_profitnotice_changemin</t>
+  </si>
+  <si>
+    <t>s_profitnotice_changemax</t>
+  </si>
+  <si>
+    <t>s_profitnotice_netprofitmin</t>
+  </si>
+  <si>
+    <t>s_profitnotice_netprofitmax</t>
+  </si>
+  <si>
+    <t>s_profitnotice_number</t>
+  </si>
+  <si>
+    <t>s_profitnotice_firstanndate</t>
+  </si>
+  <si>
+    <t>s_profitnotice_abstract</t>
+  </si>
+  <si>
+    <t>不确定:454001000;略减:454002000;略增:454003000;扭亏:454004000;其他:454005000;首亏:454006000;续亏:454007000;续盈:454008000;预减:454009000;预增:454010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是;0:否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告净利润变动幅度下限（%）</t>
+  </si>
+  <si>
+    <t>预告净利润变动幅度上限（%）</t>
+  </si>
+  <si>
+    <t>是否变脸</t>
   </si>
   <si>
     <t>因子</t>
@@ -11494,1423 +13052,6 @@
   </si>
   <si>
     <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DividendTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股派息(税前)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基准股本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_div_baseshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report_period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股配股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股公司公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股分红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国股票指数业绩表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIndexPerformance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国股票指数业绩表现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pct_chg_recent1m</t>
-  </si>
-  <si>
-    <t>pct_chg_recent3m</t>
-  </si>
-  <si>
-    <t>pct_chg_recent6m</t>
-  </si>
-  <si>
-    <t>pct_chg_recent1y</t>
-  </si>
-  <si>
-    <t>pct_chg_recent2y</t>
-  </si>
-  <si>
-    <t>pct_chg_recent3y</t>
-  </si>
-  <si>
-    <t>pct_chg_recent4y</t>
-  </si>
-  <si>
-    <t>pct_chg_recent5y</t>
-  </si>
-  <si>
-    <t>pct_chg_recent6y</t>
-  </si>
-  <si>
-    <t>pct_chg_thisweek</t>
-  </si>
-  <si>
-    <t>本周以来涨跌幅</t>
-  </si>
-  <si>
-    <t>pct_chg_thismonth</t>
-  </si>
-  <si>
-    <t>本月以来涨跌幅</t>
-  </si>
-  <si>
-    <t>pct_chg_thisquarter</t>
-  </si>
-  <si>
-    <t>本季以来涨跌幅</t>
-  </si>
-  <si>
-    <t>pct_chg_thisyear</t>
-  </si>
-  <si>
-    <t>本年以来涨跌幅</t>
-  </si>
-  <si>
-    <t>si_pct_chg</t>
-  </si>
-  <si>
-    <t>发布以来涨跌幅</t>
-  </si>
-  <si>
-    <t>annualyeild</t>
-  </si>
-  <si>
-    <t>年化收益率</t>
-  </si>
-  <si>
-    <t>std_dev_6m</t>
-  </si>
-  <si>
-    <t>std_dev_1y</t>
-  </si>
-  <si>
-    <t>std_dev_2y</t>
-  </si>
-  <si>
-    <t>std_dev_3y</t>
-  </si>
-  <si>
-    <t>sharpratio_6m</t>
-  </si>
-  <si>
-    <t>sharpratio_1y</t>
-  </si>
-  <si>
-    <t>sharpratio_2y</t>
-  </si>
-  <si>
-    <t>sharpratio_3y</t>
-  </si>
-  <si>
-    <t>trade_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近1月涨跌幅</t>
-  </si>
-  <si>
-    <t>最近3月涨跌幅</t>
-  </si>
-  <si>
-    <t>最近6月涨跌幅</t>
-  </si>
-  <si>
-    <t>最近1年涨跌幅</t>
-  </si>
-  <si>
-    <t>最近2年涨跌幅</t>
-  </si>
-  <si>
-    <t>最近3年涨跌幅</t>
-  </si>
-  <si>
-    <t>最近4年涨跌幅</t>
-  </si>
-  <si>
-    <t>最近5年涨跌幅</t>
-  </si>
-  <si>
-    <t>最近6年涨跌幅</t>
-  </si>
-  <si>
-    <t>6个月标准差</t>
-  </si>
-  <si>
-    <t>1年标准差</t>
-  </si>
-  <si>
-    <t>2年标准差</t>
-  </si>
-  <si>
-    <t>3年标准差</t>
-  </si>
-  <si>
-    <t>6个月夏普比率</t>
-  </si>
-  <si>
-    <t>1年夏普比率</t>
-  </si>
-  <si>
-    <t>2年夏普比率</t>
-  </si>
-  <si>
-    <t>3年夏普比率</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价-前结算价</t>
-  </si>
-  <si>
-    <t>s_dq_oichange</t>
-  </si>
-  <si>
-    <t>中国商品期货日行情</t>
-  </si>
-  <si>
-    <t>中国商品期货日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS300IEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪深300指数日行情</t>
-  </si>
-  <si>
-    <t>1:主力合约;2:真实合约;3:连续合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价-前结算价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre_close</t>
-  </si>
-  <si>
-    <t>chg</t>
-  </si>
-  <si>
-    <t>pct_chg</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>沪深300指数日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日</t>
-  </si>
-  <si>
-    <t>ChinaOptionCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权交易日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCE,SSE,SZSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCE:大连商品交易所;SSE:上海证券交易所;SZSE:深圳证券交易所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月合约Wind代码</t>
-  </si>
-  <si>
-    <t>期权合约的Wind编码,一般为交易所公布的合约编码加交易所后缀</t>
-  </si>
-  <si>
-    <t>月合约交易所编码</t>
-  </si>
-  <si>
-    <t>交易所公布的期权合约编码</t>
-  </si>
-  <si>
-    <t>月合约全称</t>
-  </si>
-  <si>
-    <t>期权月合约名称的Wind全称</t>
-  </si>
-  <si>
-    <t>期权Wind代码</t>
-  </si>
-  <si>
-    <t>月合约所属期权的Wind代码</t>
-  </si>
-  <si>
-    <t>月合约类别</t>
-  </si>
-  <si>
-    <t>行权价格</t>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-  </si>
-  <si>
-    <t>开始交易日</t>
-  </si>
-  <si>
-    <t>最后交易日</t>
-  </si>
-  <si>
-    <t>最后行权日</t>
-  </si>
-  <si>
-    <t>最后交割日</t>
-  </si>
-  <si>
-    <t>是否交易</t>
-  </si>
-  <si>
-    <t>月合约交易所代码</t>
-  </si>
-  <si>
-    <t>交易所公布的月合约代码</t>
-  </si>
-  <si>
-    <t>月合约交易所简称</t>
-  </si>
-  <si>
-    <t>交易所公布的月合约简称</t>
-  </si>
-  <si>
-    <t>合约单位</t>
-  </si>
-  <si>
-    <t>中国期权基本资料</t>
-  </si>
-  <si>
-    <t>中国期权基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeatureTable</t>
-  </si>
-  <si>
-    <t>s_info_sccode</t>
-  </si>
-  <si>
-    <t>s_info_callput</t>
-  </si>
-  <si>
-    <t>s_info_strikeprice</t>
-  </si>
-  <si>
-    <t>s_info_month</t>
-  </si>
-  <si>
-    <t>s_info_maturitydate</t>
-  </si>
-  <si>
-    <t>s_info_lasttradingdate</t>
-  </si>
-  <si>
-    <t>s_info_exercisingend</t>
-  </si>
-  <si>
-    <t>s_info_lddate</t>
-  </si>
-  <si>
-    <t>s_info_lprice</t>
-  </si>
-  <si>
-    <t>s_info_trade</t>
-  </si>
-  <si>
-    <t>s_info_excode</t>
-  </si>
-  <si>
-    <t>s_info_counit</t>
-  </si>
-  <si>
-    <t>708001000:认购;708002000:认沽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:否;1:是</t>
-  </si>
-  <si>
-    <t>0:否;1:是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓量变化(手)</t>
-  </si>
-  <si>
-    <t>前结算价</t>
-  </si>
-  <si>
-    <t>涨跌1</t>
-  </si>
-  <si>
-    <t>涨跌2</t>
-  </si>
-  <si>
-    <t>结算价-前结算价</t>
-  </si>
-  <si>
-    <t>s_dq_change1</t>
-  </si>
-  <si>
-    <t>s_dq_change2</t>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权日行情</t>
-  </si>
-  <si>
-    <t>ChinaOptionEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐含波动率(%)</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Theta</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>Rho</t>
-  </si>
-  <si>
-    <t>涨停价格</t>
-  </si>
-  <si>
-    <t>跌停价格</t>
-  </si>
-  <si>
-    <t>w_anal_underlyingimpliedvol</t>
-  </si>
-  <si>
-    <t>w_anal_delta</t>
-  </si>
-  <si>
-    <t>w_anal_theta</t>
-  </si>
-  <si>
-    <t>w_anal_gamma</t>
-  </si>
-  <si>
-    <t>w_anal_vega</t>
-  </si>
-  <si>
-    <t>w_anal_rho</t>
-  </si>
-  <si>
-    <t>surged_limit</t>
-  </si>
-  <si>
-    <t>decline_limit</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权衍生指标</t>
-  </si>
-  <si>
-    <t>ChinaOptionValuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权衍生指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数简称</t>
-  </si>
-  <si>
-    <t>昨收盘价</t>
-  </si>
-  <si>
-    <t>开盘价</t>
-  </si>
-  <si>
-    <t>最高价</t>
-  </si>
-  <si>
-    <t>最低价</t>
-  </si>
-  <si>
-    <t>最新价</t>
-  </si>
-  <si>
-    <t>证券ID</t>
-  </si>
-  <si>
-    <t>sec_id</t>
-  </si>
-  <si>
-    <t>中国期权相关指数日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChinaOptionIndexEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChinaOptionDailyStatistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权日交易统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权日交易统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标的Wind代码</t>
-  </si>
-  <si>
-    <t>期权标的的Wind代码</t>
-  </si>
-  <si>
-    <t>期权的Wind代码</t>
-  </si>
-  <si>
-    <t>期权英文名称</t>
-  </si>
-  <si>
-    <t>交易所名称</t>
-  </si>
-  <si>
-    <t>交易场所</t>
-  </si>
-  <si>
-    <t>期权类型</t>
-  </si>
-  <si>
-    <t>行权方式</t>
-  </si>
-  <si>
-    <t>交割方式</t>
-  </si>
-  <si>
-    <t>合约价值</t>
-  </si>
-  <si>
-    <t>立约价值</t>
-  </si>
-  <si>
-    <t>合约结算月份</t>
-  </si>
-  <si>
-    <t>最小报价单位</t>
-  </si>
-  <si>
-    <t>交易时间</t>
-  </si>
-  <si>
-    <t>最后结算日</t>
-  </si>
-  <si>
-    <t>最后结算价</t>
-  </si>
-  <si>
-    <t>交易费用</t>
-  </si>
-  <si>
-    <t>头寸限制</t>
-  </si>
-  <si>
-    <t>头寸申报下限</t>
-  </si>
-  <si>
-    <t>期权金</t>
-  </si>
-  <si>
-    <t>期权行权日</t>
-  </si>
-  <si>
-    <t>期权行权价</t>
-  </si>
-  <si>
-    <t>是否仿真交易</t>
-  </si>
-  <si>
-    <t>报价货币单位</t>
-  </si>
-  <si>
-    <t>合约单位量纲</t>
-  </si>
-  <si>
-    <t>期权ID</t>
-  </si>
-  <si>
-    <t>期权的WindID</t>
-  </si>
-  <si>
-    <t>股票期权;ETF期权;指数期权;期货期权</t>
-  </si>
-  <si>
-    <t>实物资产;现金;证券或现金</t>
-  </si>
-  <si>
-    <t>美式;欧式</t>
-  </si>
-  <si>
-    <t>s_info_type</t>
-  </si>
-  <si>
-    <t>s_info_euroamericanbermuda</t>
-  </si>
-  <si>
-    <t>s_info_settlementmethod</t>
-  </si>
-  <si>
-    <t>s_info_listeddate</t>
-  </si>
-  <si>
-    <t>s_info_strikeratio</t>
-  </si>
-  <si>
-    <t>s_info_covalue</t>
-  </si>
-  <si>
-    <t>s_info_lsmonth</t>
-  </si>
-  <si>
-    <t>s_info_minpricefluct</t>
-  </si>
-  <si>
-    <t>s_info_lsdate</t>
-  </si>
-  <si>
-    <t>s_info_lastsettle</t>
-  </si>
-  <si>
-    <t>s_info_tradefee</t>
-  </si>
-  <si>
-    <t>s_info_minposlimit</t>
-  </si>
-  <si>
-    <t>s_info_optionprice</t>
-  </si>
-  <si>
-    <t>s_info_simulation</t>
-  </si>
-  <si>
-    <t>s_info_quoteunit</t>
-  </si>
-  <si>
-    <t>s_info_counitdimension</t>
-  </si>
-  <si>
-    <t>s_info_id</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权标准合约属性</t>
-  </si>
-  <si>
-    <t>ChinaOptionContpro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeatureTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期权标准合约属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权月合约基本资料调整表</t>
-  </si>
-  <si>
-    <t>期权月合约基本资料调整表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COptionDescriptionchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权月合约代码</t>
-  </si>
-  <si>
-    <t>调整日期</t>
-  </si>
-  <si>
-    <t>原交易代码</t>
-  </si>
-  <si>
-    <t>原合约简称</t>
-  </si>
-  <si>
-    <t>原行权价（元）</t>
-  </si>
-  <si>
-    <t>原合约单位（股）</t>
-  </si>
-  <si>
-    <t>新交易代码</t>
-  </si>
-  <si>
-    <t>新合约简称</t>
-  </si>
-  <si>
-    <t>新行权价（元）</t>
-  </si>
-  <si>
-    <t>新合约单位（股）</t>
-  </si>
-  <si>
-    <t>调整原因</t>
-  </si>
-  <si>
-    <t>VARCHAR2(300)</t>
-  </si>
-  <si>
-    <t>s_change_date</t>
-  </si>
-  <si>
-    <t>s_info_code_old</t>
-  </si>
-  <si>
-    <t>s_info_name_old</t>
-  </si>
-  <si>
-    <t>s_exercise_price_old</t>
-  </si>
-  <si>
-    <t>s_unit_old</t>
-  </si>
-  <si>
-    <t>s_info_code_new</t>
-  </si>
-  <si>
-    <t>s_info_name_new</t>
-  </si>
-  <si>
-    <t>s_exercise_price_new</t>
-  </si>
-  <si>
-    <t>s_unit_new</t>
-  </si>
-  <si>
-    <t>s_change_reason</t>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货指数日行情</t>
-  </si>
-  <si>
-    <t>CFutureIndexEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易货币代码</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货指数日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交量</t>
-  </si>
-  <si>
-    <t>成交金额</t>
-  </si>
-  <si>
-    <t>持仓量</t>
-  </si>
-  <si>
-    <t>结算价</t>
-  </si>
-  <si>
-    <t>Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThirdPartyIndexEOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他第三方商品期货指数行情</t>
-  </si>
-  <si>
-    <t>其他第三方商品期货指数行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合约Wind代码</t>
-  </si>
-  <si>
-    <t>中国期货保证金比例</t>
-  </si>
-  <si>
-    <t>中国期货保证金比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月合约的Wind代码，可关联CFuturesContPro的S_INFO_WINDCODE</t>
-  </si>
-  <si>
-    <t>Wind自编，证券唯一性</t>
-  </si>
-  <si>
-    <t>pct_chg_limit</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货合约价格波动限制变更</t>
-  </si>
-  <si>
-    <t>CFuturesPriceChangeLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货库存(仓单)</t>
-  </si>
-  <si>
-    <t>期货库存(仓单)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFuturesInstock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存合计</t>
-  </si>
-  <si>
-    <t>库存（注册成仓单）</t>
-  </si>
-  <si>
-    <t>可用库容量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>fs_info_scname</t>
-  </si>
-  <si>
-    <t>ann_date</t>
-  </si>
-  <si>
-    <t>in_stock_total</t>
-  </si>
-  <si>
-    <t>in_stock</t>
-  </si>
-  <si>
-    <t>available_in_stock</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪深300指数成份股当日收盘权重</t>
-  </si>
-  <si>
-    <t>沪深300指数成份股当日收盘权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIndexHS300CloseWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算用股本(股)</t>
-  </si>
-  <si>
-    <t>NUMBER(20,2)</t>
-  </si>
-  <si>
-    <t>总股本(股)</t>
-  </si>
-  <si>
-    <t>自由流通比例(%)(归档后)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>权重因子</t>
-  </si>
-  <si>
-    <t>收盘</t>
-  </si>
-  <si>
-    <t>调整后开盘参考价</t>
-  </si>
-  <si>
-    <t>总市值</t>
-  </si>
-  <si>
-    <t>计算用市值</t>
-  </si>
-  <si>
-    <t>i_weight</t>
-  </si>
-  <si>
-    <t>s_in_index</t>
-  </si>
-  <si>
-    <t>i_weight_11</t>
-  </si>
-  <si>
-    <t>i_weight_12</t>
-  </si>
-  <si>
-    <t>i_weight_14</t>
-  </si>
-  <si>
-    <t>i_weight_15</t>
-  </si>
-  <si>
-    <t>i_weight_16</t>
-  </si>
-  <si>
-    <t>i_weight_17</t>
-  </si>
-  <si>
-    <t>i_weight_18</t>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>706001000:连续(当月);706002000:连一(次月);706003000:连二(当季);706004000:连三(下季);706005000:连四;706006000:活跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFuturesDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_fullname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_cctype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退市日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后交易日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_delistdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstituentTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股中证行业成分明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChinaOptionDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_windcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_ftdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_lasttradingdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货合约价格波动限制变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marginratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cfuturesmarginratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_dq_high</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_dq_low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AShareEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上市日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国商品期货日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前结算价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开盘价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交量(手)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交金额(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓量(手)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货保证金比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证金比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货合约价格波动限制变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨跌停板幅度(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_dq_presettle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓量变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货标准合约属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFuturesContPro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_mfprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_punit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_punit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易单位(每手)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易计量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_tunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_thours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_listdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后交易日说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小变动价位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_cemultiplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_lprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_listdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_maxpricefluct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大价格波动说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCommodityFuturesEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券中文简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_mapping_windcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合约乘数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind 代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_price </t>
-  </si>
-  <si>
-    <t>成交价（元）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_volume </t>
-  </si>
-  <si>
-    <t>成交量（万股）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">crncy_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">货币代码 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_buyername </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(200) </t>
-  </si>
-  <si>
-    <t>买方营业部名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_sellername </t>
-  </si>
-  <si>
-    <t>卖方营业部名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_frequency </t>
-  </si>
-  <si>
-    <t>笔数</t>
-  </si>
-  <si>
-    <t>AShareBlockTrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股大宗交易数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANNDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交金额（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNY:人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(同一代码+同一日期+同一买方营业部+同一卖方营业部+同一成交价+同一成交量)累计的笔数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13284,10 +13425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13313,16 +13454,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B2" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="C2" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="D2" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -13336,7 +13477,7 @@
         <v>670</v>
       </c>
       <c r="D3" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -13385,24 +13526,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="B8" t="s">
         <v>3546</v>
       </c>
       <c r="C8" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="B9" t="s">
         <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -13446,7 +13587,7 @@
         <v>3497</v>
       </c>
       <c r="C13" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -13462,10 +13603,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B15" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="C15" t="s">
         <v>3501</v>
@@ -13561,10 +13702,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="B24" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="C24" t="s">
         <v>471</v>
@@ -13729,98 +13870,98 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>2707</v>
+        <v>4014</v>
       </c>
       <c r="B39" t="s">
-        <v>2708</v>
+        <v>3998</v>
       </c>
       <c r="C39" t="s">
-        <v>2710</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>3164</v>
+        <v>4017</v>
       </c>
       <c r="B40" t="s">
-        <v>3163</v>
+        <v>4000</v>
       </c>
       <c r="C40" t="s">
-        <v>3156</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>3435</v>
+        <v>2707</v>
       </c>
       <c r="B41" t="s">
-        <v>3161</v>
+        <v>2708</v>
       </c>
       <c r="C41" t="s">
-        <v>1197</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>3158</v>
+        <v>3164</v>
       </c>
       <c r="B42" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C42" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>822</v>
+        <v>3435</v>
       </c>
       <c r="B43" t="s">
-        <v>810</v>
+        <v>3161</v>
       </c>
       <c r="C43" t="s">
-        <v>774</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>3549</v>
+        <v>3158</v>
       </c>
       <c r="B44" t="s">
-        <v>3548</v>
+        <v>3162</v>
       </c>
       <c r="C44" t="s">
-        <v>3913</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>3135</v>
+        <v>822</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>810</v>
       </c>
       <c r="C45" t="s">
-        <v>529</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>3549</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>3548</v>
       </c>
       <c r="C46" t="s">
-        <v>1180</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>3135</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
         <v>529</v>
@@ -13828,21 +13969,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>529</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>3914</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
         <v>529</v>
@@ -13850,43 +13991,43 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>508</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>1197</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>3879</v>
+        <v>3913</v>
       </c>
       <c r="B51" t="s">
-        <v>3880</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>728</v>
+        <v>508</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>471</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>3482</v>
+        <v>3878</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>3879</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
@@ -13894,10 +14035,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>728</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
         <v>471</v>
@@ -13905,10 +14046,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>3593</v>
+        <v>3482</v>
       </c>
       <c r="B55" t="s">
-        <v>3594</v>
+        <v>228</v>
       </c>
       <c r="C55" t="s">
         <v>471</v>
@@ -13916,87 +14057,87 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>3590</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>3551</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>3557</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>943</v>
+        <v>3592</v>
       </c>
       <c r="B57" t="s">
-        <v>944</v>
+        <v>3593</v>
       </c>
       <c r="C57" t="s">
-        <v>774</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>1014</v>
+        <v>3589</v>
       </c>
       <c r="B58" t="s">
-        <v>1013</v>
+        <v>3551</v>
       </c>
       <c r="C58" t="s">
-        <v>774</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>3046</v>
+        <v>943</v>
       </c>
       <c r="B59" t="s">
-        <v>640</v>
+        <v>944</v>
       </c>
       <c r="C59" t="s">
-        <v>3583</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>530</v>
+        <v>1014</v>
       </c>
       <c r="B60" t="s">
-        <v>897</v>
+        <v>1013</v>
       </c>
       <c r="C60" t="s">
-        <v>1197</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>3046</v>
       </c>
       <c r="B61" t="s">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="C61" t="s">
-        <v>471</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>708</v>
+        <v>530</v>
       </c>
       <c r="B62" t="s">
-        <v>709</v>
+        <v>897</v>
       </c>
       <c r="C62" t="s">
-        <v>471</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>716</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s">
-        <v>717</v>
+        <v>528</v>
       </c>
       <c r="C63" t="s">
         <v>471</v>
@@ -14004,21 +14145,21 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>3187</v>
+        <v>708</v>
       </c>
       <c r="B64" t="s">
-        <v>1020</v>
+        <v>709</v>
       </c>
       <c r="C64" t="s">
-        <v>1022</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B65" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C65" t="s">
         <v>471</v>
@@ -14026,101 +14167,101 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>664</v>
+        <v>3187</v>
       </c>
       <c r="B66" t="s">
-        <v>669</v>
+        <v>1020</v>
       </c>
       <c r="C66" t="s">
-        <v>670</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3575</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>1174</v>
+        <v>720</v>
       </c>
       <c r="B67" t="s">
-        <v>3905</v>
+        <v>721</v>
       </c>
       <c r="C67" t="s">
-        <v>856</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>3950</v>
+        <v>664</v>
       </c>
       <c r="B68" t="s">
-        <v>3951</v>
+        <v>669</v>
       </c>
       <c r="C68" t="s">
-        <v>774</v>
+        <v>670</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3574</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>695</v>
+        <v>1174</v>
       </c>
       <c r="B69" t="s">
-        <v>696</v>
+        <v>3904</v>
       </c>
       <c r="C69" t="s">
-        <v>1022</v>
+        <v>856</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>3857</v>
+        <v>3949</v>
       </c>
       <c r="B70" t="s">
-        <v>3925</v>
+        <v>3950</v>
       </c>
       <c r="C70" t="s">
-        <v>3722</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>3923</v>
+        <v>695</v>
       </c>
       <c r="B71" t="s">
-        <v>3863</v>
+        <v>696</v>
       </c>
       <c r="C71" t="s">
-        <v>3722</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>675</v>
+        <v>3856</v>
       </c>
       <c r="B72" t="s">
-        <v>676</v>
+        <v>3924</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>3662</v>
+        <v>3922</v>
       </c>
       <c r="B73" t="s">
-        <v>3653</v>
+        <v>3862</v>
       </c>
       <c r="C73" t="s">
-        <v>471</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>3649</v>
+        <v>675</v>
       </c>
       <c r="B74" t="s">
-        <v>3969</v>
+        <v>676</v>
       </c>
       <c r="C74" t="s">
         <v>471</v>
@@ -14128,10 +14269,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>3865</v>
+        <v>3661</v>
       </c>
       <c r="B75" t="s">
-        <v>3866</v>
+        <v>3652</v>
       </c>
       <c r="C75" t="s">
         <v>471</v>
@@ -14139,10 +14280,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>3845</v>
+        <v>3648</v>
       </c>
       <c r="B76" t="s">
-        <v>3842</v>
+        <v>3968</v>
       </c>
       <c r="C76" t="s">
         <v>471</v>
@@ -14150,10 +14291,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>3854</v>
+        <v>3864</v>
       </c>
       <c r="B77" t="s">
-        <v>3852</v>
+        <v>3865</v>
       </c>
       <c r="C77" t="s">
         <v>471</v>
@@ -14161,10 +14302,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>732</v>
+        <v>3844</v>
       </c>
       <c r="B78" t="s">
-        <v>731</v>
+        <v>3841</v>
       </c>
       <c r="C78" t="s">
         <v>471</v>
@@ -14172,21 +14313,21 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>1206</v>
+        <v>3853</v>
       </c>
       <c r="B79" t="s">
-        <v>1179</v>
+        <v>3851</v>
       </c>
       <c r="C79" t="s">
-        <v>1197</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>1227</v>
+        <v>732</v>
       </c>
       <c r="B80" t="s">
-        <v>3029</v>
+        <v>731</v>
       </c>
       <c r="C80" t="s">
         <v>471</v>
@@ -14194,21 +14335,21 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="B81" t="s">
-        <v>3030</v>
+        <v>1179</v>
       </c>
       <c r="C81" t="s">
-        <v>471</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>1249</v>
+        <v>1227</v>
       </c>
       <c r="B82" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="C82" t="s">
         <v>471</v>
@@ -14216,57 +14357,57 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>671</v>
+        <v>1228</v>
       </c>
       <c r="B83" t="s">
-        <v>3573</v>
+        <v>3030</v>
       </c>
       <c r="C83" t="s">
-        <v>670</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3574</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>3922</v>
+        <v>1249</v>
       </c>
       <c r="B84" t="s">
-        <v>3154</v>
+        <v>3031</v>
       </c>
       <c r="C84" t="s">
-        <v>774</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>740</v>
+        <v>671</v>
       </c>
       <c r="B85" t="s">
-        <v>3032</v>
+        <v>3572</v>
       </c>
       <c r="C85" t="s">
-        <v>471</v>
+        <v>670</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3573</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>742</v>
+        <v>3921</v>
       </c>
       <c r="B86" t="s">
-        <v>743</v>
+        <v>3154</v>
       </c>
       <c r="C86" t="s">
-        <v>471</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>1138</v>
+        <v>740</v>
       </c>
       <c r="B87" t="s">
-        <v>3148</v>
+        <v>3032</v>
       </c>
       <c r="C87" t="s">
         <v>471</v>
@@ -14274,21 +14415,21 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>3186</v>
+        <v>742</v>
       </c>
       <c r="B88" t="s">
-        <v>3185</v>
+        <v>743</v>
       </c>
       <c r="C88" t="s">
-        <v>1022</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>3147</v>
+        <v>1138</v>
       </c>
       <c r="B89" t="s">
-        <v>1145</v>
+        <v>3148</v>
       </c>
       <c r="C89" t="s">
         <v>471</v>
@@ -14296,21 +14437,21 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>1150</v>
+        <v>3186</v>
       </c>
       <c r="B90" t="s">
-        <v>3033</v>
+        <v>3185</v>
       </c>
       <c r="C90" t="s">
-        <v>471</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>3036</v>
+        <v>3147</v>
       </c>
       <c r="B91" t="s">
-        <v>3037</v>
+        <v>1145</v>
       </c>
       <c r="C91" t="s">
         <v>471</v>
@@ -14318,21 +14459,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>3113</v>
+        <v>1150</v>
       </c>
       <c r="B92" t="s">
-        <v>3114</v>
+        <v>3033</v>
       </c>
       <c r="C92" t="s">
-        <v>774</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>1273</v>
+        <v>3036</v>
       </c>
       <c r="B93" t="s">
-        <v>1268</v>
+        <v>3037</v>
       </c>
       <c r="C93" t="s">
         <v>471</v>
@@ -14340,21 +14481,21 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>3134</v>
+        <v>3113</v>
       </c>
       <c r="B94" t="s">
-        <v>3126</v>
+        <v>3114</v>
       </c>
       <c r="C94" t="s">
-        <v>3127</v>
+        <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>3106</v>
+        <v>1273</v>
       </c>
       <c r="B95" t="s">
-        <v>3105</v>
+        <v>1268</v>
       </c>
       <c r="C95" t="s">
         <v>471</v>
@@ -14362,54 +14503,54 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>3088</v>
+        <v>3134</v>
       </c>
       <c r="B96" t="s">
-        <v>3066</v>
+        <v>3126</v>
       </c>
       <c r="C96" t="s">
-        <v>3067</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>3565</v>
+        <v>3106</v>
       </c>
       <c r="B97" t="s">
-        <v>3091</v>
+        <v>3105</v>
       </c>
       <c r="C97" t="s">
-        <v>1022</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>1255</v>
+        <v>3088</v>
       </c>
       <c r="B98" t="s">
-        <v>1256</v>
+        <v>3066</v>
       </c>
       <c r="C98" t="s">
-        <v>471</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>755</v>
+        <v>3564</v>
       </c>
       <c r="B99" t="s">
-        <v>1283</v>
+        <v>3091</v>
       </c>
       <c r="C99" t="s">
-        <v>471</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>1274</v>
+        <v>1255</v>
       </c>
       <c r="B100" t="s">
-        <v>1275</v>
+        <v>1256</v>
       </c>
       <c r="C100" t="s">
         <v>471</v>
@@ -14417,10 +14558,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>1277</v>
+        <v>755</v>
       </c>
       <c r="B101" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="C101" t="s">
         <v>471</v>
@@ -14428,10 +14569,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="B102" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="C102" t="s">
         <v>471</v>
@@ -14439,97 +14580,119 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>3666</v>
+        <v>1277</v>
       </c>
       <c r="B103" t="s">
-        <v>3665</v>
+        <v>1280</v>
       </c>
       <c r="C103" t="s">
-        <v>3668</v>
-      </c>
-      <c r="D103" t="s">
-        <v>3669</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>3695</v>
+        <v>1281</v>
       </c>
       <c r="B104" t="s">
-        <v>3915</v>
+        <v>1282</v>
       </c>
       <c r="C104" t="s">
-        <v>3813</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>3814</v>
+        <v>3665</v>
       </c>
       <c r="B105" t="s">
-        <v>3812</v>
+        <v>3664</v>
       </c>
       <c r="C105" t="s">
-        <v>3696</v>
+        <v>3667</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3668</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>3723</v>
+        <v>3694</v>
       </c>
       <c r="B106" t="s">
-        <v>3721</v>
+        <v>3914</v>
       </c>
       <c r="C106" t="s">
-        <v>3722</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>3743</v>
+        <v>3813</v>
       </c>
       <c r="B107" t="s">
-        <v>3742</v>
+        <v>3811</v>
       </c>
       <c r="C107" t="s">
-        <v>3722</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>3752</v>
+        <v>3722</v>
       </c>
       <c r="B108" t="s">
-        <v>3753</v>
+        <v>3720</v>
       </c>
       <c r="C108" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>3760</v>
+        <v>3742</v>
       </c>
       <c r="B109" t="s">
-        <v>3759</v>
+        <v>3741</v>
       </c>
       <c r="C109" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B112" t="s">
         <v>3816</v>
       </c>
-      <c r="B110" t="s">
-        <v>3817</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3722</v>
+      <c r="C112" t="s">
+        <v>3721</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C110">
+  <autoFilter ref="A1:C112">
     <sortState ref="A2:C33">
       <sortCondition ref="C1"/>
     </sortState>
@@ -14542,10 +14705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2063"/>
+  <dimension ref="A1:G2088"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1773" workbookViewId="0">
-      <selection activeCell="C1797" sqref="C1797"/>
+    <sheetView topLeftCell="A1825" workbookViewId="0">
+      <selection activeCell="A1804" sqref="A1804:XFD1807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14556,7 +14719,7 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="7" max="7" width="195.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19917,7 +20080,7 @@
         <v>668</v>
       </c>
       <c r="C293" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="D293" t="s">
         <v>3</v>
@@ -19977,7 +20140,7 @@
         <v>691</v>
       </c>
       <c r="C296" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="D296" t="s">
         <v>4</v>
@@ -19995,7 +20158,7 @@
         <v>668</v>
       </c>
       <c r="C297" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
@@ -20064,7 +20227,7 @@
         <v>675</v>
       </c>
       <c r="B301" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="C301" t="s">
         <v>10</v>
@@ -22272,7 +22435,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="B423" t="s">
         <v>760</v>
@@ -22293,10 +22456,10 @@
         <v>855</v>
       </c>
       <c r="B424" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="C424" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="D424" t="s">
         <v>213</v>
@@ -22350,7 +22513,7 @@
         <v>1176</v>
       </c>
       <c r="C427" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="D427" t="s">
         <v>850</v>
@@ -22371,7 +22534,7 @@
         <v>851</v>
       </c>
       <c r="C428" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="D428" t="s">
         <v>800</v>
@@ -22381,7 +22544,7 @@
       </c>
       <c r="F428"/>
       <c r="G428" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -22389,10 +22552,10 @@
         <v>855</v>
       </c>
       <c r="B429" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C429" t="s">
         <v>3901</v>
-      </c>
-      <c r="C429" t="s">
-        <v>3902</v>
       </c>
       <c r="D429" t="s">
         <v>25</v>
@@ -22404,13 +22567,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B430" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="C430" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
@@ -22425,10 +22588,10 @@
         <v>855</v>
       </c>
       <c r="B431" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C431" t="s">
         <v>3910</v>
-      </c>
-      <c r="C431" t="s">
-        <v>3911</v>
       </c>
       <c r="D431" t="s">
         <v>4</v>
@@ -22464,7 +22627,7 @@
         <v>854</v>
       </c>
       <c r="C433" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -22500,7 +22663,7 @@
         <v>1177</v>
       </c>
       <c r="C435" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -22536,7 +22699,7 @@
         <v>849</v>
       </c>
       <c r="C437" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="D437" t="s">
         <v>692</v>
@@ -22554,7 +22717,7 @@
         <v>861</v>
       </c>
       <c r="C438" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -22569,10 +22732,10 @@
         <v>896</v>
       </c>
       <c r="B439" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C439" t="s">
         <v>3957</v>
-      </c>
-      <c r="C439" t="s">
-        <v>3958</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -22587,10 +22750,10 @@
         <v>896</v>
       </c>
       <c r="B440" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="C440" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -22605,10 +22768,10 @@
         <v>896</v>
       </c>
       <c r="B441" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="C441" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="D441" t="s">
         <v>862</v>
@@ -22662,7 +22825,7 @@
         <v>866</v>
       </c>
       <c r="C444" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="D444" t="s">
         <v>864</v>
@@ -22677,7 +22840,7 @@
         <v>896</v>
       </c>
       <c r="B445" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="C445" t="s">
         <v>885</v>
@@ -22713,10 +22876,10 @@
         <v>896</v>
       </c>
       <c r="B447" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C447" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -22734,7 +22897,7 @@
         <v>870</v>
       </c>
       <c r="C448" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
@@ -22749,10 +22912,10 @@
         <v>896</v>
       </c>
       <c r="B449" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="C449" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="D449" t="s">
         <v>4</v>
@@ -22770,7 +22933,7 @@
         <v>871</v>
       </c>
       <c r="C450" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="D450" t="s">
         <v>692</v>
@@ -22857,10 +23020,10 @@
         <v>896</v>
       </c>
       <c r="B455" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="C455" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="D455" t="s">
         <v>864</v>
@@ -22914,7 +23077,7 @@
         <v>878</v>
       </c>
       <c r="C458" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="D458" t="s">
         <v>862</v>
@@ -22968,7 +23131,7 @@
         <v>881</v>
       </c>
       <c r="C461" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="D461" t="s">
         <v>25</v>
@@ -22980,10 +23143,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B462" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="C462" t="s">
         <v>2</v>
@@ -22992,46 +23155,46 @@
         <v>3</v>
       </c>
       <c r="E462" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B463" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="C463" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
       </c>
       <c r="E463" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B464" t="s">
         <v>3302</v>
       </c>
       <c r="C464" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="D464" t="s">
         <v>4</v>
       </c>
       <c r="E464" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B465" t="s">
         <v>171</v>
@@ -23043,52 +23206,52 @@
         <v>3</v>
       </c>
       <c r="E465" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="G465" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="B466" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C466" t="s">
         <v>3750</v>
-      </c>
-      <c r="C466" t="s">
-        <v>3751</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
       </c>
       <c r="E466" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G466" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B467" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="C467" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="D467" t="s">
         <v>5</v>
       </c>
       <c r="E467" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B468" t="s">
         <v>3302</v>
@@ -23100,109 +23263,109 @@
         <v>4</v>
       </c>
       <c r="E468" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B469" t="s">
         <v>861</v>
       </c>
       <c r="C469" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
       </c>
       <c r="E469" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B470" t="s">
         <v>665</v>
       </c>
       <c r="C470" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="D470" t="s">
         <v>4</v>
       </c>
       <c r="E470" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B471" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="C471" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D471" t="s">
         <v>5</v>
       </c>
       <c r="E471" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B472" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C472" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="D472" t="s">
         <v>5</v>
       </c>
       <c r="E472" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B473" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="C473" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
       </c>
       <c r="E473" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B474" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="C474" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
       </c>
       <c r="E474" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -24398,7 +24561,7 @@
         <v>698</v>
       </c>
       <c r="C540" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="D540" t="s">
         <v>692</v>
@@ -24416,7 +24579,7 @@
         <v>693</v>
       </c>
       <c r="C541" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="D541" t="s">
         <v>4</v>
@@ -46706,7 +46869,7 @@
         <v>4</v>
       </c>
       <c r="E1770" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="F1770"/>
     </row>
@@ -47034,10 +47197,10 @@
     </row>
     <row r="1789" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1789" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1789" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="C1789" t="s">
         <v>3049</v>
@@ -47046,12 +47209,12 @@
         <v>454</v>
       </c>
       <c r="E1789" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1790" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1790" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1790" t="s">
         <v>27</v>
@@ -47063,18 +47226,18 @@
         <v>455</v>
       </c>
       <c r="E1790" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="1791" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1791" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1791" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="C1791" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="D1791" t="s">
         <v>456</v>
@@ -47085,13 +47248,13 @@
     </row>
     <row r="1792" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1792" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1792" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="C1792" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="D1792" t="s">
         <v>456</v>
@@ -47102,13 +47265,13 @@
     </row>
     <row r="1793" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1793" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1793" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="C1793" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="D1793" t="s">
         <v>456</v>
@@ -47119,13 +47282,13 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1794" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1794" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="C1794" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="D1794" t="s">
         <v>3081</v>
@@ -47134,21 +47297,21 @@
         <v>1189</v>
       </c>
       <c r="G1794" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1795" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1795" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1795" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="C1795" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D1795" t="s">
         <v>3984</v>
-      </c>
-      <c r="D1795" t="s">
-        <v>3985</v>
       </c>
       <c r="E1795" t="s">
         <v>1189</v>
@@ -47156,16 +47319,16 @@
     </row>
     <row r="1796" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1796" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1796" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="C1796" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="D1796" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="E1796" t="s">
         <v>1189</v>
@@ -47173,13 +47336,13 @@
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1797" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="B1797" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C1797" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="D1797" t="s">
         <v>456</v>
@@ -47188,7 +47351,7 @@
         <v>1189</v>
       </c>
       <c r="G1797" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.15">
@@ -47304,7 +47467,7 @@
         <v>3555</v>
       </c>
       <c r="C1804" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="D1804" t="s">
         <v>454</v>
@@ -47321,7 +47484,7 @@
         <v>636</v>
       </c>
       <c r="C1805" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="D1805" t="s">
         <v>455</v>
@@ -47338,7 +47501,7 @@
         <v>3552</v>
       </c>
       <c r="C1806" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="D1806" t="s">
         <v>3556</v>
@@ -47355,7 +47518,7 @@
         <v>3554</v>
       </c>
       <c r="C1807" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D1807" t="s">
         <v>3553</v>
@@ -47425,7 +47588,7 @@
         <v>570</v>
       </c>
       <c r="B1811" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="C1811" t="s">
         <v>535</v>
@@ -47452,7 +47615,7 @@
         <v>536</v>
       </c>
       <c r="E1812" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="F1812"/>
     </row>
@@ -47470,7 +47633,7 @@
         <v>4</v>
       </c>
       <c r="E1813" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1813"/>
     </row>
@@ -47488,7 +47651,7 @@
         <v>4</v>
       </c>
       <c r="E1814" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1814" t="s">
         <v>3431</v>
@@ -47508,7 +47671,7 @@
         <v>4</v>
       </c>
       <c r="E1815" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1815"/>
     </row>
@@ -47526,7 +47689,7 @@
         <v>4</v>
       </c>
       <c r="E1816" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1816"/>
     </row>
@@ -47544,7 +47707,7 @@
         <v>4</v>
       </c>
       <c r="E1817" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1817"/>
     </row>
@@ -47562,7 +47725,7 @@
         <v>4</v>
       </c>
       <c r="E1818" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1818"/>
     </row>
@@ -47580,7 +47743,7 @@
         <v>4</v>
       </c>
       <c r="E1819" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1819"/>
     </row>
@@ -47598,7 +47761,7 @@
         <v>4</v>
       </c>
       <c r="E1820" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="F1820"/>
     </row>
@@ -47607,10 +47770,10 @@
         <v>570</v>
       </c>
       <c r="B1821" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1821" t="s">
         <v>3585</v>
-      </c>
-      <c r="C1821" t="s">
-        <v>3586</v>
       </c>
       <c r="D1821" t="s">
         <v>533</v>
@@ -47637,7 +47800,7 @@
         <v>25</v>
       </c>
       <c r="E1822" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="F1822"/>
     </row>
@@ -47655,7 +47818,7 @@
         <v>4</v>
       </c>
       <c r="E1823" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="F1823"/>
     </row>
@@ -47673,7 +47836,7 @@
         <v>557</v>
       </c>
       <c r="E1824" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1824"/>
     </row>
@@ -47685,13 +47848,13 @@
         <v>560</v>
       </c>
       <c r="C1825" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="D1825" t="s">
         <v>4</v>
       </c>
       <c r="E1825" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1825"/>
     </row>
@@ -47709,7 +47872,7 @@
         <v>562</v>
       </c>
       <c r="E1826" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1826"/>
     </row>
@@ -47727,7 +47890,7 @@
         <v>565</v>
       </c>
       <c r="E1827" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="F1827"/>
     </row>
@@ -47745,7 +47908,7 @@
         <v>565</v>
       </c>
       <c r="E1828" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="F1828"/>
     </row>
@@ -47904,7 +48067,7 @@
         <v>4</v>
       </c>
       <c r="E1836" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1836"/>
     </row>
@@ -47922,10 +48085,10 @@
         <v>4</v>
       </c>
       <c r="E1837" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1837" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1838" spans="1:7" x14ac:dyDescent="0.15">
@@ -47942,7 +48105,7 @@
         <v>4</v>
       </c>
       <c r="E1838" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1838"/>
     </row>
@@ -47960,7 +48123,7 @@
         <v>4</v>
       </c>
       <c r="E1839" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1839"/>
     </row>
@@ -47978,7 +48141,7 @@
         <v>4</v>
       </c>
       <c r="E1840" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1840"/>
     </row>
@@ -47996,7 +48159,7 @@
         <v>4</v>
       </c>
       <c r="E1841" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1841"/>
     </row>
@@ -48014,7 +48177,7 @@
         <v>4</v>
       </c>
       <c r="E1842" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1842"/>
     </row>
@@ -48032,7 +48195,7 @@
         <v>4</v>
       </c>
       <c r="E1843" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1843"/>
       <c r="G1843" t="s">
@@ -48053,7 +48216,7 @@
         <v>4</v>
       </c>
       <c r="E1844" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1844"/>
       <c r="G1844" t="s">
@@ -48074,7 +48237,7 @@
         <v>4</v>
       </c>
       <c r="E1845" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1845"/>
     </row>
@@ -48092,7 +48255,7 @@
         <v>4</v>
       </c>
       <c r="E1846" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1846"/>
     </row>
@@ -48110,7 +48273,7 @@
         <v>4</v>
       </c>
       <c r="E1847" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1847"/>
     </row>
@@ -48185,7 +48348,7 @@
         <v>4</v>
       </c>
       <c r="E1851" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F1851"/>
     </row>
@@ -48561,7 +48724,7 @@
         <v>635</v>
       </c>
       <c r="C1872" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="D1872" t="s">
         <v>4</v>
@@ -48579,7 +48742,7 @@
         <v>636</v>
       </c>
       <c r="C1873" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="D1873" t="s">
         <v>4</v>
@@ -48627,7 +48790,7 @@
     </row>
     <row r="1876" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1876" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1876" t="s">
         <v>171</v>
@@ -48639,420 +48802,420 @@
         <v>3</v>
       </c>
       <c r="E1876" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1877" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1877" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1877" t="s">
         <v>27</v>
       </c>
       <c r="C1877" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="D1877" t="s">
         <v>4</v>
       </c>
       <c r="E1877" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1878" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1878" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C1878" t="s">
         <v>3595</v>
-      </c>
-      <c r="B1878" t="s">
-        <v>3626</v>
-      </c>
-      <c r="C1878" t="s">
-        <v>3596</v>
       </c>
       <c r="D1878" t="s">
         <v>26</v>
       </c>
       <c r="E1878" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1879" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1879" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1879" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="C1879" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="D1879" t="s">
         <v>26</v>
       </c>
       <c r="E1879" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1880" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1880" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1880" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="C1880" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="D1880" t="s">
         <v>26</v>
       </c>
       <c r="E1880" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1881" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1881" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1881" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="C1881" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="D1881" t="s">
         <v>26</v>
       </c>
       <c r="E1881" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1882" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1882" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1882" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="C1882" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="D1882" t="s">
         <v>26</v>
       </c>
       <c r="E1882" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1883" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1883" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1883" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="C1883" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="D1883" t="s">
         <v>26</v>
       </c>
       <c r="E1883" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1884" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1884" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1884" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C1884" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="D1884" t="s">
         <v>26</v>
       </c>
       <c r="E1884" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1885" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1885" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1885" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="C1885" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="D1885" t="s">
         <v>26</v>
       </c>
       <c r="E1885" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1886" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1886" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1886" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="C1886" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="D1886" t="s">
         <v>26</v>
       </c>
       <c r="E1886" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1887" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1887" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1887" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="C1887" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="D1887" t="s">
         <v>26</v>
       </c>
       <c r="E1887" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1888" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1888" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1888" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="C1888" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="D1888" t="s">
         <v>26</v>
       </c>
       <c r="E1888" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1889" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1889" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1889" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="C1889" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="D1889" t="s">
         <v>26</v>
       </c>
       <c r="E1889" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1890" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1890" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1890" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="C1890" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="D1890" t="s">
         <v>26</v>
       </c>
       <c r="E1890" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1891" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1891" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1891" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="C1891" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="D1891" t="s">
         <v>26</v>
       </c>
       <c r="E1891" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1892" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1892" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1892" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="C1892" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="D1892" t="s">
         <v>26</v>
       </c>
       <c r="E1892" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1893" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1893" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1893" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="C1893" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D1893" t="s">
         <v>26</v>
       </c>
       <c r="E1893" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1894" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1894" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1894" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="C1894" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="D1894" t="s">
         <v>26</v>
       </c>
       <c r="E1894" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1895" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1895" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1895" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C1895" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="D1895" t="s">
         <v>26</v>
       </c>
       <c r="E1895" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1896" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1896" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1896" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="C1896" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="D1896" t="s">
         <v>26</v>
       </c>
       <c r="E1896" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1897" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1897" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1897" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="C1897" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="D1897" t="s">
         <v>26</v>
       </c>
       <c r="E1897" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1898" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1898" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1898" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="C1898" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="D1898" t="s">
         <v>26</v>
       </c>
       <c r="E1898" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1899" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1899" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1899" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="C1899" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="D1899" t="s">
         <v>26</v>
       </c>
       <c r="E1899" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1900" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1900" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B1900" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="C1900" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="D1900" t="s">
         <v>26</v>
       </c>
       <c r="E1900" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1901" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1901" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="B1901" t="s">
         <v>171</v>
@@ -49064,49 +49227,49 @@
         <v>3</v>
       </c>
       <c r="E1901" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1902" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1902" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1902" t="s">
         <v>27</v>
       </c>
       <c r="C1902" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="D1902" t="s">
         <v>4</v>
       </c>
       <c r="E1902" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1903" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1903" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1903" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C1903" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="D1903" t="s">
         <v>5</v>
       </c>
       <c r="E1903" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1904" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1904" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1904" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C1904" t="s">
         <v>10</v>
@@ -49115,49 +49278,49 @@
         <v>5</v>
       </c>
       <c r="E1904" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1905" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1905" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1905" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C1905" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="D1905" t="s">
         <v>5</v>
       </c>
       <c r="E1905" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1906" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1906" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1906" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C1906" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="D1906" t="s">
         <v>5</v>
       </c>
       <c r="E1906" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1907" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1907" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1907" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C1907" t="s">
         <v>13</v>
@@ -49166,15 +49329,15 @@
         <v>5</v>
       </c>
       <c r="E1907" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1908" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1908" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1908" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="C1908" t="s">
         <v>688</v>
@@ -49183,15 +49346,15 @@
         <v>5</v>
       </c>
       <c r="E1908" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1909" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1909" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1909" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C1909" t="s">
         <v>16</v>
@@ -49200,15 +49363,15 @@
         <v>5</v>
       </c>
       <c r="E1909" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1910" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1910" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1910" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C1910" t="s">
         <v>17</v>
@@ -49217,15 +49380,15 @@
         <v>5</v>
       </c>
       <c r="E1910" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1911" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1911" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1911" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C1911" t="s">
         <v>689</v>
@@ -49234,12 +49397,12 @@
         <v>5</v>
       </c>
       <c r="E1911" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1912" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1912" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1912" t="s">
         <v>685</v>
@@ -49251,32 +49414,32 @@
         <v>5</v>
       </c>
       <c r="E1912" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1912" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1913" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1913" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1913" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="C1913" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="D1913" t="s">
         <v>5</v>
       </c>
       <c r="E1913" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1914" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1914" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B1914" t="s">
         <v>686</v>
@@ -49288,15 +49451,15 @@
         <v>25</v>
       </c>
       <c r="E1914" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1914" s="2" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1915" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1915" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1915" t="s">
         <v>171</v>
@@ -49308,12 +49471,12 @@
         <v>3</v>
       </c>
       <c r="E1915" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1916" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1916" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="B1916" t="s">
         <v>27</v>
@@ -49330,7 +49493,7 @@
     </row>
     <row r="1917" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1917" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1917" t="s">
         <v>28</v>
@@ -49342,29 +49505,29 @@
         <v>25</v>
       </c>
       <c r="E1917" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1918" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1918" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1918" t="s">
         <v>722</v>
       </c>
       <c r="C1918" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="D1918" t="s">
         <v>5</v>
       </c>
       <c r="E1918" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1919" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1919" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1919" t="s">
         <v>723</v>
@@ -49376,12 +49539,12 @@
         <v>5</v>
       </c>
       <c r="E1919" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1920" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1920" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1920" t="s">
         <v>724</v>
@@ -49393,12 +49556,12 @@
         <v>5</v>
       </c>
       <c r="E1920" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1921" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1921" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1921" t="s">
         <v>725</v>
@@ -49410,12 +49573,12 @@
         <v>5</v>
       </c>
       <c r="E1921" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1922" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1922" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1922" t="s">
         <v>726</v>
@@ -49427,83 +49590,83 @@
         <v>5</v>
       </c>
       <c r="E1922" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1923" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1923" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1923" t="s">
         <v>727</v>
       </c>
       <c r="C1923" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="D1923" t="s">
         <v>5</v>
       </c>
       <c r="E1923" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1924" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1924" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1924" t="s">
         <v>701</v>
       </c>
       <c r="C1924" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="D1924" t="s">
         <v>5</v>
       </c>
       <c r="E1924" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1925" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1925" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1925" t="s">
         <v>29</v>
       </c>
       <c r="C1925" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="D1925" t="s">
         <v>5</v>
       </c>
       <c r="E1925" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1926" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1926" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B1926" t="s">
         <v>30</v>
       </c>
       <c r="C1926" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="D1926" t="s">
         <v>5</v>
       </c>
       <c r="E1926" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1927" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1927" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="B1927" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C1927" t="s">
         <v>666</v>
@@ -49512,55 +49675,55 @@
         <v>3</v>
       </c>
       <c r="E1927" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1928" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1928" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="B1928" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="C1928" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="D1928" t="s">
         <v>3</v>
       </c>
       <c r="E1928" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="G1928" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1929" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1929" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1929" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="C1929" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="D1929" t="s">
         <v>3</v>
       </c>
       <c r="E1929" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="G1929" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1930" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1930" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1930" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="C1930" t="s">
         <v>775</v>
@@ -49569,18 +49732,18 @@
         <v>3</v>
       </c>
       <c r="E1930" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1930" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1931" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1931" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1931" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="C1931" t="s">
         <v>776</v>
@@ -49589,234 +49752,234 @@
         <v>627</v>
       </c>
       <c r="E1931" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1931" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1932" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1932" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1932" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C1932" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="D1932" t="s">
         <v>213</v>
       </c>
       <c r="E1932" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1932" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1933" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1933" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1933" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C1933" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="D1933" t="s">
         <v>800</v>
       </c>
       <c r="E1933" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1933" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1934" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1934" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1934" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="C1934" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="D1934" t="s">
         <v>5</v>
       </c>
       <c r="E1934" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1935" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1935" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1935" t="s">
         <v>853</v>
       </c>
       <c r="C1935" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="D1935" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="E1935" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1936" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1936" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1936" t="s">
         <v>1048</v>
       </c>
       <c r="C1936" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="D1936" t="s">
         <v>4</v>
       </c>
       <c r="E1936" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1937" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1937" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1937" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C1937" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="D1937" t="s">
         <v>4</v>
       </c>
       <c r="E1937" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1938" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1938" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1938" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="C1938" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="D1938" t="s">
         <v>4</v>
       </c>
       <c r="E1938" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1939" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1939" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1939" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="C1939" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="D1939" t="s">
         <v>4</v>
       </c>
       <c r="E1939" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1940" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1940" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1940" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="C1940" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="D1940" t="s">
         <v>4</v>
       </c>
       <c r="E1940" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1941" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1941" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1941" t="s">
         <v>854</v>
       </c>
       <c r="C1941" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="D1941" t="s">
         <v>5</v>
       </c>
       <c r="E1941" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1942" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1942" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1942" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="C1942" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="D1942" t="s">
         <v>1131</v>
       </c>
       <c r="E1942" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1942" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="1943" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1943" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1943" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="C1943" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D1943" t="s">
         <v>692</v>
       </c>
       <c r="E1943" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1943" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1944" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1944" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1944" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C1944" t="s">
         <v>887</v>
@@ -49825,32 +49988,32 @@
         <v>627</v>
       </c>
       <c r="E1944" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1944" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1945" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1945" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B1945" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="C1945" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="D1945" t="s">
         <v>5</v>
       </c>
       <c r="E1945" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="1946" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1946" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1946" t="s">
         <v>171</v>
@@ -49862,12 +50025,12 @@
         <v>3</v>
       </c>
       <c r="E1946" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1947" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1947" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1947" t="s">
         <v>27</v>
@@ -49879,12 +50042,12 @@
         <v>4</v>
       </c>
       <c r="E1947" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1948" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1948" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1948" t="s">
         <v>678</v>
@@ -49896,12 +50059,12 @@
         <v>5</v>
       </c>
       <c r="E1948" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1949" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1949" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1949" t="s">
         <v>679</v>
@@ -49913,12 +50076,12 @@
         <v>5</v>
       </c>
       <c r="E1949" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1950" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1950" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1950" t="s">
         <v>680</v>
@@ -49930,12 +50093,12 @@
         <v>5</v>
       </c>
       <c r="E1950" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1951" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1951" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1951" t="s">
         <v>681</v>
@@ -49947,12 +50110,12 @@
         <v>5</v>
       </c>
       <c r="E1951" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1952" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1952" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1952" t="s">
         <v>682</v>
@@ -49964,12 +50127,12 @@
         <v>5</v>
       </c>
       <c r="E1952" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1953" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1953" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1953" t="s">
         <v>29</v>
@@ -49981,12 +50144,12 @@
         <v>5</v>
       </c>
       <c r="E1953" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1954" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1954" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1954" t="s">
         <v>683</v>
@@ -49998,12 +50161,12 @@
         <v>5</v>
       </c>
       <c r="E1954" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1955" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1955" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1955" t="s">
         <v>684</v>
@@ -50015,32 +50178,32 @@
         <v>5</v>
       </c>
       <c r="E1955" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1956" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1956" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1956" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="C1956" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="D1956" t="s">
         <v>5</v>
       </c>
       <c r="E1956" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1957" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1957" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1957" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="C1957" t="s">
         <v>687</v>
@@ -50049,55 +50212,55 @@
         <v>5</v>
       </c>
       <c r="E1957" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1958" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1958" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1958" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="C1958" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="D1958" t="s">
         <v>5</v>
       </c>
       <c r="E1958" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1958" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1959" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1959" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="B1959" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>3651</v>
+      </c>
+      <c r="G1959" t="s">
         <v>3715</v>
-      </c>
-      <c r="C1959" t="s">
-        <v>3718</v>
-      </c>
-      <c r="D1959" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1959" t="s">
-        <v>3652</v>
-      </c>
-      <c r="G1959" t="s">
-        <v>3716</v>
       </c>
     </row>
     <row r="1960" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1960" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1960" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="C1960" t="s">
         <v>2</v>
@@ -50106,12 +50269,12 @@
         <v>3</v>
       </c>
       <c r="E1960" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1961" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1961" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1961" t="s">
         <v>27</v>
@@ -50123,148 +50286,148 @@
         <v>4</v>
       </c>
       <c r="E1961" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1962" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1962" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1962" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="C1962" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="D1962" t="s">
         <v>1152</v>
       </c>
       <c r="E1962" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1963" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1963" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1963" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="C1963" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="D1963" t="s">
         <v>1152</v>
       </c>
       <c r="E1963" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1964" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1964" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1964" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="C1964" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="D1964" t="s">
         <v>1152</v>
       </c>
       <c r="E1964" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1965" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1965" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1965" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="C1965" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="D1965" t="s">
         <v>1152</v>
       </c>
       <c r="E1965" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1966" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1966" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1966" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="C1966" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="D1966" t="s">
         <v>1152</v>
       </c>
       <c r="E1966" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1967" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1967" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1967" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="C1967" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="D1967" t="s">
         <v>1152</v>
       </c>
       <c r="E1967" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1968" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1968" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1968" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="C1968" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="D1968" t="s">
         <v>1152</v>
       </c>
       <c r="E1968" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1969" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1969" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1969" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="C1969" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="D1969" t="s">
         <v>1152</v>
       </c>
       <c r="E1969" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1970" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1970" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1970" t="s">
         <v>171</v>
@@ -50276,15 +50439,15 @@
         <v>3</v>
       </c>
       <c r="E1970" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1971" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1971" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1971" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="C1971" t="s">
         <v>776</v>
@@ -50293,12 +50456,12 @@
         <v>213</v>
       </c>
       <c r="E1971" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1972" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1972" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1972" t="s">
         <v>665</v>
@@ -50310,12 +50473,12 @@
         <v>4</v>
       </c>
       <c r="E1972" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1973" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1973" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1973" t="s">
         <v>28</v>
@@ -50327,15 +50490,15 @@
         <v>25</v>
       </c>
       <c r="E1973" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1974" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1974" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1974" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C1974" t="s">
         <v>9</v>
@@ -50344,15 +50507,15 @@
         <v>5</v>
       </c>
       <c r="E1974" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1975" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1975" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1975" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C1975" t="s">
         <v>10</v>
@@ -50361,15 +50524,15 @@
         <v>5</v>
       </c>
       <c r="E1975" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1976" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1976" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1976" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C1976" t="s">
         <v>11</v>
@@ -50378,15 +50541,15 @@
         <v>5</v>
       </c>
       <c r="E1976" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1977" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1977" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1977" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C1977" t="s">
         <v>12</v>
@@ -50395,15 +50558,15 @@
         <v>5</v>
       </c>
       <c r="E1977" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1978" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1978" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1978" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="C1978" t="s">
         <v>13</v>
@@ -50412,12 +50575,12 @@
         <v>5</v>
       </c>
       <c r="E1978" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1979" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1979" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1979" t="s">
         <v>727</v>
@@ -50429,12 +50592,12 @@
         <v>5</v>
       </c>
       <c r="E1979" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1980" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1980" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1980" t="s">
         <v>701</v>
@@ -50446,12 +50609,12 @@
         <v>5</v>
       </c>
       <c r="E1980" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1981" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1981" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1981" t="s">
         <v>29</v>
@@ -50463,12 +50626,12 @@
         <v>5</v>
       </c>
       <c r="E1981" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1982" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1982" t="s">
         <v>30</v>
@@ -50480,32 +50643,32 @@
         <v>5</v>
       </c>
       <c r="E1982" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1983" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1983" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1983" t="s">
         <v>3750</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>3751</v>
       </c>
       <c r="D1983" t="s">
         <v>25</v>
       </c>
       <c r="E1983" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1984" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B1984" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C1984" t="s">
         <v>775</v>
@@ -50514,15 +50677,15 @@
         <v>692</v>
       </c>
       <c r="E1984" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1985" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1985" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B1985" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C1985" t="s">
         <v>776</v>
@@ -50531,12 +50694,12 @@
         <v>3</v>
       </c>
       <c r="E1985" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1986" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1986" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B1986" t="s">
         <v>27</v>
@@ -50548,15 +50711,15 @@
         <v>4</v>
       </c>
       <c r="E1986" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1987" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1987" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B1987" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C1987" t="s">
         <v>3252</v>
@@ -50565,72 +50728,72 @@
         <v>800</v>
       </c>
       <c r="E1987" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="1988" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1988" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="B1988" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C1988" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="D1988" t="s">
         <v>5</v>
       </c>
       <c r="E1988" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1989" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1989" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1989" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="C1989" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="D1989" t="s">
         <v>3</v>
       </c>
       <c r="E1989" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="G1989" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1990" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1990" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1990" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C1990" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="D1990" t="s">
         <v>692</v>
       </c>
       <c r="E1990" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G1990" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1991" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1991" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1991" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C1991" t="s">
         <v>776</v>
@@ -50639,15 +50802,15 @@
         <v>3</v>
       </c>
       <c r="E1991" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1992" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1992" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1992" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="C1992" t="s">
         <v>857</v>
@@ -50656,109 +50819,109 @@
         <v>627</v>
       </c>
       <c r="E1992" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1993" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1993" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1993" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="C1993" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="D1993" t="s">
         <v>692</v>
       </c>
       <c r="E1993" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G1993" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1994" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1994" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1994" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="C1994" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D1994" t="s">
         <v>692</v>
       </c>
       <c r="E1994" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G1994" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1995" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1995" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1995" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C1995" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="D1995" t="s">
         <v>25</v>
       </c>
       <c r="E1995" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G1995" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="1996" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1996" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1996" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C1996" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="D1996" t="s">
         <v>25</v>
       </c>
       <c r="E1996" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G1996" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1997" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1997" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1997" t="s">
         <v>852</v>
       </c>
       <c r="C1997" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="D1997" t="s">
         <v>4</v>
       </c>
       <c r="E1997" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1998" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1998" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1998" t="s">
         <v>767</v>
@@ -50770,32 +50933,32 @@
         <v>4</v>
       </c>
       <c r="E1998" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1999" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1999" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1999" t="s">
         <v>869</v>
       </c>
       <c r="C1999" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="D1999" t="s">
         <v>5</v>
       </c>
       <c r="E1999" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2000" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2000" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2000" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C2000" t="s">
         <v>891</v>
@@ -50804,66 +50967,66 @@
         <v>5</v>
       </c>
       <c r="E2000" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2001" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2001" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2001" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="C2001" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="D2001" t="s">
         <v>745</v>
       </c>
       <c r="E2001" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2002" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2002" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2002" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C2002" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="D2002" t="s">
         <v>862</v>
       </c>
       <c r="E2002" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2003" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2003" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2003" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C2003" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="D2003" t="s">
         <v>3</v>
       </c>
       <c r="E2003" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2004" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2004" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2004" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="C2004" t="s">
         <v>884</v>
@@ -50872,83 +51035,83 @@
         <v>862</v>
       </c>
       <c r="E2004" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2005" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2005" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2005" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="C2005" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="D2005" t="s">
         <v>862</v>
       </c>
       <c r="E2005" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2006" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2006" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2006" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C2006" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="D2006" t="s">
         <v>862</v>
       </c>
       <c r="E2006" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2007" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2007" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2007" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C2007" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="D2007" t="s">
         <v>862</v>
       </c>
       <c r="E2007" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2008" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2008" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2008" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="C2008" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="D2008" t="s">
         <v>862</v>
       </c>
       <c r="E2008" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2009" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2009" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2009" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C2009" t="s">
         <v>892</v>
@@ -50957,174 +51120,174 @@
         <v>864</v>
       </c>
       <c r="E2009" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2010" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2010" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2010" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="C2010" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="D2010" t="s">
         <v>864</v>
       </c>
       <c r="E2010" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2011" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2011" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2011" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C2011" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="D2011" t="s">
         <v>692</v>
       </c>
       <c r="E2011" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2012" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2012" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2012" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="C2012" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="D2012" t="s">
         <v>3</v>
       </c>
       <c r="E2012" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2013" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2013" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2013" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C2013" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="D2013" t="s">
         <v>864</v>
       </c>
       <c r="E2013" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2014" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2014" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2014" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C2014" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="D2014" t="s">
         <v>1131</v>
       </c>
       <c r="E2014" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G2014" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="2015" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2015" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2015" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="C2015" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="D2015" t="s">
         <v>3</v>
       </c>
       <c r="E2015" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2016" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2016" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2016" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="C2016" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="D2016" t="s">
         <v>5</v>
       </c>
       <c r="E2016" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2017" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2017" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2017" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C2017" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="D2017" t="s">
         <v>3</v>
       </c>
       <c r="E2017" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2018" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2018" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B2018" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="C2018" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="D2018" t="s">
         <v>3</v>
       </c>
       <c r="E2018" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G2018" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="2019" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2019" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2019" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="C2019" t="s">
         <v>2</v>
@@ -51133,182 +51296,182 @@
         <v>3</v>
       </c>
       <c r="E2019" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="2020" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2020" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2020" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C2020" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="D2020" t="s">
         <v>4</v>
       </c>
       <c r="E2020" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="2021" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2021" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2021" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="C2021" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="D2021" t="s">
         <v>692</v>
       </c>
       <c r="E2021" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2022" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2022" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2022" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="C2022" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="D2022" t="s">
         <v>3</v>
       </c>
       <c r="E2022" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2023" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2023" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2023" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="C2023" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D2023" t="s">
         <v>5</v>
       </c>
       <c r="E2023" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2024" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2024" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2024" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C2024" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="D2024" t="s">
         <v>5</v>
       </c>
       <c r="E2024" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2025" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2025" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2025" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C2025" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="D2025" t="s">
         <v>692</v>
       </c>
       <c r="E2025" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2026" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2026" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2026" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C2026" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="D2026" t="s">
         <v>3</v>
       </c>
       <c r="E2026" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2027" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2027" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2027" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="C2027" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="D2027" t="s">
         <v>5</v>
       </c>
       <c r="E2027" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2028" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2028" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2028" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="C2028" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="D2028" t="s">
         <v>5</v>
       </c>
       <c r="E2028" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2029" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2029" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="B2029" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D2029" t="s">
         <v>3828</v>
       </c>
-      <c r="C2029" t="s">
-        <v>3839</v>
-      </c>
-      <c r="D2029" t="s">
-        <v>3829</v>
-      </c>
       <c r="E2029" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2030" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2030" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2030" t="s">
         <v>171</v>
@@ -51320,12 +51483,12 @@
         <v>3</v>
       </c>
       <c r="E2030" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="2031" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2031" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2031" t="s">
         <v>665</v>
@@ -51337,15 +51500,15 @@
         <v>4</v>
       </c>
       <c r="E2031" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2032" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2032" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2032" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="C2032" t="s">
         <v>8</v>
@@ -51354,15 +51517,15 @@
         <v>25</v>
       </c>
       <c r="E2032" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2033" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2033" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2033" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C2033" t="s">
         <v>9</v>
@@ -51371,15 +51534,15 @@
         <v>5</v>
       </c>
       <c r="E2033" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2034" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2034" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2034" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C2034" t="s">
         <v>10</v>
@@ -51388,15 +51551,15 @@
         <v>5</v>
       </c>
       <c r="E2034" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2035" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2035" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C2035" t="s">
         <v>11</v>
@@ -51405,15 +51568,15 @@
         <v>5</v>
       </c>
       <c r="E2035" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2036" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2036" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2036" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C2036" t="s">
         <v>12</v>
@@ -51422,15 +51585,15 @@
         <v>5</v>
       </c>
       <c r="E2036" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2037" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2037" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2037" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="C2037" t="s">
         <v>13</v>
@@ -51439,12 +51602,12 @@
         <v>5</v>
       </c>
       <c r="E2037" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2038" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2038" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2038" t="s">
         <v>727</v>
@@ -51456,12 +51619,12 @@
         <v>5</v>
       </c>
       <c r="E2038" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2039" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2039" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2039" t="s">
         <v>701</v>
@@ -51473,12 +51636,12 @@
         <v>5</v>
       </c>
       <c r="E2039" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2040" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2040" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2040" t="s">
         <v>29</v>
@@ -51490,12 +51653,12 @@
         <v>5</v>
       </c>
       <c r="E2040" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2041" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B2041" t="s">
         <v>30</v>
@@ -51507,15 +51670,15 @@
         <v>5</v>
       </c>
       <c r="E2041" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="2042" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2042" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2042" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="C2042" t="s">
         <v>2</v>
@@ -51524,12 +51687,12 @@
         <v>3</v>
       </c>
       <c r="E2042" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="2043" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2043" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2043" t="s">
         <v>27</v>
@@ -51541,15 +51704,15 @@
         <v>4</v>
       </c>
       <c r="E2043" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2044" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2044" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2044" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C2044" t="s">
         <v>10</v>
@@ -51558,15 +51721,15 @@
         <v>5</v>
       </c>
       <c r="E2044" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2045" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2045" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2045" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C2045" t="s">
         <v>11</v>
@@ -51575,15 +51738,15 @@
         <v>5</v>
       </c>
       <c r="E2045" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2046" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2046" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2046" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C2046" t="s">
         <v>12</v>
@@ -51592,12 +51755,12 @@
         <v>5</v>
       </c>
       <c r="E2046" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2047" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2047" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2047" t="s">
         <v>718</v>
@@ -51609,15 +51772,15 @@
         <v>5</v>
       </c>
       <c r="E2047" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2048" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2048" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2048" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C2048" t="s">
         <v>16</v>
@@ -51626,15 +51789,15 @@
         <v>5</v>
       </c>
       <c r="E2048" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2049" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2049" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2049" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C2049" t="s">
         <v>17</v>
@@ -51643,15 +51806,15 @@
         <v>5</v>
       </c>
       <c r="E2049" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2050" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2050" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2050" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="C2050" t="s">
         <v>689</v>
@@ -51660,15 +51823,15 @@
         <v>5</v>
       </c>
       <c r="E2050" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2051" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2051" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B2051" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="C2051" t="s">
         <v>688</v>
@@ -51677,12 +51840,12 @@
         <v>5</v>
       </c>
       <c r="E2051" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="2052" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2052" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2052" t="s">
         <v>204</v>
@@ -51694,12 +51857,12 @@
         <v>3</v>
       </c>
       <c r="E2052" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="2053" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2053" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="B2053" t="s">
         <v>206</v>
@@ -51711,12 +51874,12 @@
         <v>3</v>
       </c>
       <c r="E2053" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="2054" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2054" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2054" t="s">
         <v>27</v>
@@ -51728,166 +51891,600 @@
         <v>25</v>
       </c>
       <c r="E2054" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="2055" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2055" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2055" t="s">
         <v>239</v>
       </c>
       <c r="C2055" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="D2055" t="s">
         <v>5</v>
       </c>
       <c r="E2055" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2056" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2056" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D2056" t="s">
         <v>3881</v>
       </c>
-      <c r="C2056" t="s">
-        <v>3892</v>
-      </c>
-      <c r="D2056" t="s">
-        <v>3882</v>
-      </c>
       <c r="E2056" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="2057" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2057" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2057" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C2057" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="D2057" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="E2057" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="2058" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2058" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2058" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="C2058" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="D2058" t="s">
         <v>1430</v>
       </c>
       <c r="E2058" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="G2058" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="2059" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2059" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2059" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C2059" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D2059" t="s">
         <v>712</v>
       </c>
       <c r="E2059" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="2060" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2060" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2060" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="C2060" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="D2060" t="s">
         <v>5</v>
       </c>
       <c r="E2060" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2061" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2061" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="C2061" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="D2061" t="s">
         <v>1430</v>
       </c>
       <c r="E2061" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="G2061" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2062" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2062" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="C2062" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="D2062" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="E2062" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="2063" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2063" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2063" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="C2063" t="s">
+        <v>3898</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E2063" t="s">
         <v>3899</v>
       </c>
-      <c r="D2063" t="s">
-        <v>3882</v>
-      </c>
-      <c r="E2063" t="s">
-        <v>3900</v>
+    </row>
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2064" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2064" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2065" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2065" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2066" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2066" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2067" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2067" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2068" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2069" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2070" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2071" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2072" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2073" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2074" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2075" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2075" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G2075" s="1" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2076" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2077" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2078" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2079" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2080" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>4026</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>800</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>4040</v>
+      </c>
+      <c r="G2080" s="1" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2081" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>4040</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2082" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2083" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2084" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2085" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2086" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>4032</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2087" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2088" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>4040</v>
       </c>
     </row>
   </sheetData>

--- a/QuantStudio/Resource/WindDB2Info.xlsx
+++ b/QuantStudio/Resource/WindDB2Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$G$1875</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$118</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10942" uniqueCount="4042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11210" uniqueCount="4151">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12434,624 +12434,1009 @@
     <t>库存合计</t>
   </si>
   <si>
+    <t>可用库容量</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>fs_info_scname</t>
+  </si>
+  <si>
+    <t>ann_date</t>
+  </si>
+  <si>
+    <t>in_stock_total</t>
+  </si>
+  <si>
+    <t>in_stock</t>
+  </si>
+  <si>
+    <t>available_in_stock</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300指数成份股当日收盘权重</t>
+  </si>
+  <si>
+    <t>沪深300指数成份股当日收盘权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIndexHS300CloseWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算用股本(股)</t>
+  </si>
+  <si>
+    <t>NUMBER(20,2)</t>
+  </si>
+  <si>
+    <t>总股本(股)</t>
+  </si>
+  <si>
+    <t>自由流通比例(%)(归档后)</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>权重因子</t>
+  </si>
+  <si>
+    <t>收盘</t>
+  </si>
+  <si>
+    <t>调整后开盘参考价</t>
+  </si>
+  <si>
+    <t>总市值</t>
+  </si>
+  <si>
+    <t>计算用市值</t>
+  </si>
+  <si>
+    <t>i_weight</t>
+  </si>
+  <si>
+    <t>s_in_index</t>
+  </si>
+  <si>
+    <t>i_weight_11</t>
+  </si>
+  <si>
+    <t>i_weight_12</t>
+  </si>
+  <si>
+    <t>i_weight_14</t>
+  </si>
+  <si>
+    <t>i_weight_15</t>
+  </si>
+  <si>
+    <t>i_weight_16</t>
+  </si>
+  <si>
+    <t>i_weight_17</t>
+  </si>
+  <si>
+    <t>i_weight_18</t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>706001000:连续(当月);706002000:连一(次月);706003000:连二(当季);706004000:连三(下季);706005000:连四;706006000:活跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_fullname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_cctype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后交易日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_delistdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstituentTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股中证行业成分明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaOptionDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_ftdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_lasttradingdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货合约价格波动限制变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marginratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cfuturesmarginratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_dq_high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_dq_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国商品期货日行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前结算价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量(手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓量(手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货保证金比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货合约价格波动限制变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌停板幅度(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_dq_presettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货标准合约属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesContPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_mfprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_punit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_punit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易单位(每手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_tunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_thours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后交易日说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小变动价位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_cemultiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_lprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_maxpricefluct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大价格波动说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCommodityFuturesEODPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券中文简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_mapping_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约乘数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind 代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_price </t>
+  </si>
+  <si>
+    <t>成交价（元）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_volume </t>
+  </si>
+  <si>
+    <t>成交量（万股）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crncy_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">货币代码 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_buyername </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(200) </t>
+  </si>
+  <si>
+    <t>买方营业部名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_sellername </t>
+  </si>
+  <si>
+    <t>卖方营业部名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_block_frequency </t>
+  </si>
+  <si>
+    <t>笔数</t>
+  </si>
+  <si>
+    <t>AShareBlockTrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股大宗交易数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANNDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY:人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(同一代码+同一日期+同一买方营业部+同一卖方营业部+同一成交价+同一成交量)累计的笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩快报</t>
+  </si>
+  <si>
+    <t>AShareProfitExpress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩预告</t>
+  </si>
+  <si>
+    <t>AShareProfitNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入(元)</t>
+  </si>
+  <si>
+    <t>营业利润(元)</t>
+  </si>
+  <si>
+    <t>利润总额(元)</t>
+  </si>
+  <si>
+    <t>净利润(元)</t>
+  </si>
+  <si>
+    <t>总资产(元)</t>
+  </si>
+  <si>
+    <t>每股收益(摊薄)(元)</t>
+  </si>
+  <si>
+    <t>股东权益合计(不含少数股东权益)(元)</t>
+  </si>
+  <si>
+    <t>是否审计</t>
+  </si>
+  <si>
+    <t>eps_diluted</t>
+  </si>
+  <si>
+    <t>roe_diluted</t>
+  </si>
+  <si>
+    <t>s_isaudit</t>
+  </si>
+  <si>
+    <t>去年同期修正后净利润</t>
+  </si>
+  <si>
+    <t>净资产收益率(摊薄)(%)</t>
+  </si>
+  <si>
+    <t>中国A股业绩快报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoynet_profit_excl_min_int_inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股业绩预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩预告类型代码</t>
+  </si>
+  <si>
+    <t>预告净利润下限（万元）</t>
+  </si>
+  <si>
+    <t>预告净利润上限（万元）</t>
+  </si>
+  <si>
+    <t>公布次数</t>
+  </si>
+  <si>
+    <t>首次公告日</t>
+  </si>
+  <si>
+    <t>业绩预告摘要</t>
+  </si>
+  <si>
+    <t>s_profitnotice_date</t>
+  </si>
+  <si>
+    <t>s_profitnotice_period</t>
+  </si>
+  <si>
+    <t>s_profitnotice_style</t>
+  </si>
+  <si>
+    <t>s_profitnotice_signchange</t>
+  </si>
+  <si>
+    <t>s_profitnotice_changemin</t>
+  </si>
+  <si>
+    <t>s_profitnotice_changemax</t>
+  </si>
+  <si>
+    <t>s_profitnotice_netprofitmin</t>
+  </si>
+  <si>
+    <t>s_profitnotice_netprofitmax</t>
+  </si>
+  <si>
+    <t>s_profitnotice_number</t>
+  </si>
+  <si>
+    <t>s_profitnotice_firstanndate</t>
+  </si>
+  <si>
+    <t>s_profitnotice_abstract</t>
+  </si>
+  <si>
+    <t>不确定:454001000;略减:454002000;略增:454003000;扭亏:454004000;其他:454005000;首亏:454006000;续亏:454007000;续盈:454008000;预减:454009000;预增:454010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是;0:否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告净利润变动幅度下限（%）</t>
+  </si>
+  <si>
+    <t>预告净利润变动幅度上限（%）</t>
+  </si>
+  <si>
+    <t>是否变脸</t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>库存（注册成仓单）</t>
-  </si>
-  <si>
-    <t>可用库容量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>fs_info_scname</t>
-  </si>
-  <si>
-    <t>ann_date</t>
-  </si>
-  <si>
-    <t>in_stock_total</t>
-  </si>
-  <si>
-    <t>in_stock</t>
-  </si>
-  <si>
-    <t>available_in_stock</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国商品期货成交及持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国商品期货成交及持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_membername</t>
+  </si>
+  <si>
+    <t>fs_info_positionsnum</t>
+  </si>
+  <si>
+    <t>fs_info_rank</t>
+  </si>
+  <si>
+    <t>s_oi_positionsnumc</t>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员简称</t>
+  </si>
+  <si>
+    <t>名次</t>
+  </si>
+  <si>
+    <t>比上交易日增减</t>
+  </si>
+  <si>
+    <t>会员ID</t>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:成交量;2:持买单量;3:持卖单量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国股指期货成交及持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIndexFuturesPositions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国股指期货成交及持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沪深300指数成份股当日收盘权重</t>
-  </si>
-  <si>
-    <t>沪深300指数成份股当日收盘权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIndexHS300CloseWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算用股本(股)</t>
-  </si>
-  <si>
-    <t>NUMBER(20,2)</t>
-  </si>
-  <si>
-    <t>总股本(股)</t>
-  </si>
-  <si>
-    <t>自由流通比例(%)(归档后)</t>
-  </si>
-  <si>
-    <t>已废弃</t>
-  </si>
-  <si>
-    <t>权重因子</t>
-  </si>
-  <si>
-    <t>收盘</t>
-  </si>
-  <si>
-    <t>调整后开盘参考价</t>
-  </si>
-  <si>
-    <t>总市值</t>
-  </si>
-  <si>
-    <t>计算用市值</t>
-  </si>
-  <si>
-    <t>i_weight</t>
-  </si>
-  <si>
-    <t>s_in_index</t>
-  </si>
-  <si>
-    <t>i_weight_11</t>
-  </si>
-  <si>
-    <t>i_weight_12</t>
-  </si>
-  <si>
-    <t>i_weight_14</t>
-  </si>
-  <si>
-    <t>i_weight_15</t>
-  </si>
-  <si>
-    <t>i_weight_16</t>
-  </si>
-  <si>
-    <t>i_weight_17</t>
-  </si>
-  <si>
-    <t>i_weight_18</t>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货套保持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesHedgingPositions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买套保额度(元)</t>
+  </si>
+  <si>
+    <t>期货买套保持仓量(手)</t>
+  </si>
+  <si>
+    <t>卖套保额度(元)</t>
+  </si>
+  <si>
+    <t>期货卖套保持仓量(手)</t>
+  </si>
+  <si>
+    <t>fs_info_sccode</t>
+  </si>
+  <si>
+    <t>fs_info_date</t>
+  </si>
+  <si>
+    <t>buy_hedging_quota</t>
+  </si>
+  <si>
+    <t>buy_hedging_hold_amount</t>
+  </si>
+  <si>
+    <t>sell_hedging_quota</t>
+  </si>
+  <si>
+    <t>sell_hedging_hold_amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>706001000:连续(当月);706002000:连一(次月);706003000:连二(当季);706004000:连三(下季);706005000:连四;706006000:活跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFuturesDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_fullname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_cctype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退市日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后交易日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_delistdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstituentTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股中证行业成分明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChinaOptionDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_windcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_ftdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_lasttradingdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货合约价格波动限制变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marginratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cfuturesmarginratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_dq_high</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_dq_low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AShareEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上市日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国商品期货日行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前结算价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开盘价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算价(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交量(手)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交金额(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓量(手)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货保证金比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证金比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货合约价格波动限制变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涨跌停板幅度(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_dq_presettle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓量变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货标准合约属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFuturesContPro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_mfprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_punit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_punit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易单位(每手)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易计量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_tunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_thours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_listdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后交易日说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小变动价位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_cemultiplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_info_lprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_listdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_maxpricefluct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大价格波动说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCommodityFuturesEODPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券中文简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fs_mapping_windcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国期货基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合约乘数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind 代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_price </t>
-  </si>
-  <si>
-    <t>成交价（元）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_volume </t>
-  </si>
-  <si>
-    <t>成交量（万股）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">crncy_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">货币代码 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_buyername </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(200) </t>
-  </si>
-  <si>
-    <t>买方营业部名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_sellername </t>
-  </si>
-  <si>
-    <t>卖方营业部名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_block_frequency </t>
-  </si>
-  <si>
-    <t>笔数</t>
-  </si>
-  <si>
-    <t>AShareBlockTrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股大宗交易数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CFuturesPositionLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarketTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货月合约持仓限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货月合约持仓限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限仓对象类型代码</t>
+  </si>
+  <si>
+    <t>持仓限定数量</t>
+  </si>
+  <si>
+    <t>持仓限定比例</t>
+  </si>
+  <si>
+    <t>变动原因</t>
+  </si>
+  <si>
+    <t>position_limit_type</t>
+  </si>
+  <si>
+    <t>position_limit</t>
+  </si>
+  <si>
+    <t>change_reason</t>
+  </si>
+  <si>
+    <t>position_limit_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单边持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单边持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致持仓限定发生变化的时间分界点类型、合约单边持仓数量触发条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>711001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>711001000:会员;711001001:期货公司会员;711001002:非期货公司会员;711002000:客户;711002001:自然人客户;711002002:非自然人客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货库存报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesWarehouseStocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>仓库简称</t>
+  </si>
+  <si>
+    <t>本周库存合计</t>
+  </si>
+  <si>
+    <t>本周库存（注册成仓单）</t>
+  </si>
+  <si>
+    <t>本周可用库容量</t>
+  </si>
+  <si>
+    <t>入仓</t>
+  </si>
+  <si>
+    <t>出仓</t>
+  </si>
+  <si>
+    <t>注销仓单量</t>
+  </si>
+  <si>
+    <t>有效预报</t>
+  </si>
+  <si>
+    <t>warehouse_region</t>
+  </si>
+  <si>
+    <t>warehouse_name</t>
+  </si>
+  <si>
+    <t>deliverable_w</t>
+  </si>
+  <si>
+    <t>on_warrant_w</t>
+  </si>
+  <si>
+    <t>available_warehouse_w</t>
+  </si>
+  <si>
+    <t>quantity_unit</t>
+  </si>
+  <si>
+    <t>warehouse_in</t>
+  </si>
+  <si>
+    <t>warehouse_out</t>
+  </si>
+  <si>
+    <t>cancelled_warrants</t>
+  </si>
+  <si>
+    <t>effective_forecast</t>
   </si>
   <si>
     <t>ANNDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成交金额（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNY:人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(同一代码+同一日期+同一买方营业部+同一卖方营业部+同一成交价+同一成交量)累计的笔数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股业绩快报</t>
-  </si>
-  <si>
-    <t>AShareProfitExpress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股业绩预告</t>
-  </si>
-  <si>
-    <t>AShareProfitNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业收入(元)</t>
-  </si>
-  <si>
-    <t>营业利润(元)</t>
-  </si>
-  <si>
-    <t>利润总额(元)</t>
-  </si>
-  <si>
-    <t>净利润(元)</t>
-  </si>
-  <si>
-    <t>总资产(元)</t>
-  </si>
-  <si>
-    <t>每股收益(摊薄)(元)</t>
-  </si>
-  <si>
-    <t>股东权益合计(不含少数股东权益)(元)</t>
-  </si>
-  <si>
-    <t>是否审计</t>
-  </si>
-  <si>
-    <t>eps_diluted</t>
-  </si>
-  <si>
-    <t>roe_diluted</t>
-  </si>
-  <si>
-    <t>s_isaudit</t>
-  </si>
-  <si>
-    <t>去年同期修正后净利润</t>
-  </si>
-  <si>
-    <t>净资产收益率(摊薄)(%)</t>
-  </si>
-  <si>
-    <t>中国A股业绩快报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yoynet_profit_excl_min_int_inc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股业绩预告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩预告类型代码</t>
-  </si>
-  <si>
-    <t>预告净利润下限（万元）</t>
-  </si>
-  <si>
-    <t>预告净利润上限（万元）</t>
-  </si>
-  <si>
-    <t>公布次数</t>
-  </si>
-  <si>
-    <t>首次公告日</t>
-  </si>
-  <si>
-    <t>业绩预告摘要</t>
-  </si>
-  <si>
-    <t>s_profitnotice_date</t>
-  </si>
-  <si>
-    <t>s_profitnotice_period</t>
-  </si>
-  <si>
-    <t>s_profitnotice_style</t>
-  </si>
-  <si>
-    <t>s_profitnotice_signchange</t>
-  </si>
-  <si>
-    <t>s_profitnotice_changemin</t>
-  </si>
-  <si>
-    <t>s_profitnotice_changemax</t>
-  </si>
-  <si>
-    <t>s_profitnotice_netprofitmin</t>
-  </si>
-  <si>
-    <t>s_profitnotice_netprofitmax</t>
-  </si>
-  <si>
-    <t>s_profitnotice_number</t>
-  </si>
-  <si>
-    <t>s_profitnotice_firstanndate</t>
-  </si>
-  <si>
-    <t>s_profitnotice_abstract</t>
-  </si>
-  <si>
-    <t>不确定:454001000;略减:454002000;略增:454003000;扭亏:454004000;其他:454005000;首亏:454006000;续亏:454007000;续盈:454008000;预减:454009000;预增:454010000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:是;0:否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预告净利润变动幅度下限（%）</t>
-  </si>
-  <si>
-    <t>预告净利润变动幅度上限（%）</t>
-  </si>
-  <si>
-    <t>是否变脸</t>
-  </si>
-  <si>
     <t>因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货套利合约关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFuturesArbitrageContract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货套利合约关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联证券Wind代码</t>
+  </si>
+  <si>
+    <t>关系类型代码</t>
+  </si>
+  <si>
+    <t>生效日期</t>
+  </si>
+  <si>
+    <t>失效日期</t>
+  </si>
+  <si>
+    <t>s_info_ralatedcode</t>
+  </si>
+  <si>
+    <t>s_relation_typcode</t>
+  </si>
+  <si>
+    <t>s_info_effective_dt</t>
+  </si>
+  <si>
+    <t>s_info_invalid_dt</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCommodityFuturesPositions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs_info_membername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000300.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国商品期货成交及持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_compcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比上交易日增减</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13109,7 +13494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13120,6 +13505,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13425,10 +13813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13603,10 +13991,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B15" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="C15" t="s">
         <v>3501</v>
@@ -13702,10 +14090,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B24" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="C24" t="s">
         <v>471</v>
@@ -13870,10 +14258,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B39" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="C39" t="s">
         <v>3501</v>
@@ -13881,10 +14269,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="B40" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="C40" t="s">
         <v>3501</v>
@@ -13953,7 +14341,7 @@
         <v>3548</v>
       </c>
       <c r="C46" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -14002,7 +14390,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B51" t="s">
         <v>229</v>
@@ -14024,10 +14412,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B53" t="s">
         <v>3878</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3879</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
@@ -14206,7 +14594,7 @@
         <v>1174</v>
       </c>
       <c r="B69" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="C69" t="s">
         <v>856</v>
@@ -14214,10 +14602,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B70" t="s">
         <v>3949</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3950</v>
       </c>
       <c r="C70" t="s">
         <v>774</v>
@@ -14239,7 +14627,7 @@
         <v>3856</v>
       </c>
       <c r="B72" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="C72" t="s">
         <v>3721</v>
@@ -14247,7 +14635,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="B73" t="s">
         <v>3862</v>
@@ -14258,10 +14646,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>675</v>
+        <v>4068</v>
       </c>
       <c r="B74" t="s">
-        <v>676</v>
+        <v>4069</v>
       </c>
       <c r="C74" t="s">
         <v>471</v>
@@ -14269,32 +14657,29 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>3661</v>
+        <v>4084</v>
       </c>
       <c r="B75" t="s">
-        <v>3652</v>
+        <v>4082</v>
       </c>
       <c r="C75" t="s">
-        <v>471</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>3648</v>
+        <v>4129</v>
       </c>
       <c r="B76" t="s">
-        <v>3968</v>
-      </c>
-      <c r="C76" t="s">
-        <v>471</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>3864</v>
+        <v>3648</v>
       </c>
       <c r="B77" t="s">
-        <v>3865</v>
+        <v>3967</v>
       </c>
       <c r="C77" t="s">
         <v>471</v>
@@ -14302,10 +14687,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>3844</v>
+        <v>3864</v>
       </c>
       <c r="B78" t="s">
-        <v>3841</v>
+        <v>3865</v>
       </c>
       <c r="C78" t="s">
         <v>471</v>
@@ -14313,54 +14698,54 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>3853</v>
+        <v>4101</v>
       </c>
       <c r="B79" t="s">
-        <v>3851</v>
+        <v>4102</v>
       </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>732</v>
+      <c r="A80" s="5" t="s">
+        <v>4042</v>
       </c>
       <c r="B80" t="s">
-        <v>731</v>
+        <v>4140</v>
       </c>
       <c r="C80" t="s">
-        <v>471</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>1206</v>
+        <v>675</v>
       </c>
       <c r="B81" t="s">
-        <v>1179</v>
+        <v>676</v>
       </c>
       <c r="C81" t="s">
-        <v>1197</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>1227</v>
+        <v>4060</v>
       </c>
       <c r="B82" t="s">
-        <v>3029</v>
+        <v>4061</v>
       </c>
       <c r="C82" t="s">
-        <v>471</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>1228</v>
+        <v>3661</v>
       </c>
       <c r="B83" t="s">
-        <v>3030</v>
+        <v>3652</v>
       </c>
       <c r="C83" t="s">
         <v>471</v>
@@ -14368,10 +14753,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>1249</v>
+        <v>3844</v>
       </c>
       <c r="B84" t="s">
-        <v>3031</v>
+        <v>3841</v>
       </c>
       <c r="C84" t="s">
         <v>471</v>
@@ -14379,46 +14764,43 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>671</v>
+        <v>3853</v>
       </c>
       <c r="B85" t="s">
-        <v>3572</v>
+        <v>3851</v>
       </c>
       <c r="C85" t="s">
-        <v>670</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3573</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>3921</v>
+        <v>732</v>
       </c>
       <c r="B86" t="s">
-        <v>3154</v>
+        <v>731</v>
       </c>
       <c r="C86" t="s">
-        <v>774</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>740</v>
+        <v>1206</v>
       </c>
       <c r="B87" t="s">
-        <v>3032</v>
+        <v>1179</v>
       </c>
       <c r="C87" t="s">
-        <v>471</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>742</v>
+        <v>1227</v>
       </c>
       <c r="B88" t="s">
-        <v>743</v>
+        <v>3029</v>
       </c>
       <c r="C88" t="s">
         <v>471</v>
@@ -14426,10 +14808,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>1138</v>
+        <v>1228</v>
       </c>
       <c r="B89" t="s">
-        <v>3148</v>
+        <v>3030</v>
       </c>
       <c r="C89" t="s">
         <v>471</v>
@@ -14437,43 +14819,46 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>3186</v>
+        <v>1249</v>
       </c>
       <c r="B90" t="s">
-        <v>3185</v>
+        <v>3031</v>
       </c>
       <c r="C90" t="s">
-        <v>1022</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>3147</v>
+        <v>671</v>
       </c>
       <c r="B91" t="s">
-        <v>1145</v>
+        <v>3572</v>
       </c>
       <c r="C91" t="s">
-        <v>471</v>
+        <v>670</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3573</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>1150</v>
+        <v>3920</v>
       </c>
       <c r="B92" t="s">
-        <v>3033</v>
+        <v>3154</v>
       </c>
       <c r="C92" t="s">
-        <v>471</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>3036</v>
+        <v>740</v>
       </c>
       <c r="B93" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="C93" t="s">
         <v>471</v>
@@ -14481,21 +14866,21 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>3113</v>
+        <v>742</v>
       </c>
       <c r="B94" t="s">
-        <v>3114</v>
+        <v>743</v>
       </c>
       <c r="C94" t="s">
-        <v>774</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>1273</v>
+        <v>1138</v>
       </c>
       <c r="B95" t="s">
-        <v>1268</v>
+        <v>3148</v>
       </c>
       <c r="C95" t="s">
         <v>471</v>
@@ -14503,21 +14888,21 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>3134</v>
+        <v>3186</v>
       </c>
       <c r="B96" t="s">
-        <v>3126</v>
+        <v>3185</v>
       </c>
       <c r="C96" t="s">
-        <v>3127</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>3106</v>
+        <v>3147</v>
       </c>
       <c r="B97" t="s">
-        <v>3105</v>
+        <v>1145</v>
       </c>
       <c r="C97" t="s">
         <v>471</v>
@@ -14525,43 +14910,43 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>3088</v>
+        <v>1150</v>
       </c>
       <c r="B98" t="s">
-        <v>3066</v>
+        <v>3033</v>
       </c>
       <c r="C98" t="s">
-        <v>3067</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>3564</v>
+        <v>3036</v>
       </c>
       <c r="B99" t="s">
-        <v>3091</v>
+        <v>3037</v>
       </c>
       <c r="C99" t="s">
-        <v>1022</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>1255</v>
+        <v>3113</v>
       </c>
       <c r="B100" t="s">
-        <v>1256</v>
+        <v>3114</v>
       </c>
       <c r="C100" t="s">
-        <v>471</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>755</v>
+        <v>1273</v>
       </c>
       <c r="B101" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="C101" t="s">
         <v>471</v>
@@ -14569,21 +14954,21 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>1274</v>
+        <v>3134</v>
       </c>
       <c r="B102" t="s">
-        <v>1275</v>
+        <v>3126</v>
       </c>
       <c r="C102" t="s">
-        <v>471</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>1277</v>
+        <v>3106</v>
       </c>
       <c r="B103" t="s">
-        <v>1280</v>
+        <v>3105</v>
       </c>
       <c r="C103" t="s">
         <v>471</v>
@@ -14591,108 +14976,174 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>1281</v>
+        <v>3088</v>
       </c>
       <c r="B104" t="s">
-        <v>1282</v>
+        <v>3066</v>
       </c>
       <c r="C104" t="s">
-        <v>471</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>3665</v>
+        <v>3564</v>
       </c>
       <c r="B105" t="s">
-        <v>3664</v>
+        <v>3091</v>
       </c>
       <c r="C105" t="s">
-        <v>3667</v>
-      </c>
-      <c r="D105" t="s">
-        <v>3668</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>3694</v>
+        <v>1255</v>
       </c>
       <c r="B106" t="s">
-        <v>3914</v>
+        <v>1256</v>
       </c>
       <c r="C106" t="s">
-        <v>3812</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>3813</v>
+        <v>755</v>
       </c>
       <c r="B107" t="s">
-        <v>3811</v>
+        <v>1283</v>
       </c>
       <c r="C107" t="s">
-        <v>3695</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>3722</v>
+        <v>1274</v>
       </c>
       <c r="B108" t="s">
-        <v>3720</v>
+        <v>1275</v>
       </c>
       <c r="C108" t="s">
-        <v>3721</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>3742</v>
+        <v>1277</v>
       </c>
       <c r="B109" t="s">
-        <v>3741</v>
+        <v>1280</v>
       </c>
       <c r="C109" t="s">
-        <v>3721</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>3751</v>
+        <v>1281</v>
       </c>
       <c r="B110" t="s">
-        <v>3752</v>
+        <v>1282</v>
       </c>
       <c r="C110" t="s">
-        <v>3721</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>3759</v>
+        <v>3665</v>
       </c>
       <c r="B111" t="s">
-        <v>3758</v>
+        <v>3664</v>
       </c>
       <c r="C111" t="s">
-        <v>3721</v>
+        <v>3667</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3668</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>3815</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B118" t="s">
         <v>3816</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C118" t="s">
         <v>3721</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C112">
+  <autoFilter ref="A1:C118">
     <sortState ref="A2:C33">
       <sortCondition ref="C1"/>
     </sortState>
@@ -14705,10 +15156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2088"/>
+  <dimension ref="A1:G2136"/>
   <sheetViews>
-    <sheetView topLeftCell="A1825" workbookViewId="0">
-      <selection activeCell="A1804" sqref="A1804:XFD1807"/>
+    <sheetView tabSelected="1" topLeftCell="A2070" workbookViewId="0">
+      <selection activeCell="C2090" sqref="C2090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22435,7 +22886,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="B423" t="s">
         <v>760</v>
@@ -22456,10 +22907,10 @@
         <v>855</v>
       </c>
       <c r="B424" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="C424" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="D424" t="s">
         <v>213</v>
@@ -22513,7 +22964,7 @@
         <v>1176</v>
       </c>
       <c r="C427" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="D427" t="s">
         <v>850</v>
@@ -22534,7 +22985,7 @@
         <v>851</v>
       </c>
       <c r="C428" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="D428" t="s">
         <v>800</v>
@@ -22544,7 +22995,7 @@
       </c>
       <c r="F428"/>
       <c r="G428" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -22552,10 +23003,10 @@
         <v>855</v>
       </c>
       <c r="B429" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C429" t="s">
         <v>3900</v>
-      </c>
-      <c r="C429" t="s">
-        <v>3901</v>
       </c>
       <c r="D429" t="s">
         <v>25</v>
@@ -22567,13 +23018,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B430" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="C430" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
@@ -22588,10 +23039,10 @@
         <v>855</v>
       </c>
       <c r="B431" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C431" t="s">
         <v>3909</v>
-      </c>
-      <c r="C431" t="s">
-        <v>3910</v>
       </c>
       <c r="D431" t="s">
         <v>4</v>
@@ -22627,7 +23078,7 @@
         <v>854</v>
       </c>
       <c r="C433" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -22663,7 +23114,7 @@
         <v>1177</v>
       </c>
       <c r="C435" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -22699,7 +23150,7 @@
         <v>849</v>
       </c>
       <c r="C437" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="D437" t="s">
         <v>692</v>
@@ -22717,7 +23168,7 @@
         <v>861</v>
       </c>
       <c r="C438" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -22732,10 +23183,10 @@
         <v>896</v>
       </c>
       <c r="B439" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C439" t="s">
         <v>3956</v>
-      </c>
-      <c r="C439" t="s">
-        <v>3957</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -22750,10 +23201,10 @@
         <v>896</v>
       </c>
       <c r="B440" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="C440" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -22768,10 +23219,10 @@
         <v>896</v>
       </c>
       <c r="B441" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="C441" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="D441" t="s">
         <v>862</v>
@@ -22825,7 +23276,7 @@
         <v>866</v>
       </c>
       <c r="C444" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="D444" t="s">
         <v>864</v>
@@ -22840,7 +23291,7 @@
         <v>896</v>
       </c>
       <c r="B445" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="C445" t="s">
         <v>885</v>
@@ -22876,10 +23327,10 @@
         <v>896</v>
       </c>
       <c r="B447" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C447" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -22897,7 +23348,7 @@
         <v>870</v>
       </c>
       <c r="C448" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
@@ -22912,10 +23363,10 @@
         <v>896</v>
       </c>
       <c r="B449" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="C449" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="D449" t="s">
         <v>4</v>
@@ -22933,7 +23384,7 @@
         <v>871</v>
       </c>
       <c r="C450" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="D450" t="s">
         <v>692</v>
@@ -23020,10 +23471,10 @@
         <v>896</v>
       </c>
       <c r="B455" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="C455" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="D455" t="s">
         <v>864</v>
@@ -23077,7 +23528,7 @@
         <v>878</v>
       </c>
       <c r="C458" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="D458" t="s">
         <v>862</v>
@@ -23131,7 +23582,7 @@
         <v>881</v>
       </c>
       <c r="C461" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="D461" t="s">
         <v>25</v>
@@ -23143,7 +23594,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="B462" t="s">
         <v>3854</v>
@@ -23163,10 +23614,10 @@
         <v>3855</v>
       </c>
       <c r="B463" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C463" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -23183,7 +23634,7 @@
         <v>3302</v>
       </c>
       <c r="C464" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="D464" t="s">
         <v>4</v>
@@ -23214,7 +23665,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="B466" t="s">
         <v>3749</v>
@@ -23237,7 +23688,7 @@
         <v>3861</v>
       </c>
       <c r="B467" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="C467" t="s">
         <v>3859</v>
@@ -23274,7 +23725,7 @@
         <v>861</v>
       </c>
       <c r="C469" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -23291,7 +23742,7 @@
         <v>665</v>
       </c>
       <c r="C470" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="D470" t="s">
         <v>4</v>
@@ -23308,13 +23759,13 @@
         <v>3866</v>
       </c>
       <c r="C471" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="D471" t="s">
         <v>5</v>
       </c>
       <c r="E471" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.15">
@@ -23322,16 +23773,16 @@
         <v>3863</v>
       </c>
       <c r="B472" t="s">
-        <v>3867</v>
+        <v>4041</v>
       </c>
       <c r="C472" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D472" t="s">
         <v>5</v>
       </c>
       <c r="E472" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
@@ -23339,16 +23790,16 @@
         <v>3863</v>
       </c>
       <c r="B473" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C473" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
       </c>
       <c r="E473" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
@@ -23356,16 +23807,16 @@
         <v>3863</v>
       </c>
       <c r="B474" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="C474" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
       </c>
       <c r="E474" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -24561,7 +25012,7 @@
         <v>698</v>
       </c>
       <c r="C540" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="D540" t="s">
         <v>692</v>
@@ -24579,7 +25030,7 @@
         <v>693</v>
       </c>
       <c r="C541" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="D541" t="s">
         <v>4</v>
@@ -47197,10 +47648,10 @@
     </row>
     <row r="1789" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1789" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1789" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="C1789" t="s">
         <v>3049</v>
@@ -47209,12 +47660,12 @@
         <v>454</v>
       </c>
       <c r="E1789" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1790" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1790" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1790" t="s">
         <v>27</v>
@@ -47226,18 +47677,18 @@
         <v>455</v>
       </c>
       <c r="E1790" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1791" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1791" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1791" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="C1791" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="D1791" t="s">
         <v>456</v>
@@ -47248,13 +47699,13 @@
     </row>
     <row r="1792" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1792" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1792" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="C1792" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="D1792" t="s">
         <v>456</v>
@@ -47265,13 +47716,13 @@
     </row>
     <row r="1793" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1793" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1793" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="C1793" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="D1793" t="s">
         <v>456</v>
@@ -47282,13 +47733,13 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1794" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1794" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="C1794" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="D1794" t="s">
         <v>3081</v>
@@ -47297,21 +47748,21 @@
         <v>1189</v>
       </c>
       <c r="G1794" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1795" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1795" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1795" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="C1795" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D1795" t="s">
         <v>3983</v>
-      </c>
-      <c r="D1795" t="s">
-        <v>3984</v>
       </c>
       <c r="E1795" t="s">
         <v>1189</v>
@@ -47319,16 +47770,16 @@
     </row>
     <row r="1796" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1796" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1796" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="C1796" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="D1796" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="E1796" t="s">
         <v>1189</v>
@@ -47336,13 +47787,13 @@
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1797" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B1797" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="C1797" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="D1797" t="s">
         <v>456</v>
@@ -47351,7 +47802,7 @@
         <v>1189</v>
       </c>
       <c r="G1797" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.15">
@@ -49215,7 +49666,7 @@
     </row>
     <row r="1901" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1901" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B1901" t="s">
         <v>171</v>
@@ -49238,7 +49689,7 @@
         <v>27</v>
       </c>
       <c r="C1902" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="D1902" t="s">
         <v>4</v>
@@ -49252,10 +49703,10 @@
         <v>3647</v>
       </c>
       <c r="B1903" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="C1903" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="D1903" t="s">
         <v>5</v>
@@ -49269,7 +49720,7 @@
         <v>3647</v>
       </c>
       <c r="B1904" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C1904" t="s">
         <v>10</v>
@@ -49286,10 +49737,10 @@
         <v>3647</v>
       </c>
       <c r="B1905" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C1905" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="D1905" t="s">
         <v>5</v>
@@ -49303,10 +49754,10 @@
         <v>3647</v>
       </c>
       <c r="B1906" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C1906" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="D1906" t="s">
         <v>5</v>
@@ -49320,7 +49771,7 @@
         <v>3647</v>
       </c>
       <c r="B1907" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C1907" t="s">
         <v>13</v>
@@ -49337,7 +49788,7 @@
         <v>3647</v>
       </c>
       <c r="B1908" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C1908" t="s">
         <v>688</v>
@@ -49354,7 +49805,7 @@
         <v>3647</v>
       </c>
       <c r="B1909" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="C1909" t="s">
         <v>16</v>
@@ -49371,7 +49822,7 @@
         <v>3647</v>
       </c>
       <c r="B1910" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C1910" t="s">
         <v>17</v>
@@ -49388,7 +49839,7 @@
         <v>3647</v>
       </c>
       <c r="B1911" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C1911" t="s">
         <v>689</v>
@@ -49425,7 +49876,7 @@
         <v>3647</v>
       </c>
       <c r="B1913" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="C1913" t="s">
         <v>3646</v>
@@ -49686,7 +50137,7 @@
         <v>3669</v>
       </c>
       <c r="C1928" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="D1928" t="s">
         <v>3</v>
@@ -49706,7 +50157,7 @@
         <v>3672</v>
       </c>
       <c r="C1929" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="D1929" t="s">
         <v>3</v>
@@ -49857,7 +50308,7 @@
         <v>3683</v>
       </c>
       <c r="C1937" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="D1937" t="s">
         <v>4</v>
@@ -49874,7 +50325,7 @@
         <v>3684</v>
       </c>
       <c r="C1938" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="D1938" t="s">
         <v>4</v>
@@ -50756,7 +51207,7 @@
         <v>3761</v>
       </c>
       <c r="C1989" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="D1989" t="s">
         <v>3</v>
@@ -50776,7 +51227,7 @@
         <v>3678</v>
       </c>
       <c r="C1990" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="D1990" t="s">
         <v>692</v>
@@ -50830,7 +51281,7 @@
         <v>3765</v>
       </c>
       <c r="C1993" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="D1993" t="s">
         <v>692</v>
@@ -51845,7 +52296,7 @@
     </row>
     <row r="2052" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2052" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2052" t="s">
         <v>204</v>
@@ -51857,12 +52308,15 @@
         <v>3</v>
       </c>
       <c r="E2052" t="s">
-        <v>3757</v>
+        <v>1210</v>
+      </c>
+      <c r="F2052" s="2" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="2053" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2053" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="B2053" t="s">
         <v>206</v>
@@ -51879,7 +52333,7 @@
     </row>
     <row r="2054" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2054" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2054" t="s">
         <v>27</v>
@@ -51896,166 +52350,166 @@
     </row>
     <row r="2055" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2055" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2055" t="s">
         <v>239</v>
       </c>
       <c r="C2055" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="D2055" t="s">
         <v>5</v>
       </c>
       <c r="E2055" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2056" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2056" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D2056" t="s">
         <v>3880</v>
       </c>
-      <c r="C2056" t="s">
-        <v>3891</v>
-      </c>
-      <c r="D2056" t="s">
-        <v>3881</v>
-      </c>
       <c r="E2056" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="2057" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2057" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2057" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="C2057" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="D2057" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="E2057" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="2058" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2058" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2058" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C2058" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="D2058" t="s">
         <v>1430</v>
       </c>
       <c r="E2058" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="G2058" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="2059" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2059" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2059" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C2059" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="D2059" t="s">
         <v>712</v>
       </c>
       <c r="E2059" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="2060" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2060" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2060" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C2060" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D2060" t="s">
         <v>5</v>
       </c>
       <c r="E2060" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2061" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2061" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="C2061" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="D2061" t="s">
         <v>1430</v>
       </c>
       <c r="E2061" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="G2061" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2062" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2062" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="C2062" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="D2062" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="E2062" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="2063" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2063" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2063" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="C2063" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E2063" t="s">
         <v>3898</v>
-      </c>
-      <c r="D2063" t="s">
-        <v>3881</v>
-      </c>
-      <c r="E2063" t="s">
-        <v>3899</v>
       </c>
     </row>
     <row r="2064" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2064" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2064" t="s">
         <v>171</v>
@@ -52067,12 +52521,12 @@
         <v>3</v>
       </c>
       <c r="E2064" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="2065" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2065" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2065" t="s">
         <v>636</v>
@@ -52089,7 +52543,7 @@
     </row>
     <row r="2066" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2066" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2066" t="s">
         <v>1312</v>
@@ -52101,15 +52555,15 @@
         <v>4</v>
       </c>
       <c r="E2066" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="2067" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2067" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2067" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C2067" t="s">
         <v>1316</v>
@@ -52123,10 +52577,10 @@
     </row>
     <row r="2068" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2068" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2068" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C2068" t="s">
         <v>1394</v>
@@ -52140,10 +52594,10 @@
     </row>
     <row r="2069" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2069" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2069" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C2069" t="s">
         <v>1401</v>
@@ -52157,10 +52611,10 @@
     </row>
     <row r="2070" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2070" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2070" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C2070" t="s">
         <v>1409</v>
@@ -52174,10 +52628,10 @@
     </row>
     <row r="2071" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2071" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2071" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C2071" t="s">
         <v>2002</v>
@@ -52191,10 +52645,10 @@
     </row>
     <row r="2072" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2072" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2072" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C2072" t="s">
         <v>2124</v>
@@ -52208,13 +52662,13 @@
     </row>
     <row r="2073" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2073" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2073" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C2073" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="D2073" t="s">
         <v>5</v>
@@ -52225,13 +52679,13 @@
     </row>
     <row r="2074" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2074" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2074" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="C2074" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="D2074" t="s">
         <v>5</v>
@@ -52242,13 +52696,13 @@
     </row>
     <row r="2075" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2075" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2075" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C2075" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="D2075" t="s">
         <v>770</v>
@@ -52262,13 +52716,13 @@
     </row>
     <row r="2076" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2076" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B2076" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C2076" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="D2076" t="s">
         <v>456</v>
@@ -52279,7 +52733,7 @@
     </row>
     <row r="2077" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2077" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2077" t="s">
         <v>171</v>
@@ -52291,18 +52745,18 @@
         <v>3</v>
       </c>
       <c r="E2077" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="2078" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2078" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2078" t="s">
         <v>636</v>
       </c>
       <c r="C2078" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="D2078" t="s">
         <v>4</v>
@@ -52313,178 +52767,1024 @@
     </row>
     <row r="2079" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2079" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2079" t="s">
         <v>1312</v>
       </c>
       <c r="C2079" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="D2079" t="s">
         <v>4</v>
       </c>
       <c r="E2079" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2080" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2080" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2080" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C2080" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="D2080" t="s">
         <v>800</v>
       </c>
       <c r="E2080" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="G2080" s="1" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="2081" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2081" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2081" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="C2081" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="D2081" t="s">
         <v>25</v>
       </c>
       <c r="E2081" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="G2081" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="2082" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2082" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2082" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="C2082" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="D2082" t="s">
         <v>5</v>
       </c>
       <c r="E2082" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2083" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2083" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2083" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="C2083" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="D2083" t="s">
         <v>5</v>
       </c>
       <c r="E2083" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2084" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2084" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2084" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="C2084" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="D2084" t="s">
         <v>5</v>
       </c>
       <c r="E2084" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2085" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2085" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2085" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C2085" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="D2085" t="s">
         <v>5</v>
       </c>
       <c r="E2085" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2086" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2086" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2086" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="C2086" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="D2086" t="s">
         <v>3282</v>
       </c>
       <c r="E2086" t="s">
-        <v>4040</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="2087" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2087" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2087" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="C2087" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="D2087" t="s">
         <v>4</v>
       </c>
       <c r="E2087" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2088" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2088" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="B2088" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="C2088" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="D2088" t="s">
         <v>862</v>
       </c>
       <c r="E2088" t="s">
-        <v>4040</v>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2089" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2090" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2091" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2092" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>4059</v>
+      </c>
+      <c r="F2092" s="2" t="s">
+        <v>4142</v>
+      </c>
+      <c r="G2092" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2093" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2094" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2095" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2096" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2097" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2098" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2099" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2100" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2101" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>850</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F2101" s="2" t="s">
+        <v>4143</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2102" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2103" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2104" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2105" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2106" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2107" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>849</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2108" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2109" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2110" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2111" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2112" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2113" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2114" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>800</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>4094</v>
+      </c>
+      <c r="F2114" s="2" t="s">
+        <v>4099</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2115" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2116" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G2116" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2117" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>4081</v>
+      </c>
+      <c r="G2117" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2118" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2119" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2120" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>849</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>692</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2121" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2122" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F2122" s="2" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2123" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>4114</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2124" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2125" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>4116</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2126" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2127" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2128" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>4119</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2129" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>4120</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2130" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>4121</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2131" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2132" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2133" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2134" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>800</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2135" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2136" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>4133</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>4138</v>
       </c>
     </row>
   </sheetData>

--- a/QuantStudio/Resource/WindDB2Info.xlsx
+++ b/QuantStudio/Resource/WindDB2Info.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511B57F-3091-4417-B122-A86503D79EE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21840" windowHeight="9645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="3855" yWindow="3855" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11210" uniqueCount="4151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11210" uniqueCount="4150">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11786,10 +11787,6 @@
   </si>
   <si>
     <t>中国期权交易日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13443,7 +13440,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -13527,7 +13524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13602,6 +13599,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13637,6 +13651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13812,11 +13843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13848,7 +13879,7 @@
         <v>3566</v>
       </c>
       <c r="C2" t="s">
-        <v>3666</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
         <v>3570</v>
@@ -13991,10 +14022,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B15" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="C15" t="s">
         <v>3501</v>
@@ -14090,10 +14121,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B24" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="C24" t="s">
         <v>471</v>
@@ -14258,10 +14289,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B39" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="C39" t="s">
         <v>3501</v>
@@ -14269,10 +14300,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="B40" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="C40" t="s">
         <v>3501</v>
@@ -14341,7 +14372,7 @@
         <v>3548</v>
       </c>
       <c r="C46" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -14390,7 +14421,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B51" t="s">
         <v>229</v>
@@ -14412,10 +14443,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B53" t="s">
         <v>3877</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3878</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
@@ -14594,7 +14625,7 @@
         <v>1174</v>
       </c>
       <c r="B69" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="C69" t="s">
         <v>856</v>
@@ -14602,10 +14633,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B70" t="s">
         <v>3948</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3949</v>
       </c>
       <c r="C70" t="s">
         <v>774</v>
@@ -14624,32 +14655,32 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B72" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="C72" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="B73" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="C73" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B74" t="s">
         <v>4068</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4069</v>
       </c>
       <c r="C74" t="s">
         <v>471</v>
@@ -14657,21 +14688,21 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B75" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C75" t="s">
         <v>4082</v>
-      </c>
-      <c r="C75" t="s">
-        <v>4083</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="B76" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -14679,7 +14710,7 @@
         <v>3648</v>
       </c>
       <c r="B77" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="C77" t="s">
         <v>471</v>
@@ -14687,10 +14718,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B78" t="s">
         <v>3864</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3865</v>
       </c>
       <c r="C78" t="s">
         <v>471</v>
@@ -14698,24 +14729,24 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>4100</v>
+      </c>
+      <c r="B79" t="s">
         <v>4101</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>4102</v>
-      </c>
-      <c r="C79" t="s">
-        <v>4103</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C80" t="s">
         <v>4042</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4140</v>
-      </c>
-      <c r="C80" t="s">
-        <v>4043</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -14731,10 +14762,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B82" t="s">
         <v>4060</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4061</v>
       </c>
       <c r="C82" t="s">
         <v>3501</v>
@@ -14753,10 +14784,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="B84" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="C84" t="s">
         <v>471</v>
@@ -14764,10 +14795,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B85" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="C85" t="s">
         <v>471</v>
@@ -14844,7 +14875,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="B92" t="s">
         <v>3154</v>
@@ -15059,91 +15090,91 @@
         <v>3664</v>
       </c>
       <c r="C111" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D111" t="s">
         <v>3667</v>
-      </c>
-      <c r="D111" t="s">
-        <v>3668</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="B112" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="C112" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B113" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="C113" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="B114" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C114" t="s">
         <v>3720</v>
-      </c>
-      <c r="C114" t="s">
-        <v>3721</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="B115" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="C115" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B116" t="s">
         <v>3751</v>
       </c>
-      <c r="B116" t="s">
-        <v>3752</v>
-      </c>
       <c r="C116" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B117" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="C117" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B118" t="s">
         <v>3815</v>
       </c>
-      <c r="B118" t="s">
-        <v>3816</v>
-      </c>
       <c r="C118" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C118">
+  <autoFilter ref="A1:C118" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:C33">
       <sortCondition ref="C1"/>
     </sortState>
@@ -15155,10 +15186,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2070" workbookViewId="0">
+    <sheetView topLeftCell="A2070" workbookViewId="0">
       <selection activeCell="C2090" sqref="C2090"/>
     </sheetView>
   </sheetViews>
@@ -22886,7 +22917,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="B423" t="s">
         <v>760</v>
@@ -22907,10 +22938,10 @@
         <v>855</v>
       </c>
       <c r="B424" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="C424" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="D424" t="s">
         <v>213</v>
@@ -22964,7 +22995,7 @@
         <v>1176</v>
       </c>
       <c r="C427" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="D427" t="s">
         <v>850</v>
@@ -22985,7 +23016,7 @@
         <v>851</v>
       </c>
       <c r="C428" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="D428" t="s">
         <v>800</v>
@@ -22995,7 +23026,7 @@
       </c>
       <c r="F428"/>
       <c r="G428" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -23003,10 +23034,10 @@
         <v>855</v>
       </c>
       <c r="B429" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C429" t="s">
         <v>3899</v>
-      </c>
-      <c r="C429" t="s">
-        <v>3900</v>
       </c>
       <c r="D429" t="s">
         <v>25</v>
@@ -23018,13 +23049,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="B430" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="C430" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
@@ -23039,10 +23070,10 @@
         <v>855</v>
       </c>
       <c r="B431" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C431" t="s">
         <v>3908</v>
-      </c>
-      <c r="C431" t="s">
-        <v>3909</v>
       </c>
       <c r="D431" t="s">
         <v>4</v>
@@ -23078,7 +23109,7 @@
         <v>854</v>
       </c>
       <c r="C433" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -23114,7 +23145,7 @@
         <v>1177</v>
       </c>
       <c r="C435" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -23150,7 +23181,7 @@
         <v>849</v>
       </c>
       <c r="C437" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="D437" t="s">
         <v>692</v>
@@ -23168,7 +23199,7 @@
         <v>861</v>
       </c>
       <c r="C438" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -23183,10 +23214,10 @@
         <v>896</v>
       </c>
       <c r="B439" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C439" t="s">
         <v>3955</v>
-      </c>
-      <c r="C439" t="s">
-        <v>3956</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -23201,10 +23232,10 @@
         <v>896</v>
       </c>
       <c r="B440" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="C440" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -23219,10 +23250,10 @@
         <v>896</v>
       </c>
       <c r="B441" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="C441" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="D441" t="s">
         <v>862</v>
@@ -23276,7 +23307,7 @@
         <v>866</v>
       </c>
       <c r="C444" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="D444" t="s">
         <v>864</v>
@@ -23291,7 +23322,7 @@
         <v>896</v>
       </c>
       <c r="B445" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="C445" t="s">
         <v>885</v>
@@ -23327,10 +23358,10 @@
         <v>896</v>
       </c>
       <c r="B447" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="C447" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="D447" t="s">
         <v>5</v>
@@ -23348,7 +23379,7 @@
         <v>870</v>
       </c>
       <c r="C448" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
@@ -23363,10 +23394,10 @@
         <v>896</v>
       </c>
       <c r="B449" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="C449" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="D449" t="s">
         <v>4</v>
@@ -23384,7 +23415,7 @@
         <v>871</v>
       </c>
       <c r="C450" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="D450" t="s">
         <v>692</v>
@@ -23471,10 +23502,10 @@
         <v>896</v>
       </c>
       <c r="B455" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="C455" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="D455" t="s">
         <v>864</v>
@@ -23528,7 +23559,7 @@
         <v>878</v>
       </c>
       <c r="C458" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="D458" t="s">
         <v>862</v>
@@ -23582,7 +23613,7 @@
         <v>881</v>
       </c>
       <c r="C461" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="D461" t="s">
         <v>25</v>
@@ -23594,10 +23625,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="B462" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="C462" t="s">
         <v>2</v>
@@ -23611,13 +23642,13 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="B463" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C463" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="D463" t="s">
         <v>3</v>
@@ -23628,13 +23659,13 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="B464" t="s">
         <v>3302</v>
       </c>
       <c r="C464" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="D464" t="s">
         <v>4</v>
@@ -23645,7 +23676,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B465" t="s">
         <v>171</v>
@@ -23657,21 +23688,21 @@
         <v>3</v>
       </c>
       <c r="E465" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="G465" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="B466" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C466" t="s">
         <v>3749</v>
-      </c>
-      <c r="C466" t="s">
-        <v>3750</v>
       </c>
       <c r="D466" t="s">
         <v>3</v>
@@ -23680,18 +23711,18 @@
         <v>3651</v>
       </c>
       <c r="G466" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B467" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="C467" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="D467" t="s">
         <v>5</v>
@@ -23702,7 +23733,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B468" t="s">
         <v>3302</v>
@@ -23719,13 +23750,13 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B469" t="s">
         <v>861</v>
       </c>
       <c r="C469" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="D469" t="s">
         <v>3</v>
@@ -23736,13 +23767,13 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B470" t="s">
         <v>665</v>
       </c>
       <c r="C470" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="D470" t="s">
         <v>4</v>
@@ -23753,70 +23784,70 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B471" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="C471" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="D471" t="s">
         <v>5</v>
       </c>
       <c r="E471" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B472" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="C472" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="D472" t="s">
         <v>5</v>
       </c>
       <c r="E472" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B473" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="C473" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D473" t="s">
         <v>5</v>
       </c>
       <c r="E473" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B474" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C474" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="D474" t="s">
         <v>3</v>
       </c>
       <c r="E474" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.15">
@@ -25012,7 +25043,7 @@
         <v>698</v>
       </c>
       <c r="C540" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="D540" t="s">
         <v>692</v>
@@ -25030,7 +25061,7 @@
         <v>693</v>
       </c>
       <c r="C541" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="D541" t="s">
         <v>4</v>
@@ -47648,10 +47679,10 @@
     </row>
     <row r="1789" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1789" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1789" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="C1789" t="s">
         <v>3049</v>
@@ -47660,12 +47691,12 @@
         <v>454</v>
       </c>
       <c r="E1789" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1790" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1790" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1790" t="s">
         <v>27</v>
@@ -47677,18 +47708,18 @@
         <v>455</v>
       </c>
       <c r="E1790" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1791" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1791" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1791" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="C1791" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="D1791" t="s">
         <v>456</v>
@@ -47699,13 +47730,13 @@
     </row>
     <row r="1792" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1792" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1792" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="C1792" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="D1792" t="s">
         <v>456</v>
@@ -47716,13 +47747,13 @@
     </row>
     <row r="1793" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1793" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1793" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="C1793" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="D1793" t="s">
         <v>456</v>
@@ -47733,13 +47764,13 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1794" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1794" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="C1794" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="D1794" t="s">
         <v>3081</v>
@@ -47748,21 +47779,21 @@
         <v>1189</v>
       </c>
       <c r="G1794" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="1795" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1795" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1795" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="C1795" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D1795" t="s">
         <v>3982</v>
-      </c>
-      <c r="D1795" t="s">
-        <v>3983</v>
       </c>
       <c r="E1795" t="s">
         <v>1189</v>
@@ -47770,16 +47801,16 @@
     </row>
     <row r="1796" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1796" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1796" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="C1796" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="D1796" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="E1796" t="s">
         <v>1189</v>
@@ -47787,13 +47818,13 @@
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1797" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="B1797" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="C1797" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="D1797" t="s">
         <v>456</v>
@@ -47802,7 +47833,7 @@
         <v>1189</v>
       </c>
       <c r="G1797" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.15">
@@ -49666,7 +49697,7 @@
     </row>
     <row r="1901" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1901" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B1901" t="s">
         <v>171</v>
@@ -49689,7 +49720,7 @@
         <v>27</v>
       </c>
       <c r="C1902" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="D1902" t="s">
         <v>4</v>
@@ -49703,10 +49734,10 @@
         <v>3647</v>
       </c>
       <c r="B1903" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="C1903" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="D1903" t="s">
         <v>5</v>
@@ -49720,7 +49751,7 @@
         <v>3647</v>
       </c>
       <c r="B1904" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="C1904" t="s">
         <v>10</v>
@@ -49737,10 +49768,10 @@
         <v>3647</v>
       </c>
       <c r="B1905" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C1905" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="D1905" t="s">
         <v>5</v>
@@ -49754,10 +49785,10 @@
         <v>3647</v>
       </c>
       <c r="B1906" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C1906" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="D1906" t="s">
         <v>5</v>
@@ -49771,7 +49802,7 @@
         <v>3647</v>
       </c>
       <c r="B1907" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C1907" t="s">
         <v>13</v>
@@ -49788,7 +49819,7 @@
         <v>3647</v>
       </c>
       <c r="B1908" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C1908" t="s">
         <v>688</v>
@@ -49805,7 +49836,7 @@
         <v>3647</v>
       </c>
       <c r="B1909" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C1909" t="s">
         <v>16</v>
@@ -49822,7 +49853,7 @@
         <v>3647</v>
       </c>
       <c r="B1910" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="C1910" t="s">
         <v>17</v>
@@ -49839,7 +49870,7 @@
         <v>3647</v>
       </c>
       <c r="B1911" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C1911" t="s">
         <v>689</v>
@@ -49876,7 +49907,7 @@
         <v>3647</v>
       </c>
       <c r="B1913" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="C1913" t="s">
         <v>3646</v>
@@ -50126,7 +50157,7 @@
         <v>3</v>
       </c>
       <c r="E1927" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1928" spans="1:7" x14ac:dyDescent="0.15">
@@ -50134,10 +50165,10 @@
         <v>3665</v>
       </c>
       <c r="B1928" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="C1928" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="D1928" t="s">
         <v>3</v>
@@ -50146,18 +50177,18 @@
         <v>3649</v>
       </c>
       <c r="G1928" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1929" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1929" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1929" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="C1929" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="D1929" t="s">
         <v>3</v>
@@ -50166,15 +50197,15 @@
         <v>3662</v>
       </c>
       <c r="G1929" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="1930" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1930" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1930" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="C1930" t="s">
         <v>775</v>
@@ -50186,15 +50217,15 @@
         <v>3651</v>
       </c>
       <c r="G1930" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1931" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1931" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1931" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="C1931" t="s">
         <v>776</v>
@@ -50206,18 +50237,18 @@
         <v>3651</v>
       </c>
       <c r="G1931" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="1932" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1932" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1932" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="C1932" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="D1932" t="s">
         <v>213</v>
@@ -50226,18 +50257,18 @@
         <v>3651</v>
       </c>
       <c r="G1932" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="1933" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1933" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1933" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="C1933" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="D1933" t="s">
         <v>800</v>
@@ -50246,18 +50277,18 @@
         <v>3651</v>
       </c>
       <c r="G1933" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="1934" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1934" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1934" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C1934" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="D1934" t="s">
         <v>5</v>
@@ -50268,16 +50299,16 @@
     </row>
     <row r="1935" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1935" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1935" t="s">
         <v>853</v>
       </c>
       <c r="C1935" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="D1935" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="E1935" t="s">
         <v>3651</v>
@@ -50285,13 +50316,13 @@
     </row>
     <row r="1936" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1936" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1936" t="s">
         <v>1048</v>
       </c>
       <c r="C1936" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="D1936" t="s">
         <v>4</v>
@@ -50302,13 +50333,13 @@
     </row>
     <row r="1937" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1937" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1937" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="C1937" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="D1937" t="s">
         <v>4</v>
@@ -50319,13 +50350,13 @@
     </row>
     <row r="1938" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1938" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1938" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C1938" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="D1938" t="s">
         <v>4</v>
@@ -50336,13 +50367,13 @@
     </row>
     <row r="1939" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1939" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1939" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="C1939" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="D1939" t="s">
         <v>4</v>
@@ -50353,13 +50384,13 @@
     </row>
     <row r="1940" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1940" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1940" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="C1940" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="D1940" t="s">
         <v>4</v>
@@ -50370,13 +50401,13 @@
     </row>
     <row r="1941" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1941" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1941" t="s">
         <v>854</v>
       </c>
       <c r="C1941" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="D1941" t="s">
         <v>5</v>
@@ -50387,13 +50418,13 @@
     </row>
     <row r="1942" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1942" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1942" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="C1942" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="D1942" t="s">
         <v>1131</v>
@@ -50402,18 +50433,18 @@
         <v>3651</v>
       </c>
       <c r="G1942" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="1943" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1943" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1943" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="C1943" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="D1943" t="s">
         <v>692</v>
@@ -50422,15 +50453,15 @@
         <v>3651</v>
       </c>
       <c r="G1943" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="1944" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1944" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1944" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="C1944" t="s">
         <v>887</v>
@@ -50442,29 +50473,29 @@
         <v>3651</v>
       </c>
       <c r="G1944" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1945" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1945" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1945" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="C1945" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D1945" t="s">
         <v>5</v>
       </c>
       <c r="E1945" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="1946" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1946" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1946" t="s">
         <v>171</v>
@@ -50481,7 +50512,7 @@
     </row>
     <row r="1947" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1947" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1947" t="s">
         <v>27</v>
@@ -50493,12 +50524,12 @@
         <v>4</v>
       </c>
       <c r="E1947" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1948" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1948" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1948" t="s">
         <v>678</v>
@@ -50515,7 +50546,7 @@
     </row>
     <row r="1949" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1949" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1949" t="s">
         <v>679</v>
@@ -50532,7 +50563,7 @@
     </row>
     <row r="1950" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1950" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1950" t="s">
         <v>680</v>
@@ -50549,7 +50580,7 @@
     </row>
     <row r="1951" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1951" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1951" t="s">
         <v>681</v>
@@ -50566,7 +50597,7 @@
     </row>
     <row r="1952" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1952" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1952" t="s">
         <v>682</v>
@@ -50583,7 +50614,7 @@
     </row>
     <row r="1953" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1953" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1953" t="s">
         <v>29</v>
@@ -50600,7 +50631,7 @@
     </row>
     <row r="1954" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1954" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1954" t="s">
         <v>683</v>
@@ -50617,7 +50648,7 @@
     </row>
     <row r="1955" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1955" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1955" t="s">
         <v>684</v>
@@ -50634,10 +50665,10 @@
     </row>
     <row r="1956" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1956" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1956" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="C1956" t="s">
         <v>3646</v>
@@ -50651,10 +50682,10 @@
     </row>
     <row r="1957" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1957" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1957" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="C1957" t="s">
         <v>687</v>
@@ -50668,13 +50699,13 @@
     </row>
     <row r="1958" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1958" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1958" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="C1958" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="D1958" t="s">
         <v>5</v>
@@ -50688,13 +50719,13 @@
     </row>
     <row r="1959" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1959" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="B1959" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="C1959" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="D1959" t="s">
         <v>5</v>
@@ -50703,15 +50734,15 @@
         <v>3651</v>
       </c>
       <c r="G1959" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1960" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1960" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1960" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="C1960" t="s">
         <v>2</v>
@@ -50720,12 +50751,12 @@
         <v>3</v>
       </c>
       <c r="E1960" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="1961" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1961" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1961" t="s">
         <v>27</v>
@@ -50742,13 +50773,13 @@
     </row>
     <row r="1962" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1962" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1962" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="C1962" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="D1962" t="s">
         <v>1152</v>
@@ -50759,13 +50790,13 @@
     </row>
     <row r="1963" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1963" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1963" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="C1963" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="D1963" t="s">
         <v>1152</v>
@@ -50776,13 +50807,13 @@
     </row>
     <row r="1964" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1964" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1964" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="C1964" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="D1964" t="s">
         <v>1152</v>
@@ -50793,13 +50824,13 @@
     </row>
     <row r="1965" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1965" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1965" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="C1965" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="D1965" t="s">
         <v>1152</v>
@@ -50810,13 +50841,13 @@
     </row>
     <row r="1966" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1966" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1966" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="C1966" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="D1966" t="s">
         <v>1152</v>
@@ -50827,13 +50858,13 @@
     </row>
     <row r="1967" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1967" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1967" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="C1967" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="D1967" t="s">
         <v>1152</v>
@@ -50844,13 +50875,13 @@
     </row>
     <row r="1968" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1968" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1968" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="C1968" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="D1968" t="s">
         <v>1152</v>
@@ -50861,13 +50892,13 @@
     </row>
     <row r="1969" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1969" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1969" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="C1969" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="D1969" t="s">
         <v>1152</v>
@@ -50878,7 +50909,7 @@
     </row>
     <row r="1970" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1970" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1970" t="s">
         <v>171</v>
@@ -50895,10 +50926,10 @@
     </row>
     <row r="1971" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1971" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1971" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="C1971" t="s">
         <v>776</v>
@@ -50912,7 +50943,7 @@
     </row>
     <row r="1972" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1972" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1972" t="s">
         <v>665</v>
@@ -50929,7 +50960,7 @@
     </row>
     <row r="1973" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1973" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1973" t="s">
         <v>28</v>
@@ -50946,10 +50977,10 @@
     </row>
     <row r="1974" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1974" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1974" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="C1974" t="s">
         <v>9</v>
@@ -50963,10 +50994,10 @@
     </row>
     <row r="1975" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1975" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1975" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C1975" t="s">
         <v>10</v>
@@ -50980,10 +51011,10 @@
     </row>
     <row r="1976" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1976" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1976" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C1976" t="s">
         <v>11</v>
@@ -50997,10 +51028,10 @@
     </row>
     <row r="1977" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1977" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1977" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C1977" t="s">
         <v>12</v>
@@ -51014,10 +51045,10 @@
     </row>
     <row r="1978" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1978" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1978" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C1978" t="s">
         <v>13</v>
@@ -51031,7 +51062,7 @@
     </row>
     <row r="1979" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1979" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1979" t="s">
         <v>727</v>
@@ -51048,7 +51079,7 @@
     </row>
     <row r="1980" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1980" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1980" t="s">
         <v>701</v>
@@ -51065,7 +51096,7 @@
     </row>
     <row r="1981" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1981" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1981" t="s">
         <v>29</v>
@@ -51082,7 +51113,7 @@
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1982" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1982" t="s">
         <v>30</v>
@@ -51099,13 +51130,13 @@
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1983" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1983" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C1983" t="s">
         <v>3749</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>3750</v>
       </c>
       <c r="D1983" t="s">
         <v>25</v>
@@ -51116,10 +51147,10 @@
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1984" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1984" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="C1984" t="s">
         <v>775</v>
@@ -51133,10 +51164,10 @@
     </row>
     <row r="1985" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1985" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1985" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="C1985" t="s">
         <v>776</v>
@@ -51150,7 +51181,7 @@
     </row>
     <row r="1986" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1986" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1986" t="s">
         <v>27</v>
@@ -51167,10 +51198,10 @@
     </row>
     <row r="1987" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1987" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1987" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C1987" t="s">
         <v>3252</v>
@@ -51179,18 +51210,18 @@
         <v>800</v>
       </c>
       <c r="E1987" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1988" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1988" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="B1988" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C1988" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="D1988" t="s">
         <v>5</v>
@@ -51201,13 +51232,13 @@
     </row>
     <row r="1989" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1989" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1989" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C1989" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="D1989" t="s">
         <v>3</v>
@@ -51216,35 +51247,35 @@
         <v>3651</v>
       </c>
       <c r="G1989" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="1990" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1990" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1990" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="C1990" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="D1990" t="s">
         <v>692</v>
       </c>
       <c r="E1990" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="G1990" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1991" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1991" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1991" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="C1991" t="s">
         <v>776</v>
@@ -51253,15 +51284,15 @@
         <v>3</v>
       </c>
       <c r="E1991" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1992" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1992" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1992" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="C1992" t="s">
         <v>857</v>
@@ -51270,109 +51301,109 @@
         <v>627</v>
       </c>
       <c r="E1992" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1993" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1993" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1993" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="C1993" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="D1993" t="s">
         <v>692</v>
       </c>
       <c r="E1993" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G1993" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="1994" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1994" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1994" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="C1994" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="D1994" t="s">
         <v>692</v>
       </c>
       <c r="E1994" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G1994" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1995" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1995" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1995" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="C1995" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D1995" t="s">
         <v>25</v>
       </c>
       <c r="E1995" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G1995" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1996" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1996" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1996" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C1996" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="D1996" t="s">
         <v>25</v>
       </c>
       <c r="E1996" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G1996" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1997" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1997" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1997" t="s">
         <v>852</v>
       </c>
       <c r="C1997" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="D1997" t="s">
         <v>4</v>
       </c>
       <c r="E1997" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1998" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1998" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1998" t="s">
         <v>767</v>
@@ -51384,32 +51415,32 @@
         <v>4</v>
       </c>
       <c r="E1998" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1999" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1999" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1999" t="s">
         <v>869</v>
       </c>
       <c r="C1999" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="D1999" t="s">
         <v>5</v>
       </c>
       <c r="E1999" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2000" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2000" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2000" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C2000" t="s">
         <v>891</v>
@@ -51418,66 +51449,66 @@
         <v>5</v>
       </c>
       <c r="E2000" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2001" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2001" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2001" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C2001" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="D2001" t="s">
         <v>745</v>
       </c>
       <c r="E2001" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2002" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2002" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2002" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="C2002" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="D2002" t="s">
         <v>862</v>
       </c>
       <c r="E2002" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2003" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2003" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2003" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C2003" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="D2003" t="s">
         <v>3</v>
       </c>
       <c r="E2003" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2004" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2004" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2004" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C2004" t="s">
         <v>884</v>
@@ -51486,83 +51517,83 @@
         <v>862</v>
       </c>
       <c r="E2004" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2005" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2005" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2005" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C2005" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="D2005" t="s">
         <v>862</v>
       </c>
       <c r="E2005" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2006" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2006" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2006" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="C2006" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="D2006" t="s">
         <v>862</v>
       </c>
       <c r="E2006" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2007" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2007" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2007" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C2007" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="D2007" t="s">
         <v>862</v>
       </c>
       <c r="E2007" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2008" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2008" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2008" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C2008" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="D2008" t="s">
         <v>862</v>
       </c>
       <c r="E2008" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2009" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2009" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2009" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="C2009" t="s">
         <v>892</v>
@@ -51571,174 +51602,174 @@
         <v>864</v>
       </c>
       <c r="E2009" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2010" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2010" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2010" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C2010" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="D2010" t="s">
         <v>864</v>
       </c>
       <c r="E2010" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2011" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2011" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2011" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="C2011" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="D2011" t="s">
         <v>692</v>
       </c>
       <c r="E2011" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2012" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2012" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2012" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C2012" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="D2012" t="s">
         <v>3</v>
       </c>
       <c r="E2012" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2013" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2013" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2013" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="C2013" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="D2013" t="s">
         <v>864</v>
       </c>
       <c r="E2013" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2014" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2014" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2014" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C2014" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="D2014" t="s">
         <v>1131</v>
       </c>
       <c r="E2014" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G2014" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="2015" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2015" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2015" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C2015" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="D2015" t="s">
         <v>3</v>
       </c>
       <c r="E2015" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2016" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2016" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2016" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="C2016" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D2016" t="s">
         <v>5</v>
       </c>
       <c r="E2016" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2017" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2017" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2017" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="C2017" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="D2017" t="s">
         <v>3</v>
       </c>
       <c r="E2017" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2018" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2018" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B2018" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C2018" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="D2018" t="s">
         <v>3</v>
       </c>
       <c r="E2018" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G2018" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="2019" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2019" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2019" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="C2019" t="s">
         <v>2</v>
@@ -51752,177 +51783,177 @@
     </row>
     <row r="2020" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2020" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2020" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="C2020" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="D2020" t="s">
         <v>4</v>
       </c>
       <c r="E2020" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="2021" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2021" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2021" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C2021" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="D2021" t="s">
         <v>692</v>
       </c>
       <c r="E2021" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2022" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2022" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2022" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="C2022" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="D2022" t="s">
         <v>3</v>
       </c>
       <c r="E2022" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2023" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2023" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2023" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="C2023" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="D2023" t="s">
         <v>5</v>
       </c>
       <c r="E2023" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2024" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2024" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2024" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="C2024" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D2024" t="s">
         <v>5</v>
       </c>
       <c r="E2024" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2025" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2025" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2025" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C2025" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="D2025" t="s">
         <v>692</v>
       </c>
       <c r="E2025" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2026" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2026" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2026" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C2026" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="D2026" t="s">
         <v>3</v>
       </c>
       <c r="E2026" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2027" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2027" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2027" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C2027" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="D2027" t="s">
         <v>5</v>
       </c>
       <c r="E2027" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2028" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2028" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2028" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="C2028" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="D2028" t="s">
         <v>5</v>
       </c>
       <c r="E2028" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2029" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2029" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B2029" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D2029" t="s">
         <v>3827</v>
       </c>
-      <c r="C2029" t="s">
-        <v>3838</v>
-      </c>
-      <c r="D2029" t="s">
-        <v>3828</v>
-      </c>
       <c r="E2029" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2030" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2030" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2030" t="s">
         <v>171</v>
@@ -51934,12 +51965,12 @@
         <v>3</v>
       </c>
       <c r="E2030" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="2031" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2031" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2031" t="s">
         <v>665</v>
@@ -51956,10 +51987,10 @@
     </row>
     <row r="2032" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2032" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2032" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="C2032" t="s">
         <v>8</v>
@@ -51968,15 +51999,15 @@
         <v>25</v>
       </c>
       <c r="E2032" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2033" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2033" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2033" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="C2033" t="s">
         <v>9</v>
@@ -51985,15 +52016,15 @@
         <v>5</v>
       </c>
       <c r="E2033" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2034" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2034" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2034" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C2034" t="s">
         <v>10</v>
@@ -52002,15 +52033,15 @@
         <v>5</v>
       </c>
       <c r="E2034" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2035" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2035" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C2035" t="s">
         <v>11</v>
@@ -52019,15 +52050,15 @@
         <v>5</v>
       </c>
       <c r="E2035" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2036" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2036" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2036" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C2036" t="s">
         <v>12</v>
@@ -52036,15 +52067,15 @@
         <v>5</v>
       </c>
       <c r="E2036" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2037" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2037" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2037" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C2037" t="s">
         <v>13</v>
@@ -52053,12 +52084,12 @@
         <v>5</v>
       </c>
       <c r="E2037" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2038" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2038" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2038" t="s">
         <v>727</v>
@@ -52070,12 +52101,12 @@
         <v>5</v>
       </c>
       <c r="E2038" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2039" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2039" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2039" t="s">
         <v>701</v>
@@ -52087,12 +52118,12 @@
         <v>5</v>
       </c>
       <c r="E2039" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2040" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2040" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2040" t="s">
         <v>29</v>
@@ -52104,12 +52135,12 @@
         <v>5</v>
       </c>
       <c r="E2040" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2041" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="B2041" t="s">
         <v>30</v>
@@ -52121,15 +52152,15 @@
         <v>5</v>
       </c>
       <c r="E2041" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="2042" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2042" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2042" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="C2042" t="s">
         <v>2</v>
@@ -52143,7 +52174,7 @@
     </row>
     <row r="2043" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2043" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2043" t="s">
         <v>27</v>
@@ -52160,10 +52191,10 @@
     </row>
     <row r="2044" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2044" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2044" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C2044" t="s">
         <v>10</v>
@@ -52172,15 +52203,15 @@
         <v>5</v>
       </c>
       <c r="E2044" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2045" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2045" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2045" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C2045" t="s">
         <v>11</v>
@@ -52189,15 +52220,15 @@
         <v>5</v>
       </c>
       <c r="E2045" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2046" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2046" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2046" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C2046" t="s">
         <v>12</v>
@@ -52206,12 +52237,12 @@
         <v>5</v>
       </c>
       <c r="E2046" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2047" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2047" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2047" t="s">
         <v>718</v>
@@ -52223,15 +52254,15 @@
         <v>5</v>
       </c>
       <c r="E2047" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2048" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2048" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2048" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="C2048" t="s">
         <v>16</v>
@@ -52240,15 +52271,15 @@
         <v>5</v>
       </c>
       <c r="E2048" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2049" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2049" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2049" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C2049" t="s">
         <v>17</v>
@@ -52257,15 +52288,15 @@
         <v>5</v>
       </c>
       <c r="E2049" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2050" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2050" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2050" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C2050" t="s">
         <v>689</v>
@@ -52274,15 +52305,15 @@
         <v>5</v>
       </c>
       <c r="E2050" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2051" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2051" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B2051" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="C2051" t="s">
         <v>688</v>
@@ -52291,12 +52322,12 @@
         <v>5</v>
       </c>
       <c r="E2051" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="2052" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2052" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2052" t="s">
         <v>204</v>
@@ -52311,12 +52342,12 @@
         <v>1210</v>
       </c>
       <c r="F2052" s="2" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="2053" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2053" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B2053" t="s">
         <v>206</v>
@@ -52333,7 +52364,7 @@
     </row>
     <row r="2054" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2054" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2054" t="s">
         <v>27</v>
@@ -52350,166 +52381,166 @@
     </row>
     <row r="2055" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2055" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2055" t="s">
         <v>239</v>
       </c>
       <c r="C2055" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="D2055" t="s">
         <v>5</v>
       </c>
       <c r="E2055" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2056" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2056" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D2056" t="s">
         <v>3879</v>
       </c>
-      <c r="C2056" t="s">
-        <v>3890</v>
-      </c>
-      <c r="D2056" t="s">
-        <v>3880</v>
-      </c>
       <c r="E2056" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="2057" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2057" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2057" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C2057" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="D2057" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="E2057" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="2058" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2058" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2058" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="C2058" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="D2058" t="s">
         <v>1430</v>
       </c>
       <c r="E2058" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="G2058" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="2059" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2059" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2059" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="C2059" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="D2059" t="s">
         <v>712</v>
       </c>
       <c r="E2059" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="2060" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2060" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2060" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C2060" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="D2060" t="s">
         <v>5</v>
       </c>
       <c r="E2060" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2061" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2061" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C2061" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D2061" t="s">
         <v>1430</v>
       </c>
       <c r="E2061" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="G2061" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2062" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2062" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="C2062" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="D2062" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="E2062" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="2063" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2063" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B2063" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="C2063" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>3879</v>
+      </c>
+      <c r="E2063" t="s">
         <v>3897</v>
-      </c>
-      <c r="D2063" t="s">
-        <v>3880</v>
-      </c>
-      <c r="E2063" t="s">
-        <v>3898</v>
       </c>
     </row>
     <row r="2064" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2064" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2064" t="s">
         <v>171</v>
@@ -52521,12 +52552,12 @@
         <v>3</v>
       </c>
       <c r="E2064" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="2065" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2065" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2065" t="s">
         <v>636</v>
@@ -52543,7 +52574,7 @@
     </row>
     <row r="2066" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2066" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2066" t="s">
         <v>1312</v>
@@ -52555,15 +52586,15 @@
         <v>4</v>
       </c>
       <c r="E2066" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="2067" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2067" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2067" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="C2067" t="s">
         <v>1316</v>
@@ -52577,10 +52608,10 @@
     </row>
     <row r="2068" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2068" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2068" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C2068" t="s">
         <v>1394</v>
@@ -52594,10 +52625,10 @@
     </row>
     <row r="2069" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2069" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2069" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C2069" t="s">
         <v>1401</v>
@@ -52611,10 +52642,10 @@
     </row>
     <row r="2070" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2070" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2070" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C2070" t="s">
         <v>1409</v>
@@ -52628,10 +52659,10 @@
     </row>
     <row r="2071" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2071" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2071" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C2071" t="s">
         <v>2002</v>
@@ -52645,10 +52676,10 @@
     </row>
     <row r="2072" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2072" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2072" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C2072" t="s">
         <v>2124</v>
@@ -52662,13 +52693,13 @@
     </row>
     <row r="2073" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2073" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2073" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C2073" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="D2073" t="s">
         <v>5</v>
@@ -52679,13 +52710,13 @@
     </row>
     <row r="2074" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2074" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2074" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C2074" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="D2074" t="s">
         <v>5</v>
@@ -52696,13 +52727,13 @@
     </row>
     <row r="2075" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2075" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2075" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C2075" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="D2075" t="s">
         <v>770</v>
@@ -52716,13 +52747,13 @@
     </row>
     <row r="2076" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2076" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B2076" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="C2076" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="D2076" t="s">
         <v>456</v>
@@ -52733,7 +52764,7 @@
     </row>
     <row r="2077" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2077" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2077" t="s">
         <v>171</v>
@@ -52745,18 +52776,18 @@
         <v>3</v>
       </c>
       <c r="E2077" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="2078" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2078" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2078" t="s">
         <v>636</v>
       </c>
       <c r="C2078" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="D2078" t="s">
         <v>4</v>
@@ -52767,138 +52798,138 @@
     </row>
     <row r="2079" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2079" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2079" t="s">
         <v>1312</v>
       </c>
       <c r="C2079" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="D2079" t="s">
         <v>4</v>
       </c>
       <c r="E2079" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2080" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2080" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2080" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="C2080" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="D2080" t="s">
         <v>800</v>
       </c>
       <c r="E2080" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="G2080" s="1" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="2081" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2081" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2081" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="C2081" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="D2081" t="s">
         <v>25</v>
       </c>
       <c r="E2081" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="G2081" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="2082" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2082" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2082" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="C2082" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="D2082" t="s">
         <v>5</v>
       </c>
       <c r="E2082" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2083" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2083" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2083" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="C2083" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="D2083" t="s">
         <v>5</v>
       </c>
       <c r="E2083" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2084" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2084" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2084" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C2084" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="D2084" t="s">
         <v>5</v>
       </c>
       <c r="E2084" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2085" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2085" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2085" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="C2085" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="D2085" t="s">
         <v>5</v>
       </c>
       <c r="E2085" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2086" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2086" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2086" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C2086" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="D2086" t="s">
         <v>3282</v>
@@ -52909,64 +52940,64 @@
     </row>
     <row r="2087" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2087" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2087" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="C2087" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="D2087" t="s">
         <v>4</v>
       </c>
       <c r="E2087" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2088" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2088" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="B2088" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="C2088" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="D2088" t="s">
         <v>862</v>
       </c>
       <c r="E2088" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2089" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2089" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="B2089" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="C2089" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="D2089" t="s">
         <v>3</v>
       </c>
       <c r="E2089" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="2090" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2090" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2090" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="C2090" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="D2090" t="s">
         <v>4</v>
@@ -52977,13 +53008,13 @@
     </row>
     <row r="2091" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2091" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2091" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C2091" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="D2091" t="s">
         <v>3</v>
@@ -52994,10 +53025,10 @@
     </row>
     <row r="2092" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2092" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2092" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="C2092" t="s">
         <v>690</v>
@@ -53006,24 +53037,24 @@
         <v>1131</v>
       </c>
       <c r="E2092" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="F2092" s="2" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="G2092" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="2093" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2093" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2093" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="C2093" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="D2093" t="s">
         <v>5</v>
@@ -53034,13 +53065,13 @@
     </row>
     <row r="2094" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2094" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2094" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="C2094" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="D2094" t="s">
         <v>770</v>
@@ -53051,13 +53082,13 @@
     </row>
     <row r="2095" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2095" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2095" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="C2095" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="D2095" t="s">
         <v>5</v>
@@ -53068,13 +53099,13 @@
     </row>
     <row r="2096" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2096" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2096" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="C2096" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="D2096" t="s">
         <v>25</v>
@@ -53085,13 +53116,13 @@
     </row>
     <row r="2097" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2097" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B2097" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C2097" t="s">
         <v>3749</v>
-      </c>
-      <c r="C2097" t="s">
-        <v>3750</v>
       </c>
       <c r="D2097" t="s">
         <v>25</v>
@@ -53102,7 +53133,7 @@
     </row>
     <row r="2098" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2098" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2098" t="s">
         <v>171</v>
@@ -53114,15 +53145,15 @@
         <v>3</v>
       </c>
       <c r="E2098" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="2099" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2099" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B2099" t="s">
         <v>4062</v>
-      </c>
-      <c r="B2099" t="s">
-        <v>4063</v>
       </c>
       <c r="C2099" t="s">
         <v>7</v>
@@ -53136,27 +53167,27 @@
     </row>
     <row r="2100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2100" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2100" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="C2100" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="D2100" t="s">
         <v>3</v>
       </c>
       <c r="E2100" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="2101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2101" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2101" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C2101" t="s">
         <v>690</v>
@@ -53165,72 +53196,72 @@
         <v>850</v>
       </c>
       <c r="E2101" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="F2101" s="2" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="G2101" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="2102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2102" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2102" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="C2102" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="D2102" t="s">
         <v>5</v>
       </c>
       <c r="E2102" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="2103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2103" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2103" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="C2103" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="D2103" t="s">
         <v>770</v>
       </c>
       <c r="E2103" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="2104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2104" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2104" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="C2104" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="D2104" t="s">
         <v>5</v>
       </c>
       <c r="E2104" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="2105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2105" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2105" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="C2105" t="s">
         <v>786</v>
@@ -53239,134 +53270,134 @@
         <v>25</v>
       </c>
       <c r="E2105" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="2106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2106" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="B2106" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C2106" t="s">
         <v>3749</v>
-      </c>
-      <c r="C2106" t="s">
-        <v>3750</v>
       </c>
       <c r="D2106" t="s">
         <v>25</v>
       </c>
       <c r="E2106" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="2107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2107" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B2107" t="s">
         <v>849</v>
       </c>
       <c r="C2107" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="D2107" t="s">
         <v>25</v>
       </c>
       <c r="E2107" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="2108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2108" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B2108" t="s">
         <v>665</v>
       </c>
       <c r="C2108" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="D2108" t="s">
         <v>4</v>
       </c>
       <c r="E2108" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="2109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2109" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B2109" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="C2109" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="D2109" t="s">
         <v>5</v>
       </c>
       <c r="E2109" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="2110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2110" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B2110" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="C2110" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="D2110" t="s">
         <v>5</v>
       </c>
       <c r="E2110" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="2111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2111" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B2111" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="C2111" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="D2111" t="s">
         <v>5</v>
       </c>
       <c r="E2111" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="2112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2112" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B2112" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="C2112" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="D2112" t="s">
         <v>5</v>
       </c>
       <c r="E2112" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="2113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2113" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B2113" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="C2113" t="s">
         <v>2</v>
@@ -53375,35 +53406,35 @@
         <v>3</v>
       </c>
       <c r="E2113" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="2114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2114" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B2114" t="s">
         <v>4085</v>
       </c>
-      <c r="B2114" t="s">
-        <v>4086</v>
-      </c>
       <c r="C2114" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="D2114" t="s">
         <v>800</v>
       </c>
       <c r="E2114" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="F2114" s="2" t="s">
+        <v>4098</v>
+      </c>
+      <c r="G2114" t="s">
         <v>4099</v>
-      </c>
-      <c r="G2114" t="s">
-        <v>4100</v>
       </c>
     </row>
     <row r="2115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2115" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B2115" t="s">
         <v>3302</v>
@@ -53415,72 +53446,72 @@
         <v>4</v>
       </c>
       <c r="E2115" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="2116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2116" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B2116" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="C2116" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="D2116" t="s">
         <v>243</v>
       </c>
       <c r="E2116" t="s">
+        <v>4094</v>
+      </c>
+      <c r="G2116" t="s">
         <v>4095</v>
-      </c>
-      <c r="G2116" t="s">
-        <v>4096</v>
       </c>
     </row>
     <row r="2117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2117" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B2117" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="C2117" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="D2117" t="s">
         <v>5</v>
       </c>
       <c r="E2117" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="G2117" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="2118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2118" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B2118" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="C2118" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="D2118" t="s">
         <v>627</v>
       </c>
       <c r="E2118" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="G2118" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="2119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2119" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2119" t="s">
         <v>171</v>
@@ -53492,12 +53523,12 @@
         <v>3</v>
       </c>
       <c r="E2119" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="2120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2120" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2120" t="s">
         <v>849</v>
@@ -53509,35 +53540,35 @@
         <v>692</v>
       </c>
       <c r="E2120" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="2121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2121" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2121" t="s">
         <v>665</v>
       </c>
       <c r="C2121" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="D2121" t="s">
         <v>4</v>
       </c>
       <c r="E2121" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="2122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2122" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2122" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="C2122" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="D2122" t="s">
         <v>3</v>
@@ -53546,165 +53577,165 @@
         <v>1210</v>
       </c>
       <c r="F2122" s="2" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="2123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2123" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2123" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="C2123" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="D2123" t="s">
         <v>627</v>
       </c>
       <c r="E2123" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="2124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2124" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2124" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="C2124" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="D2124" t="s">
         <v>5</v>
       </c>
       <c r="E2124" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2125" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2125" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="C2125" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="D2125" t="s">
         <v>5</v>
       </c>
       <c r="E2125" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2126" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2126" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="C2126" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="D2126" t="s">
         <v>5</v>
       </c>
       <c r="E2126" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2127" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2127" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C2127" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="D2127" t="s">
         <v>3</v>
       </c>
       <c r="E2127" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2128" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2128" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="C2128" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="D2128" t="s">
         <v>5</v>
       </c>
       <c r="E2128" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2129" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2129" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="C2129" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="D2129" t="s">
         <v>5</v>
       </c>
       <c r="E2129" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2130" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2130" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="C2130" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="D2130" t="s">
         <v>5</v>
       </c>
       <c r="E2130" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2131" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="B2131" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="C2131" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="D2131" t="s">
         <v>5</v>
       </c>
       <c r="E2131" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2132" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B2132" t="s">
         <v>171</v>
@@ -53716,52 +53747,52 @@
         <v>3</v>
       </c>
       <c r="E2132" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="2133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2133" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B2133" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="C2133" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="D2133" t="s">
         <v>3</v>
       </c>
       <c r="E2133" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="2134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2134" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B2134" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="C2134" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="D2134" t="s">
         <v>800</v>
       </c>
       <c r="E2134" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="2135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2135" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B2135" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="C2135" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="D2135" t="s">
         <v>4</v>
@@ -53772,23 +53803,23 @@
     </row>
     <row r="2136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2136" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="B2136" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="C2136" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="D2136" t="s">
         <v>4</v>
       </c>
       <c r="E2136" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1875"/>
+  <autoFilter ref="A1:G1875" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/QuantStudio/Resource/WindDB2Info.xlsx
+++ b/QuantStudio/Resource/WindDB2Info.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
     <sheet name="FactorInfo" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$G$2379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$G$2864</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15166" uniqueCount="4726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15113" uniqueCount="4689">
   <si>
     <t>TableName</t>
   </si>
@@ -13519,157 +13518,139 @@
     <t>forins_custodian</t>
   </si>
   <si>
-    <t>OBJECT_ID</t>
-  </si>
-  <si>
-    <t>S_INFO_WINDCODE</t>
-  </si>
-  <si>
-    <t>F_PRT_ENDDATE</t>
-  </si>
-  <si>
     <t>持有债券Wind代码</t>
   </si>
   <si>
-    <t>S_INFO_BONDWINDCODE</t>
+    <t>s_info_bondwindcode</t>
   </si>
   <si>
     <t>持有债券市值(元)</t>
   </si>
   <si>
-    <t>F_PRT_BDVALUE</t>
+    <t>f_prt_bdvalue</t>
   </si>
   <si>
     <t>持有债券数量（张）</t>
   </si>
   <si>
-    <t>F_PRT_BDQUANTITY</t>
+    <t>f_prt_bdquantity</t>
   </si>
   <si>
     <t>持有债券市值占基金净值比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_BDVALUETONAV</t>
-  </si>
-  <si>
-    <t>F_ANN_DATE</t>
+    <t>f_prt_bdvaluetonav</t>
   </si>
   <si>
     <t>非公开发行股数</t>
   </si>
   <si>
-    <t>NUMB_NP_OS</t>
+    <t>numb_np_os</t>
   </si>
   <si>
     <t>非公开发行股期末均价</t>
   </si>
   <si>
-    <t>AVRG_CLSPRICE_NPOS</t>
+    <t>avrg_clsprice_npos</t>
   </si>
   <si>
     <t>证监会行业编号</t>
   </si>
   <si>
-    <t>S_INFO_CSRCINDUSCODE</t>
+    <t>s_info_csrcinduscode</t>
   </si>
   <si>
     <t>持有行业市值(元)</t>
   </si>
   <si>
-    <t>F_PRT_INDUSVALUE</t>
+    <t>f_prt_indusvalue</t>
   </si>
   <si>
     <t>持有行业市值占基金净值比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_INDUSTONAV</t>
+    <t>f_prt_industonav</t>
   </si>
   <si>
     <t>积极投资持有行业市值(元)</t>
   </si>
   <si>
-    <t>F_PRT_INDPOSVALUE</t>
+    <t>f_prt_indposvalue</t>
   </si>
   <si>
     <t>积极投资持有行业比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_INDPOSPRO</t>
+    <t>f_prt_indpospro</t>
   </si>
   <si>
     <t>指数投资持有行业市值(元)</t>
   </si>
   <si>
-    <t>F_PRT_INDPASSIVEVALUE</t>
+    <t>f_prt_indpassivevalue</t>
   </si>
   <si>
     <t>指数投资持有行业比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_INDPASSIVEPRO</t>
+    <t>f_prt_indpassivepro</t>
   </si>
   <si>
     <t>持有行业市值比例较上期变化(%)</t>
   </si>
   <si>
-    <t>F_PRT_INDUSTONAVCHANGE</t>
+    <t>f_prt_industonavchange</t>
   </si>
   <si>
     <t>行业名称</t>
   </si>
   <si>
-    <t>S_INFO_CSRCINDUSNAME</t>
-  </si>
-  <si>
-    <t>F_INFO_WINDCODE</t>
-  </si>
-  <si>
-    <t>ANN_DATE</t>
+    <t>s_info_csrcindusname</t>
   </si>
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>F_INFO_FUNDMANAGER</t>
+    <t>f_info_fundmanager</t>
   </si>
   <si>
     <t>性别</t>
   </si>
   <si>
-    <t>F_INFO_MANAGER_GENDER</t>
+    <t>f_info_manager_gender</t>
   </si>
   <si>
     <t>出身年份</t>
   </si>
   <si>
-    <t>F_INFO_MANAGER_BIRTHYEAR</t>
+    <t>f_info_manager_birthyear</t>
   </si>
   <si>
     <t>学历</t>
   </si>
   <si>
-    <t>F_INFO_MANAGER_EDUCATION</t>
-  </si>
-  <si>
-    <t>F_INFO_MANAGER_NATIONALITY</t>
+    <t>f_info_manager_education</t>
+  </si>
+  <si>
+    <t>f_info_manager_nationality</t>
   </si>
   <si>
     <t>任职日期</t>
   </si>
   <si>
-    <t>F_INFO_MANAGER_STARTDATE</t>
+    <t>f_info_manager_startdate</t>
   </si>
   <si>
     <t>离职日期</t>
   </si>
   <si>
-    <t>F_INFO_MANAGER_LEAVEDATE</t>
+    <t>f_info_manager_leavedate</t>
   </si>
   <si>
     <t>简历</t>
   </si>
   <si>
-    <t>F_INFO_MANAGER_RESUME</t>
+    <t>f_info_manager_resume</t>
   </si>
   <si>
     <t>CLOB</t>
@@ -13678,69 +13659,63 @@
     <t>基金经理ID</t>
   </si>
   <si>
-    <t>F_INFO_FUNDMANAGER_ID</t>
-  </si>
-  <si>
-    <t>S_INFO_MANAGER_POST</t>
+    <t>f_info_fundmanager_id</t>
+  </si>
+  <si>
+    <t>s_info_manager_post</t>
   </si>
   <si>
     <t>代管基金经理</t>
   </si>
   <si>
-    <t>F_INFO_ESCROW_FUNDMANAGER</t>
+    <t>f_info_escrow_fundmanager</t>
   </si>
   <si>
     <t>代管起始日期</t>
   </si>
   <si>
-    <t>F_INFO_ESCROW_STARTDATE</t>
+    <t>f_info_escrow_startdate</t>
   </si>
   <si>
     <t>代管结束日期</t>
   </si>
   <si>
-    <t>F_INFO_ESCROW_LEAVEDATE</t>
+    <t>f_info_escrow_leavedate</t>
   </si>
   <si>
     <t>展示序号</t>
   </si>
   <si>
-    <t>F_INFO_DIS_SERIAL_NUMBER</t>
+    <t>f_info_dis_serial_number</t>
   </si>
   <si>
     <t>基金中文名称</t>
   </si>
   <si>
-    <t>F_INFO_CHINESENAME</t>
+    <t>f_info_chinesename</t>
   </si>
   <si>
     <t>基金英文名称</t>
   </si>
   <si>
-    <t>F_INFO_ENGLISHNAME</t>
+    <t>f_info_englishname</t>
   </si>
   <si>
     <t>基金中文简称</t>
   </si>
   <si>
-    <t>F_INFO_SHORTNAME</t>
+    <t>f_info_shortname</t>
   </si>
   <si>
     <t>基金管理人</t>
   </si>
   <si>
-    <t>F_INFO_MGRCOMP</t>
+    <t>f_info_mgrcomp</t>
   </si>
   <si>
     <t>基金托管人</t>
   </si>
   <si>
-    <t>F_INFO_CUSTODIANBANK</t>
-  </si>
-  <si>
-    <t>F_INFO_TYPE</t>
-  </si>
-  <si>
     <t>基金类型_R</t>
   </si>
   <si>
@@ -13750,7 +13725,7 @@
     <t>基金投资类型</t>
   </si>
   <si>
-    <t>F_INFO_INVESTYPE</t>
+    <t>f_info_investype</t>
   </si>
   <si>
     <t>基金投资类型_R</t>
@@ -13759,199 +13734,172 @@
     <t>{1:'股票型',2:'债券型',3:'混合型',4:'货币市场型',5:'保本型',6:'商品型',7:'另类投资型'}</t>
   </si>
   <si>
-    <t>F_ISSUE_DATE</t>
+    <t>f_issue_date</t>
   </si>
   <si>
     <t>设立募集期(月)</t>
   </si>
   <si>
-    <t>F_ISSUE_COLPERIOD</t>
+    <t>f_issue_colperiod</t>
   </si>
   <si>
     <t>设立募集目标(亿份)</t>
   </si>
   <si>
-    <t>F_ISSUE_MAXCOLSHARE</t>
+    <t>f_issue_maxcolshare</t>
   </si>
   <si>
     <t>净认购份额-成立条件(亿份)</t>
   </si>
   <si>
-    <t>F_ISSUE_NETPCHSHARE</t>
+    <t>f_issue_netpchshare</t>
   </si>
   <si>
     <t>认购户数-成立条件</t>
   </si>
   <si>
-    <t>F_ISSUE_NETPCHNUM</t>
+    <t>f_issue_netpchnum</t>
   </si>
   <si>
     <t>基金面值</t>
   </si>
   <si>
-    <t>F_INFO_PARVALUE</t>
-  </si>
-  <si>
     <t>存续期(年)</t>
   </si>
   <si>
-    <t>F_INFO_PTMYEAR</t>
-  </si>
-  <si>
     <t>管理费率(%)</t>
   </si>
   <si>
-    <t>F_INFO_MANAFEERATIO</t>
+    <t>f_info_manafeeratio</t>
   </si>
   <si>
     <t>托管费率(%)</t>
   </si>
   <si>
-    <t>F_INFO_CUSTFEERATIO</t>
+    <t>f_info_custfeeratio</t>
   </si>
   <si>
     <t>销售费率(%)</t>
   </si>
   <si>
-    <t>F_INFO_SALEFEERATIO</t>
+    <t>f_info_salefeeratio</t>
   </si>
   <si>
     <t>基金成立日期</t>
   </si>
   <si>
-    <t>F_INFO_SETUPDATE</t>
-  </si>
-  <si>
     <t>基金到期日期</t>
   </si>
   <si>
-    <t>F_INFO_MATURITYDATE</t>
-  </si>
-  <si>
     <t>发行数量(亿份)</t>
   </si>
   <si>
-    <t>F_ISSUE_SHARES</t>
-  </si>
-  <si>
-    <t>S_FELLOW_DISTOR</t>
-  </si>
-  <si>
-    <t>F_INFO_LISTDATE</t>
+    <t>f_issue_shares</t>
   </si>
   <si>
     <t>申购起始日期</t>
   </si>
   <si>
-    <t>F_PCH_STARTDATE</t>
+    <t>f_pch_startdate</t>
   </si>
   <si>
     <t>赎回起始日期</t>
   </si>
   <si>
-    <t>F_REDM_STARTDATE</t>
+    <t>f_redm_startdate</t>
   </si>
   <si>
     <t>投资者认购起始日期</t>
   </si>
   <si>
-    <t>F_ISSUE_STARTDATEIND</t>
+    <t>f_issue_startdateind</t>
   </si>
   <si>
     <t>投资者认购终止日期</t>
   </si>
   <si>
-    <t>F_ISSUE_ENDDATEIND</t>
+    <t>f_issue_enddateind</t>
   </si>
   <si>
     <t>认购下限(万元)</t>
   </si>
   <si>
-    <t>F_ISSUE_MINAMTIND</t>
+    <t>f_issue_minamtind</t>
   </si>
   <si>
     <t>认购上限(万元)</t>
   </si>
   <si>
-    <t>F_ISSUE_MAXAMTIND</t>
+    <t>f_issue_maxamtind</t>
   </si>
   <si>
     <t>每次最低申购金额(万元)</t>
   </si>
   <si>
-    <t>F_PCHREDM_PCHMINAMT</t>
-  </si>
-  <si>
     <t>NUMBER(22,6)</t>
   </si>
   <si>
     <t>单笔赎回份额下限(份)</t>
   </si>
   <si>
-    <t>F_PCHREDM_REDMMINAMT</t>
+    <t>f_pchredm_redmminamt</t>
   </si>
   <si>
     <t>巨额赎回认定比例(%)</t>
   </si>
   <si>
-    <t>F_PCHREDM_HUGEREDMPRO</t>
-  </si>
-  <si>
-    <t>F_INFO_ISSUEPRICE</t>
+    <t>f_pchredm_hugeredmpro</t>
+  </si>
+  <si>
+    <t>f_info_issueprice</t>
   </si>
   <si>
     <t>超额认购倍数</t>
   </si>
   <si>
-    <t>F_INFO_OVRSUBRATIO</t>
-  </si>
-  <si>
-    <t>PRICE_DATE</t>
+    <t>f_info_ovrsubratio</t>
   </si>
   <si>
     <t>单位净值</t>
   </si>
   <si>
-    <t>F_NAV_UNIT</t>
+    <t>f_nav_unit</t>
   </si>
   <si>
     <t>累计净值</t>
   </si>
   <si>
-    <t>F_NAV_ACCUMULATED</t>
+    <t>f_nav_accumulated</t>
   </si>
   <si>
     <t>累计分红(废弃)</t>
   </si>
   <si>
-    <t>F_NAV_DIVACCUMULATED</t>
-  </si>
-  <si>
-    <t>F_NAV_ADJFACTOR</t>
+    <t>f_nav_divaccumulated</t>
+  </si>
+  <si>
+    <t>f_nav_adjfactor</t>
   </si>
   <si>
     <t>资产净值</t>
   </si>
   <si>
-    <t>F_PRT_NETASSET</t>
-  </si>
-  <si>
     <t>是否合计数据</t>
   </si>
   <si>
-    <t>F_ASSET_MERGEDSHARESORNOT</t>
+    <t>f_asset_mergedsharesornot</t>
   </si>
   <si>
     <t>合计资产净值</t>
   </si>
   <si>
-    <t>NETASSET_TOTAL</t>
+    <t>netasset_total</t>
   </si>
   <si>
     <t>复权单位净值</t>
   </si>
   <si>
-    <t>F_NAV_ADJUSTED</t>
+    <t>f_nav_adjusted</t>
   </si>
   <si>
     <t>NUMBER(22,8)</t>
@@ -13960,244 +13908,184 @@
     <t>是否净值除权日</t>
   </si>
   <si>
-    <t>IS_EXDIVIDENDDATE</t>
+    <t>is_exdividenddate</t>
   </si>
   <si>
     <t>累计单位分配</t>
   </si>
   <si>
-    <t>F_NAV_DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>S_INFO_ASHARECODE</t>
+    <t>f_nav_distribution</t>
+  </si>
+  <si>
+    <t>s_info_asharecode</t>
   </si>
   <si>
     <t>累计资产净值</t>
   </si>
   <si>
-    <t>CUM_NET_ASSET_VALUE</t>
+    <t>cum_net_asset_value</t>
   </si>
   <si>
     <t>持有股票Wind代码</t>
   </si>
   <si>
-    <t>S_INFO_STOCKWINDCODE</t>
-  </si>
-  <si>
-    <t>F_PRT_STKVALUE</t>
+    <t>s_info_stockwindcode</t>
+  </si>
+  <si>
+    <t>f_prt_stkvalue</t>
   </si>
   <si>
     <t>持有股票数量（股）</t>
   </si>
   <si>
-    <t>F_PRT_STKQUANTITY</t>
+    <t>f_prt_stkquantity</t>
   </si>
   <si>
     <t>持有股票市值占基金净值比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_STKVALUETONAV</t>
-  </si>
-  <si>
-    <t>F_PRT_POSSTKVALUE</t>
+    <t>f_prt_stkvaluetonav</t>
+  </si>
+  <si>
+    <t>f_prt_posstkvalue</t>
   </si>
   <si>
     <t>积极投资持有股数（股）</t>
   </si>
   <si>
-    <t>F_PRT_POSSTKQUANTITY</t>
+    <t>f_prt_posstkquantity</t>
   </si>
   <si>
     <t>积极投资持有股票市值占净资产比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_POSSTKTONAV</t>
-  </si>
-  <si>
-    <t>F_PRT_PASSTKEVALUE</t>
+    <t>f_prt_posstktonav</t>
+  </si>
+  <si>
+    <t>f_prt_passtkevalue</t>
   </si>
   <si>
     <t>指数投资持有股数（股）</t>
   </si>
   <si>
-    <t>F_PRT_PASSTKQUANTITY</t>
+    <t>f_prt_passtkquantity</t>
   </si>
   <si>
     <t>指数投资持有股票市值占净资产比例(%)</t>
   </si>
   <si>
-    <t>F_PRT_PASSTKTONAV</t>
+    <t>f_prt_passtktonav</t>
   </si>
   <si>
     <t>占股票市值比</t>
   </si>
   <si>
-    <t>STOCK_PER</t>
+    <t>stock_per</t>
   </si>
   <si>
     <t>占流通股本比例(%)</t>
   </si>
   <si>
-    <t>FLOAT_SHR_PER</t>
-  </si>
-  <si>
-    <t>CHANGE_DATE</t>
+    <t>float_shr_per</t>
+  </si>
+  <si>
+    <t>change_date</t>
   </si>
   <si>
     <t>基金总份额(万份)</t>
   </si>
   <si>
-    <t>F_UNIT_TOTAL</t>
+    <t>f_unit_total</t>
   </si>
   <si>
     <t>流通份额(万份)</t>
   </si>
   <si>
-    <t>F_INFO_SHARE</t>
+    <t>f_info_share</t>
   </si>
   <si>
     <t>基金份额(万份)</t>
   </si>
   <si>
-    <t>FUNDSHARE</t>
+    <t>fundshare</t>
   </si>
   <si>
     <t>是否为合并数据</t>
   </si>
   <si>
-    <t>F_UNIT_MERGEDSHARESORNOT</t>
+    <t>f_unit_mergedsharesornot</t>
   </si>
   <si>
     <t>份额变动原因</t>
   </si>
   <si>
-    <t>CHANGEREASON</t>
+    <t>changereason</t>
   </si>
   <si>
     <t>基金合计份额(万份)</t>
   </si>
   <si>
-    <t>FUNDSHARE_TOTAL</t>
-  </si>
-  <si>
-    <t>CUR_SIGN</t>
+    <t>fundshare_total</t>
   </si>
   <si>
     <t>非流通份额(万份)</t>
   </si>
   <si>
-    <t>F_INFO_NON_TRADABLE_SHR</t>
+    <t>f_info_non_tradable_shr</t>
   </si>
   <si>
     <t>所属板块</t>
   </si>
   <si>
-    <t>S_INFO_SECTOR</t>
-  </si>
-  <si>
-    <t>S_INFO_SECTORENTRYDT</t>
-  </si>
-  <si>
-    <t>S_INFO_SECTOREXITDT</t>
+    <t>s_info_sector</t>
+  </si>
+  <si>
+    <t>s_info_sectorentrydt</t>
+  </si>
+  <si>
+    <t>s_info_sectorexitdt</t>
   </si>
   <si>
     <t>暂停申购起始日期</t>
   </si>
   <si>
-    <t>F_INFO_SUSPCHSTARTDT</t>
+    <t>f_info_suspchstartdt</t>
   </si>
   <si>
     <t>暂停申购公告日期</t>
   </si>
   <si>
-    <t>F_INFO_SUSPCHANNDT</t>
+    <t>f_info_suspchanndt</t>
   </si>
   <si>
     <t>恢复申购日期</t>
   </si>
   <si>
-    <t>F_INFO_REPCHDT</t>
+    <t>f_info_repchdt</t>
   </si>
   <si>
     <t>恢复申购公告日期</t>
   </si>
   <si>
-    <t>F_INFO_REPCHANNDT</t>
+    <t>f_info_repchanndt</t>
   </si>
   <si>
     <t>单日申购上限</t>
   </si>
   <si>
-    <t>F_INFO_PURCHASEUPLIMIT</t>
+    <t>f_info_purchaseuplimit</t>
   </si>
   <si>
     <t>暂停申购原因</t>
   </si>
   <si>
-    <t>F_INFO_SUSPCHREASON</t>
+    <t>f_info_suspchreason</t>
   </si>
   <si>
     <t>暂停申购类型代码</t>
   </si>
   <si>
-    <t>F_INFO_SUSPCHTYPE</t>
-  </si>
-  <si>
-    <t>F_E_BCH_DT</t>
-  </si>
-  <si>
-    <t>F_DIV_PROGRESS</t>
-  </si>
-  <si>
-    <t>CASH_DVD_PER_SH_TAX</t>
-  </si>
-  <si>
-    <t>EQY_RECORD_DT</t>
-  </si>
-  <si>
-    <t>EX_DT</t>
-  </si>
-  <si>
-    <t>F_DIV_EDEXDATE</t>
-  </si>
-  <si>
-    <t>PAY_DT</t>
-  </si>
-  <si>
-    <t>F_DIV_PAYDATE</t>
-  </si>
-  <si>
-    <t>F_DIV_IMPDATE</t>
-  </si>
-  <si>
-    <t>F_SH_BCH_Y</t>
-  </si>
-  <si>
-    <t>F_BCH_UNIT</t>
-  </si>
-  <si>
-    <t>F_E_APR</t>
-  </si>
-  <si>
-    <t>F_EX_DIV_DT</t>
-  </si>
-  <si>
-    <t>F_E_APR_AMOUNT</t>
-  </si>
-  <si>
-    <t>F_REINV_BCH_DT</t>
-  </si>
-  <si>
-    <t>F_REINV_TOAC_DT</t>
-  </si>
-  <si>
-    <t>F_REINV_REDEEM_DT</t>
-  </si>
-  <si>
-    <t>F_DIV_OBJECT</t>
-  </si>
-  <si>
-    <t>F_DIV_IPAYDT</t>
+    <t>f_info_suspchtype</t>
   </si>
 </sst>
 </file>
@@ -14239,20 +14127,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -14260,7 +14134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14274,55 +14148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14343,9 +14170,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14359,26 +14233,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14391,7 +14279,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14403,13 +14357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14427,13 +14399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14445,85 +14435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14535,43 +14447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14585,11 +14473,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14598,15 +14507,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -14627,21 +14538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -14657,28 +14553,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14688,10 +14576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14700,137 +14588,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14844,7 +14732,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15201,9 +15088,9 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -15683,7 +15570,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B34" t="s">
@@ -15697,7 +15584,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B35" t="s">
@@ -15711,7 +15598,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B36" t="s">
@@ -15725,7 +15612,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B37" t="s">
@@ -15739,7 +15626,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B38" t="s">
@@ -15753,7 +15640,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B39" t="s">
@@ -15767,7 +15654,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B40" t="s">
@@ -15781,7 +15668,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B41" t="s">
@@ -15795,7 +15682,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B42" t="s">
@@ -15809,7 +15696,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B43" t="s">
@@ -15823,7 +15710,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B44" t="s">
@@ -15851,7 +15738,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B46" t="s">
@@ -15865,7 +15752,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B47" t="s">
@@ -15879,7 +15766,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B48" t="s">
@@ -15893,7 +15780,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B49" t="s">
@@ -15907,7 +15794,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B50" t="s">
@@ -15921,7 +15808,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B51" t="s">
@@ -15935,7 +15822,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B52" t="s">
@@ -15949,7 +15836,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B53" t="s">
@@ -15963,7 +15850,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B54" t="s">
@@ -15977,7 +15864,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B55" t="s">
@@ -15991,7 +15878,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B56" t="s">
@@ -16005,7 +15892,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B57" t="s">
@@ -16019,7 +15906,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B58" t="s">
@@ -16033,7 +15920,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B59" t="s">
@@ -16050,7 +15937,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B60" t="s">
@@ -16067,7 +15954,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B61" t="s">
@@ -16076,13 +15963,12 @@
       <c r="C61" t="s">
         <v>110</v>
       </c>
-      <c r="D61"/>
       <c r="E61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B62" t="s">
@@ -16091,13 +15977,12 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62"/>
       <c r="E62" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B63" t="s">
@@ -16111,7 +15996,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B64" t="s">
@@ -16125,7 +16010,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B65" t="s">
@@ -16139,7 +16024,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B66" t="s">
@@ -16153,7 +16038,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B67" t="s">
@@ -16167,7 +16052,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B68" t="s">
@@ -16181,7 +16066,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B69" t="s">
@@ -16195,7 +16080,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B70" t="s">
@@ -16209,7 +16094,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B71" t="s">
@@ -16223,7 +16108,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B72" t="s">
@@ -16237,7 +16122,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B73" t="s">
@@ -16254,7 +16139,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B74" t="s">
@@ -16268,7 +16153,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B75" t="s">
@@ -16282,7 +16167,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B76" t="s">
@@ -16296,7 +16181,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B77" t="s">
@@ -16310,7 +16195,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B78" t="s">
@@ -16324,7 +16209,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B79" t="s">
@@ -16338,7 +16223,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B80" t="s">
@@ -16352,7 +16237,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B81" t="s">
@@ -16363,7 +16248,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B82" t="s">
@@ -16377,7 +16262,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B83" t="s">
@@ -16391,7 +16276,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B84" t="s">
@@ -16405,7 +16290,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B85" t="s">
@@ -16419,7 +16304,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B86" t="s">
@@ -16433,7 +16318,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B87" t="s">
@@ -16447,7 +16332,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B88" t="s">
@@ -16461,7 +16346,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B89" t="s">
@@ -16475,7 +16360,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B90" t="s">
@@ -16489,7 +16374,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B91" t="s">
@@ -16503,7 +16388,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B92" t="s">
@@ -16517,7 +16402,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B93" t="s">
@@ -16531,7 +16416,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B94" t="s">
@@ -16545,7 +16430,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B95" t="s">
@@ -16559,7 +16444,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B96" t="s">
@@ -16576,7 +16461,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B97" t="s">
@@ -16590,7 +16475,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B98" t="s">
@@ -16604,7 +16489,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>221</v>
       </c>
       <c r="B99" t="s">
@@ -16618,7 +16503,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B100" t="s">
@@ -16632,7 +16517,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B101" t="s">
@@ -16646,7 +16531,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B102" t="s">
@@ -16660,7 +16545,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B103" t="s">
@@ -16674,7 +16559,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B104" t="s">
@@ -16688,7 +16573,7 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B105" t="s">
@@ -16702,7 +16587,7 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B106" t="s">
@@ -16716,7 +16601,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B107" t="s">
@@ -16730,7 +16615,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B108" t="s">
@@ -16744,7 +16629,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B109" t="s">
@@ -16758,7 +16643,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B110" t="s">
@@ -16772,7 +16657,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B111" t="s">
@@ -16786,7 +16671,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B112" t="s">
@@ -16800,7 +16685,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B113" t="s">
@@ -16814,7 +16699,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B114" t="s">
@@ -16828,7 +16713,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B115" t="s">
@@ -16842,7 +16727,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B116" t="s">
@@ -16859,7 +16744,7 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B117" t="s">
@@ -16873,7 +16758,7 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>252</v>
       </c>
       <c r="B118" t="s">
@@ -16887,7 +16772,7 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B119" t="s">
@@ -16901,7 +16786,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B120" t="s">
@@ -16915,7 +16800,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B121" t="s">
@@ -16929,7 +16814,7 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B122" t="s">
@@ -16943,7 +16828,7 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B123" t="s">
@@ -16957,7 +16842,7 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B124" t="s">
@@ -16971,7 +16856,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B125" t="s">
@@ -16985,7 +16870,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B126" t="s">
@@ -17054,7 +16939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>276</v>
       </c>
@@ -17063,6 +16948,9 @@
       </c>
       <c r="C131" t="s">
         <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -17191,7 +17079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -17201,17 +17089,26 @@
       <c r="C141" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>153</v>
       </c>
       <c r="B142" t="s">
         <v>154</v>
       </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C126">
+  <autoFilter ref="A1:C142">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17226,9 +17123,9 @@
   <dimension ref="A1:H2864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2831" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2669" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2850" sqref="H2850"/>
+      <selection pane="bottomLeft" activeCell="K2686" sqref="K2686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -52162,7 +52059,7 @@
       <c r="E1921" t="s">
         <v>305</v>
       </c>
-      <c r="H1921" s="7" t="s">
+      <c r="H1921" s="4" t="s">
         <v>3440</v>
       </c>
     </row>
@@ -65614,7 +65511,7 @@
         <v>302</v>
       </c>
       <c r="C2700" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2700" t="s">
         <v>304</v>
@@ -65631,7 +65528,7 @@
         <v>1263</v>
       </c>
       <c r="C2701" t="s">
-        <v>4500</v>
+        <v>307</v>
       </c>
       <c r="D2701" t="s">
         <v>308</v>
@@ -65648,7 +65545,7 @@
         <v>1113</v>
       </c>
       <c r="C2702" t="s">
-        <v>4501</v>
+        <v>4343</v>
       </c>
       <c r="D2702" t="s">
         <v>312</v>
@@ -65668,7 +65565,7 @@
         <v>315</v>
       </c>
       <c r="C2703" t="s">
-        <v>2635</v>
+        <v>316</v>
       </c>
       <c r="D2703" t="s">
         <v>317</v>
@@ -65682,10 +65579,10 @@
         <v>286</v>
       </c>
       <c r="B2704" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
       <c r="C2704" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
       <c r="D2704" t="s">
         <v>308</v>
@@ -65699,10 +65596,10 @@
         <v>286</v>
       </c>
       <c r="B2705" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="C2705" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
       <c r="D2705" t="s">
         <v>320</v>
@@ -65716,10 +65613,10 @@
         <v>286</v>
       </c>
       <c r="B2706" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
       <c r="C2706" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
       <c r="D2706" t="s">
         <v>320</v>
@@ -65733,10 +65630,10 @@
         <v>286</v>
       </c>
       <c r="B2707" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
       <c r="C2707" t="s">
-        <v>4509</v>
+        <v>4506</v>
       </c>
       <c r="D2707" t="s">
         <v>320</v>
@@ -65753,7 +65650,7 @@
         <v>1095</v>
       </c>
       <c r="C2708" t="s">
-        <v>4510</v>
+        <v>4461</v>
       </c>
       <c r="D2708" t="s">
         <v>312</v>
@@ -65767,10 +65664,10 @@
         <v>286</v>
       </c>
       <c r="B2709" t="s">
-        <v>4511</v>
+        <v>4507</v>
       </c>
       <c r="C2709" t="s">
-        <v>4512</v>
+        <v>4508</v>
       </c>
       <c r="D2709" t="s">
         <v>320</v>
@@ -65784,10 +65681,10 @@
         <v>286</v>
       </c>
       <c r="B2710" t="s">
-        <v>4513</v>
+        <v>4509</v>
       </c>
       <c r="C2710" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="D2710" t="s">
         <v>320</v>
@@ -65804,7 +65701,7 @@
         <v>302</v>
       </c>
       <c r="C2711" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2711" t="s">
         <v>304</v>
@@ -65821,7 +65718,7 @@
         <v>306</v>
       </c>
       <c r="C2712" t="s">
-        <v>4500</v>
+        <v>307</v>
       </c>
       <c r="D2712" t="s">
         <v>308</v>
@@ -65838,7 +65735,7 @@
         <v>1113</v>
       </c>
       <c r="C2713" t="s">
-        <v>4501</v>
+        <v>4343</v>
       </c>
       <c r="D2713" t="s">
         <v>312</v>
@@ -65855,10 +65752,10 @@
         <v>288</v>
       </c>
       <c r="B2714" t="s">
-        <v>4515</v>
+        <v>4511</v>
       </c>
       <c r="C2714" t="s">
-        <v>4516</v>
+        <v>4512</v>
       </c>
       <c r="D2714" t="s">
         <v>308</v>
@@ -65872,10 +65769,10 @@
         <v>288</v>
       </c>
       <c r="B2715" t="s">
-        <v>4517</v>
+        <v>4513</v>
       </c>
       <c r="C2715" t="s">
-        <v>4518</v>
+        <v>4514</v>
       </c>
       <c r="D2715" t="s">
         <v>320</v>
@@ -65889,10 +65786,10 @@
         <v>288</v>
       </c>
       <c r="B2716" t="s">
-        <v>4519</v>
+        <v>4515</v>
       </c>
       <c r="C2716" t="s">
-        <v>4520</v>
+        <v>4516</v>
       </c>
       <c r="D2716" t="s">
         <v>320</v>
@@ -65906,10 +65803,10 @@
         <v>288</v>
       </c>
       <c r="B2717" t="s">
-        <v>4521</v>
+        <v>4517</v>
       </c>
       <c r="C2717" t="s">
-        <v>4522</v>
+        <v>4518</v>
       </c>
       <c r="D2717" t="s">
         <v>320</v>
@@ -65923,10 +65820,10 @@
         <v>288</v>
       </c>
       <c r="B2718" t="s">
-        <v>4523</v>
+        <v>4519</v>
       </c>
       <c r="C2718" t="s">
-        <v>4524</v>
+        <v>4520</v>
       </c>
       <c r="D2718" t="s">
         <v>320</v>
@@ -65940,10 +65837,10 @@
         <v>288</v>
       </c>
       <c r="B2719" t="s">
-        <v>4525</v>
+        <v>4521</v>
       </c>
       <c r="C2719" t="s">
-        <v>4526</v>
+        <v>4522</v>
       </c>
       <c r="D2719" t="s">
         <v>320</v>
@@ -65957,10 +65854,10 @@
         <v>288</v>
       </c>
       <c r="B2720" t="s">
-        <v>4527</v>
+        <v>4523</v>
       </c>
       <c r="C2720" t="s">
-        <v>4528</v>
+        <v>4524</v>
       </c>
       <c r="D2720" t="s">
         <v>320</v>
@@ -65974,10 +65871,10 @@
         <v>288</v>
       </c>
       <c r="B2721" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
       <c r="C2721" t="s">
-        <v>4530</v>
+        <v>4526</v>
       </c>
       <c r="D2721" t="s">
         <v>320</v>
@@ -65991,10 +65888,10 @@
         <v>288</v>
       </c>
       <c r="B2722" t="s">
-        <v>4531</v>
+        <v>4527</v>
       </c>
       <c r="C2722" t="s">
-        <v>4532</v>
+        <v>4528</v>
       </c>
       <c r="D2722" t="s">
         <v>805</v>
@@ -66011,7 +65908,7 @@
         <v>1095</v>
       </c>
       <c r="C2723" t="s">
-        <v>4510</v>
+        <v>4461</v>
       </c>
       <c r="D2723" t="s">
         <v>312</v>
@@ -66028,7 +65925,7 @@
         <v>302</v>
       </c>
       <c r="C2724" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2724" t="s">
         <v>304</v>
@@ -66045,7 +65942,7 @@
         <v>306</v>
       </c>
       <c r="C2725" t="s">
-        <v>4533</v>
+        <v>803</v>
       </c>
       <c r="D2725" t="s">
         <v>308</v>
@@ -66062,7 +65959,7 @@
         <v>1095</v>
       </c>
       <c r="C2726" t="s">
-        <v>4534</v>
+        <v>986</v>
       </c>
       <c r="D2726" t="s">
         <v>312</v>
@@ -66076,10 +65973,10 @@
         <v>292</v>
       </c>
       <c r="B2727" t="s">
-        <v>4535</v>
+        <v>4529</v>
       </c>
       <c r="C2727" t="s">
-        <v>4536</v>
+        <v>4530</v>
       </c>
       <c r="D2727" t="s">
         <v>308</v>
@@ -66093,10 +65990,10 @@
         <v>292</v>
       </c>
       <c r="B2728" t="s">
-        <v>4537</v>
+        <v>4531</v>
       </c>
       <c r="C2728" t="s">
-        <v>4538</v>
+        <v>4532</v>
       </c>
       <c r="D2728" t="s">
         <v>317</v>
@@ -66110,10 +66007,10 @@
         <v>292</v>
       </c>
       <c r="B2729" t="s">
-        <v>4539</v>
+        <v>4533</v>
       </c>
       <c r="C2729" t="s">
-        <v>4540</v>
+        <v>4534</v>
       </c>
       <c r="D2729" t="s">
         <v>317</v>
@@ -66127,10 +66024,10 @@
         <v>292</v>
       </c>
       <c r="B2730" t="s">
-        <v>4541</v>
+        <v>4535</v>
       </c>
       <c r="C2730" t="s">
-        <v>4542</v>
+        <v>4536</v>
       </c>
       <c r="D2730" t="s">
         <v>909</v>
@@ -66147,7 +66044,7 @@
         <v>4057</v>
       </c>
       <c r="C2731" t="s">
-        <v>4543</v>
+        <v>4537</v>
       </c>
       <c r="D2731" t="s">
         <v>317</v>
@@ -66161,10 +66058,10 @@
         <v>292</v>
       </c>
       <c r="B2732" t="s">
-        <v>4544</v>
+        <v>4538</v>
       </c>
       <c r="C2732" t="s">
-        <v>4545</v>
+        <v>4539</v>
       </c>
       <c r="D2732" t="s">
         <v>312</v>
@@ -66178,10 +66075,10 @@
         <v>292</v>
       </c>
       <c r="B2733" t="s">
-        <v>4546</v>
+        <v>4540</v>
       </c>
       <c r="C2733" t="s">
-        <v>4547</v>
+        <v>4541</v>
       </c>
       <c r="D2733" t="s">
         <v>312</v>
@@ -66198,13 +66095,13 @@
         <v>292</v>
       </c>
       <c r="B2734" t="s">
-        <v>4548</v>
+        <v>4542</v>
       </c>
       <c r="C2734" t="s">
-        <v>4549</v>
+        <v>4543</v>
       </c>
       <c r="D2734" t="s">
-        <v>4550</v>
+        <v>4544</v>
       </c>
       <c r="E2734" t="s">
         <v>305</v>
@@ -66215,10 +66112,10 @@
         <v>292</v>
       </c>
       <c r="B2735" t="s">
-        <v>4551</v>
+        <v>4545</v>
       </c>
       <c r="C2735" t="s">
-        <v>4552</v>
+        <v>4546</v>
       </c>
       <c r="D2735" t="s">
         <v>317</v>
@@ -66235,7 +66132,7 @@
         <v>1503</v>
       </c>
       <c r="C2736" t="s">
-        <v>4553</v>
+        <v>4547</v>
       </c>
       <c r="D2736" t="s">
         <v>440</v>
@@ -66249,10 +66146,10 @@
         <v>292</v>
       </c>
       <c r="B2737" t="s">
-        <v>4554</v>
+        <v>4548</v>
       </c>
       <c r="C2737" t="s">
-        <v>4555</v>
+        <v>4549</v>
       </c>
       <c r="D2737" t="s">
         <v>805</v>
@@ -66266,10 +66163,10 @@
         <v>292</v>
       </c>
       <c r="B2738" t="s">
-        <v>4556</v>
+        <v>4550</v>
       </c>
       <c r="C2738" t="s">
-        <v>4557</v>
+        <v>4551</v>
       </c>
       <c r="D2738" t="s">
         <v>312</v>
@@ -66283,10 +66180,10 @@
         <v>292</v>
       </c>
       <c r="B2739" t="s">
-        <v>4558</v>
+        <v>4552</v>
       </c>
       <c r="C2739" t="s">
-        <v>4559</v>
+        <v>4553</v>
       </c>
       <c r="D2739" t="s">
         <v>312</v>
@@ -66300,10 +66197,10 @@
         <v>292</v>
       </c>
       <c r="B2740" t="s">
-        <v>4560</v>
+        <v>4554</v>
       </c>
       <c r="C2740" t="s">
-        <v>4561</v>
+        <v>4555</v>
       </c>
       <c r="D2740" t="s">
         <v>423</v>
@@ -66320,7 +66217,7 @@
         <v>302</v>
       </c>
       <c r="C2741" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2741" t="s">
         <v>304</v>
@@ -66337,7 +66234,7 @@
         <v>306</v>
       </c>
       <c r="C2742" t="s">
-        <v>4500</v>
+        <v>307</v>
       </c>
       <c r="D2742" t="s">
         <v>308</v>
@@ -66351,10 +66248,10 @@
         <v>274</v>
       </c>
       <c r="B2743" t="s">
-        <v>4562</v>
+        <v>4556</v>
       </c>
       <c r="C2743" t="s">
-        <v>4563</v>
+        <v>4557</v>
       </c>
       <c r="D2743" t="s">
         <v>440</v>
@@ -66368,10 +66265,10 @@
         <v>274</v>
       </c>
       <c r="B2744" t="s">
-        <v>4564</v>
+        <v>4558</v>
       </c>
       <c r="C2744" t="s">
-        <v>4565</v>
+        <v>4559</v>
       </c>
       <c r="D2744" t="s">
         <v>440</v>
@@ -66385,10 +66282,10 @@
         <v>274</v>
       </c>
       <c r="B2745" t="s">
-        <v>4566</v>
+        <v>4560</v>
       </c>
       <c r="C2745" t="s">
-        <v>4567</v>
+        <v>4561</v>
       </c>
       <c r="D2745" t="s">
         <v>308</v>
@@ -66402,10 +66299,10 @@
         <v>274</v>
       </c>
       <c r="B2746" t="s">
-        <v>4568</v>
+        <v>4562</v>
       </c>
       <c r="C2746" t="s">
-        <v>4569</v>
+        <v>4563</v>
       </c>
       <c r="D2746" t="s">
         <v>304</v>
@@ -66419,10 +66316,10 @@
         <v>274</v>
       </c>
       <c r="B2747" t="s">
-        <v>4570</v>
+        <v>4564</v>
       </c>
       <c r="C2747" t="s">
-        <v>4571</v>
+        <v>1006</v>
       </c>
       <c r="D2747" t="s">
         <v>304</v>
@@ -66439,7 +66336,7 @@
         <v>1060</v>
       </c>
       <c r="C2748" t="s">
-        <v>4572</v>
+        <v>1061</v>
       </c>
       <c r="D2748" t="s">
         <v>430</v>
@@ -66453,10 +66350,10 @@
         <v>274</v>
       </c>
       <c r="B2749" t="s">
-        <v>4573</v>
+        <v>4565</v>
       </c>
       <c r="C2749" t="s">
-        <v>4572</v>
+        <v>1061</v>
       </c>
       <c r="D2749" t="s">
         <v>869</v>
@@ -66465,7 +66362,7 @@
         <v>305</v>
       </c>
       <c r="H2749" t="s">
-        <v>4574</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2750" spans="1:5">
@@ -66473,10 +66370,10 @@
         <v>274</v>
       </c>
       <c r="B2750" t="s">
-        <v>4575</v>
+        <v>4567</v>
       </c>
       <c r="C2750" t="s">
-        <v>4576</v>
+        <v>4568</v>
       </c>
       <c r="D2750" t="s">
         <v>430</v>
@@ -66490,10 +66387,10 @@
         <v>274</v>
       </c>
       <c r="B2751" t="s">
-        <v>4577</v>
+        <v>4569</v>
       </c>
       <c r="C2751" t="s">
-        <v>4576</v>
+        <v>4568</v>
       </c>
       <c r="D2751" t="s">
         <v>869</v>
@@ -66502,7 +66399,7 @@
         <v>305</v>
       </c>
       <c r="H2751" t="s">
-        <v>4578</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2752" spans="1:5">
@@ -66513,7 +66410,7 @@
         <v>1058</v>
       </c>
       <c r="C2752" t="s">
-        <v>4579</v>
+        <v>4571</v>
       </c>
       <c r="D2752" t="s">
         <v>312</v>
@@ -66527,10 +66424,10 @@
         <v>274</v>
       </c>
       <c r="B2753" t="s">
-        <v>4580</v>
+        <v>4572</v>
       </c>
       <c r="C2753" t="s">
-        <v>4581</v>
+        <v>4573</v>
       </c>
       <c r="D2753" t="s">
         <v>317</v>
@@ -66544,10 +66441,10 @@
         <v>274</v>
       </c>
       <c r="B2754" t="s">
-        <v>4582</v>
+        <v>4574</v>
       </c>
       <c r="C2754" t="s">
-        <v>4583</v>
+        <v>4575</v>
       </c>
       <c r="D2754" t="s">
         <v>320</v>
@@ -66561,10 +66458,10 @@
         <v>274</v>
       </c>
       <c r="B2755" t="s">
-        <v>4584</v>
+        <v>4576</v>
       </c>
       <c r="C2755" t="s">
-        <v>4585</v>
+        <v>4577</v>
       </c>
       <c r="D2755" t="s">
         <v>320</v>
@@ -66578,10 +66475,10 @@
         <v>274</v>
       </c>
       <c r="B2756" t="s">
-        <v>4586</v>
+        <v>4578</v>
       </c>
       <c r="C2756" t="s">
-        <v>4587</v>
+        <v>4579</v>
       </c>
       <c r="D2756" t="s">
         <v>320</v>
@@ -66595,10 +66492,10 @@
         <v>274</v>
       </c>
       <c r="B2757" t="s">
-        <v>4588</v>
+        <v>4580</v>
       </c>
       <c r="C2757" t="s">
-        <v>4589</v>
+        <v>1029</v>
       </c>
       <c r="D2757" t="s">
         <v>320</v>
@@ -66612,10 +66509,10 @@
         <v>274</v>
       </c>
       <c r="B2758" t="s">
-        <v>4590</v>
+        <v>4581</v>
       </c>
       <c r="C2758" t="s">
-        <v>4591</v>
+        <v>1023</v>
       </c>
       <c r="D2758" t="s">
         <v>320</v>
@@ -66629,10 +66526,10 @@
         <v>274</v>
       </c>
       <c r="B2759" t="s">
-        <v>4592</v>
+        <v>4582</v>
       </c>
       <c r="C2759" t="s">
-        <v>4593</v>
+        <v>4583</v>
       </c>
       <c r="D2759" t="s">
         <v>320</v>
@@ -66646,10 +66543,10 @@
         <v>274</v>
       </c>
       <c r="B2760" t="s">
-        <v>4594</v>
+        <v>4584</v>
       </c>
       <c r="C2760" t="s">
-        <v>4595</v>
+        <v>4585</v>
       </c>
       <c r="D2760" t="s">
         <v>320</v>
@@ -66663,10 +66560,10 @@
         <v>274</v>
       </c>
       <c r="B2761" t="s">
-        <v>4596</v>
+        <v>4586</v>
       </c>
       <c r="C2761" t="s">
-        <v>4597</v>
+        <v>4587</v>
       </c>
       <c r="D2761" t="s">
         <v>320</v>
@@ -66680,10 +66577,10 @@
         <v>274</v>
       </c>
       <c r="B2762" t="s">
-        <v>4598</v>
+        <v>4588</v>
       </c>
       <c r="C2762" t="s">
-        <v>4599</v>
+        <v>1010</v>
       </c>
       <c r="D2762" t="s">
         <v>312</v>
@@ -66697,10 +66594,10 @@
         <v>274</v>
       </c>
       <c r="B2763" t="s">
-        <v>4600</v>
+        <v>4589</v>
       </c>
       <c r="C2763" t="s">
-        <v>4601</v>
+        <v>1012</v>
       </c>
       <c r="D2763" t="s">
         <v>312</v>
@@ -66714,10 +66611,10 @@
         <v>274</v>
       </c>
       <c r="B2764" t="s">
-        <v>4602</v>
+        <v>4590</v>
       </c>
       <c r="C2764" t="s">
-        <v>4603</v>
+        <v>4591</v>
       </c>
       <c r="D2764" t="s">
         <v>320</v>
@@ -66734,7 +66631,7 @@
         <v>4487</v>
       </c>
       <c r="C2765" t="s">
-        <v>4604</v>
+        <v>4488</v>
       </c>
       <c r="D2765" t="s">
         <v>320</v>
@@ -66751,7 +66648,7 @@
         <v>871</v>
       </c>
       <c r="C2766" t="s">
-        <v>4605</v>
+        <v>1094</v>
       </c>
       <c r="D2766" t="s">
         <v>312</v>
@@ -66765,10 +66662,10 @@
         <v>274</v>
       </c>
       <c r="B2767" t="s">
-        <v>4606</v>
+        <v>4592</v>
       </c>
       <c r="C2767" t="s">
-        <v>4607</v>
+        <v>4593</v>
       </c>
       <c r="D2767" t="s">
         <v>312</v>
@@ -66782,10 +66679,10 @@
         <v>274</v>
       </c>
       <c r="B2768" t="s">
-        <v>4608</v>
+        <v>4594</v>
       </c>
       <c r="C2768" t="s">
-        <v>4609</v>
+        <v>4595</v>
       </c>
       <c r="D2768" t="s">
         <v>312</v>
@@ -66799,10 +66696,10 @@
         <v>274</v>
       </c>
       <c r="B2769" t="s">
-        <v>4610</v>
+        <v>4596</v>
       </c>
       <c r="C2769" t="s">
-        <v>4611</v>
+        <v>4597</v>
       </c>
       <c r="D2769" t="s">
         <v>312</v>
@@ -66816,10 +66713,10 @@
         <v>274</v>
       </c>
       <c r="B2770" t="s">
-        <v>4612</v>
+        <v>4598</v>
       </c>
       <c r="C2770" t="s">
-        <v>4613</v>
+        <v>4599</v>
       </c>
       <c r="D2770" t="s">
         <v>312</v>
@@ -66833,10 +66730,10 @@
         <v>274</v>
       </c>
       <c r="B2771" t="s">
-        <v>4614</v>
+        <v>4600</v>
       </c>
       <c r="C2771" t="s">
-        <v>4615</v>
+        <v>4601</v>
       </c>
       <c r="D2771" t="s">
         <v>320</v>
@@ -66850,10 +66747,10 @@
         <v>274</v>
       </c>
       <c r="B2772" t="s">
-        <v>4616</v>
+        <v>4602</v>
       </c>
       <c r="C2772" t="s">
-        <v>4617</v>
+        <v>4603</v>
       </c>
       <c r="D2772" t="s">
         <v>320</v>
@@ -66867,13 +66764,13 @@
         <v>274</v>
       </c>
       <c r="B2773" t="s">
-        <v>4618</v>
+        <v>4604</v>
       </c>
       <c r="C2773" t="s">
-        <v>4619</v>
+        <v>1090</v>
       </c>
       <c r="D2773" t="s">
-        <v>4620</v>
+        <v>4605</v>
       </c>
       <c r="E2773" t="s">
         <v>305</v>
@@ -66884,10 +66781,10 @@
         <v>274</v>
       </c>
       <c r="B2774" t="s">
-        <v>4621</v>
+        <v>4606</v>
       </c>
       <c r="C2774" t="s">
-        <v>4622</v>
+        <v>4607</v>
       </c>
       <c r="D2774" t="s">
         <v>320</v>
@@ -66901,10 +66798,10 @@
         <v>274</v>
       </c>
       <c r="B2775" t="s">
-        <v>4623</v>
+        <v>4608</v>
       </c>
       <c r="C2775" t="s">
-        <v>4624</v>
+        <v>4609</v>
       </c>
       <c r="D2775" t="s">
         <v>320</v>
@@ -66921,7 +66818,7 @@
         <v>315</v>
       </c>
       <c r="C2776" t="s">
-        <v>2635</v>
+        <v>316</v>
       </c>
       <c r="D2776" t="s">
         <v>317</v>
@@ -66938,7 +66835,7 @@
         <v>1133</v>
       </c>
       <c r="C2777" t="s">
-        <v>4625</v>
+        <v>4610</v>
       </c>
       <c r="D2777" t="s">
         <v>320</v>
@@ -66952,10 +66849,10 @@
         <v>274</v>
       </c>
       <c r="B2778" t="s">
-        <v>4626</v>
+        <v>4611</v>
       </c>
       <c r="C2778" t="s">
-        <v>4627</v>
+        <v>4612</v>
       </c>
       <c r="D2778" t="s">
         <v>320</v>
@@ -66972,7 +66869,7 @@
         <v>302</v>
       </c>
       <c r="C2779" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2779" t="s">
         <v>304</v>
@@ -66989,7 +66886,7 @@
         <v>306</v>
       </c>
       <c r="C2780" t="s">
-        <v>4533</v>
+        <v>803</v>
       </c>
       <c r="D2780" t="s">
         <v>308</v>
@@ -67006,7 +66903,7 @@
         <v>1095</v>
       </c>
       <c r="C2781" t="s">
-        <v>4534</v>
+        <v>986</v>
       </c>
       <c r="D2781" t="s">
         <v>312</v>
@@ -67023,7 +66920,7 @@
         <v>1113</v>
       </c>
       <c r="C2782" t="s">
-        <v>4628</v>
+        <v>829</v>
       </c>
       <c r="D2782" t="s">
         <v>312</v>
@@ -67040,10 +66937,10 @@
         <v>280</v>
       </c>
       <c r="B2783" t="s">
-        <v>4629</v>
+        <v>4613</v>
       </c>
       <c r="C2783" t="s">
-        <v>4630</v>
+        <v>4614</v>
       </c>
       <c r="D2783" t="s">
         <v>1243</v>
@@ -67057,10 +66954,10 @@
         <v>280</v>
       </c>
       <c r="B2784" t="s">
-        <v>4631</v>
+        <v>4615</v>
       </c>
       <c r="C2784" t="s">
-        <v>4632</v>
+        <v>4616</v>
       </c>
       <c r="D2784" t="s">
         <v>1243</v>
@@ -67074,10 +66971,10 @@
         <v>280</v>
       </c>
       <c r="B2785" t="s">
-        <v>4633</v>
+        <v>4617</v>
       </c>
       <c r="C2785" t="s">
-        <v>4634</v>
+        <v>4618</v>
       </c>
       <c r="D2785" t="s">
         <v>320</v>
@@ -67094,7 +66991,7 @@
         <v>349</v>
       </c>
       <c r="C2786" t="s">
-        <v>4635</v>
+        <v>4619</v>
       </c>
       <c r="D2786" t="s">
         <v>1243</v>
@@ -67111,7 +67008,7 @@
         <v>315</v>
       </c>
       <c r="C2787" t="s">
-        <v>2635</v>
+        <v>316</v>
       </c>
       <c r="D2787" t="s">
         <v>317</v>
@@ -67125,10 +67022,10 @@
         <v>280</v>
       </c>
       <c r="B2788" t="s">
-        <v>4636</v>
+        <v>4620</v>
       </c>
       <c r="C2788" t="s">
-        <v>4637</v>
+        <v>4347</v>
       </c>
       <c r="D2788" t="s">
         <v>320</v>
@@ -67142,10 +67039,10 @@
         <v>280</v>
       </c>
       <c r="B2789" t="s">
-        <v>4638</v>
+        <v>4621</v>
       </c>
       <c r="C2789" t="s">
-        <v>4639</v>
+        <v>4622</v>
       </c>
       <c r="D2789" t="s">
         <v>917</v>
@@ -67159,10 +67056,10 @@
         <v>280</v>
       </c>
       <c r="B2790" t="s">
-        <v>4640</v>
+        <v>4623</v>
       </c>
       <c r="C2790" t="s">
-        <v>4641</v>
+        <v>4624</v>
       </c>
       <c r="D2790" t="s">
         <v>320</v>
@@ -67176,13 +67073,13 @@
         <v>280</v>
       </c>
       <c r="B2791" t="s">
-        <v>4642</v>
+        <v>4625</v>
       </c>
       <c r="C2791" t="s">
-        <v>4643</v>
+        <v>4626</v>
       </c>
       <c r="D2791" t="s">
-        <v>4644</v>
+        <v>4627</v>
       </c>
       <c r="E2791" t="s">
         <v>305</v>
@@ -67193,10 +67090,10 @@
         <v>280</v>
       </c>
       <c r="B2792" t="s">
-        <v>4645</v>
+        <v>4628</v>
       </c>
       <c r="C2792" t="s">
-        <v>4646</v>
+        <v>4629</v>
       </c>
       <c r="D2792" t="s">
         <v>881</v>
@@ -67210,10 +67107,10 @@
         <v>280</v>
       </c>
       <c r="B2793" t="s">
-        <v>4647</v>
+        <v>4630</v>
       </c>
       <c r="C2793" t="s">
-        <v>4648</v>
+        <v>4631</v>
       </c>
       <c r="D2793" t="s">
         <v>320</v>
@@ -67230,7 +67127,7 @@
         <v>769</v>
       </c>
       <c r="C2794" t="s">
-        <v>4649</v>
+        <v>4632</v>
       </c>
       <c r="D2794" t="s">
         <v>317</v>
@@ -67244,10 +67141,10 @@
         <v>280</v>
       </c>
       <c r="B2795" t="s">
-        <v>4650</v>
+        <v>4633</v>
       </c>
       <c r="C2795" t="s">
-        <v>4651</v>
+        <v>4634</v>
       </c>
       <c r="D2795" t="s">
         <v>1243</v>
@@ -67264,7 +67161,7 @@
         <v>302</v>
       </c>
       <c r="C2796" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2796" t="s">
         <v>304</v>
@@ -67281,7 +67178,7 @@
         <v>1263</v>
       </c>
       <c r="C2797" t="s">
-        <v>4500</v>
+        <v>307</v>
       </c>
       <c r="D2797" t="s">
         <v>308</v>
@@ -67298,7 +67195,7 @@
         <v>1113</v>
       </c>
       <c r="C2798" t="s">
-        <v>4501</v>
+        <v>4343</v>
       </c>
       <c r="D2798" t="s">
         <v>312</v>
@@ -67315,7 +67212,7 @@
         <v>315</v>
       </c>
       <c r="C2799" t="s">
-        <v>2635</v>
+        <v>316</v>
       </c>
       <c r="D2799" t="s">
         <v>317</v>
@@ -67329,10 +67226,10 @@
         <v>290</v>
       </c>
       <c r="B2800" t="s">
-        <v>4652</v>
+        <v>4635</v>
       </c>
       <c r="C2800" t="s">
-        <v>4653</v>
+        <v>4636</v>
       </c>
       <c r="D2800" t="s">
         <v>317</v>
@@ -67349,7 +67246,7 @@
         <v>4348</v>
       </c>
       <c r="C2801" t="s">
-        <v>4654</v>
+        <v>4637</v>
       </c>
       <c r="D2801" t="s">
         <v>320</v>
@@ -67363,10 +67260,10 @@
         <v>290</v>
       </c>
       <c r="B2802" t="s">
-        <v>4655</v>
+        <v>4638</v>
       </c>
       <c r="C2802" t="s">
-        <v>4656</v>
+        <v>4639</v>
       </c>
       <c r="D2802" t="s">
         <v>320</v>
@@ -67380,10 +67277,10 @@
         <v>290</v>
       </c>
       <c r="B2803" t="s">
-        <v>4657</v>
+        <v>4640</v>
       </c>
       <c r="C2803" t="s">
-        <v>4658</v>
+        <v>4641</v>
       </c>
       <c r="D2803" t="s">
         <v>320</v>
@@ -67400,7 +67297,7 @@
         <v>4357</v>
       </c>
       <c r="C2804" t="s">
-        <v>4659</v>
+        <v>4642</v>
       </c>
       <c r="D2804" t="s">
         <v>320</v>
@@ -67414,10 +67311,10 @@
         <v>290</v>
       </c>
       <c r="B2805" t="s">
-        <v>4660</v>
+        <v>4643</v>
       </c>
       <c r="C2805" t="s">
-        <v>4661</v>
+        <v>4644</v>
       </c>
       <c r="D2805" t="s">
         <v>320</v>
@@ -67431,10 +67328,10 @@
         <v>290</v>
       </c>
       <c r="B2806" t="s">
-        <v>4662</v>
+        <v>4645</v>
       </c>
       <c r="C2806" t="s">
-        <v>4663</v>
+        <v>4646</v>
       </c>
       <c r="D2806" t="s">
         <v>320</v>
@@ -67451,7 +67348,7 @@
         <v>4352</v>
       </c>
       <c r="C2807" t="s">
-        <v>4664</v>
+        <v>4647</v>
       </c>
       <c r="D2807" t="s">
         <v>320</v>
@@ -67465,10 +67362,10 @@
         <v>290</v>
       </c>
       <c r="B2808" t="s">
-        <v>4665</v>
+        <v>4648</v>
       </c>
       <c r="C2808" t="s">
-        <v>4666</v>
+        <v>4649</v>
       </c>
       <c r="D2808" t="s">
         <v>320</v>
@@ -67482,10 +67379,10 @@
         <v>290</v>
       </c>
       <c r="B2809" t="s">
-        <v>4667</v>
+        <v>4650</v>
       </c>
       <c r="C2809" t="s">
-        <v>4668</v>
+        <v>4651</v>
       </c>
       <c r="D2809" t="s">
         <v>320</v>
@@ -67502,7 +67399,7 @@
         <v>1095</v>
       </c>
       <c r="C2810" t="s">
-        <v>4534</v>
+        <v>986</v>
       </c>
       <c r="D2810" t="s">
         <v>312</v>
@@ -67516,10 +67413,10 @@
         <v>290</v>
       </c>
       <c r="B2811" t="s">
-        <v>4669</v>
+        <v>4652</v>
       </c>
       <c r="C2811" t="s">
-        <v>4670</v>
+        <v>4653</v>
       </c>
       <c r="D2811" t="s">
         <v>832</v>
@@ -67533,10 +67430,10 @@
         <v>290</v>
       </c>
       <c r="B2812" t="s">
-        <v>4671</v>
+        <v>4654</v>
       </c>
       <c r="C2812" t="s">
-        <v>4672</v>
+        <v>4655</v>
       </c>
       <c r="D2812" t="s">
         <v>1243</v>
@@ -67550,10 +67447,10 @@
         <v>290</v>
       </c>
       <c r="B2813" t="s">
-        <v>4511</v>
+        <v>4507</v>
       </c>
       <c r="C2813" t="s">
-        <v>4512</v>
+        <v>4508</v>
       </c>
       <c r="D2813" t="s">
         <v>320</v>
@@ -67567,10 +67464,10 @@
         <v>290</v>
       </c>
       <c r="B2814" t="s">
-        <v>4513</v>
+        <v>4509</v>
       </c>
       <c r="C2814" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="D2814" t="s">
         <v>320</v>
@@ -67587,7 +67484,7 @@
         <v>302</v>
       </c>
       <c r="C2815" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2815" t="s">
         <v>304</v>
@@ -67604,7 +67501,7 @@
         <v>306</v>
       </c>
       <c r="C2816" t="s">
-        <v>4533</v>
+        <v>803</v>
       </c>
       <c r="D2816" t="s">
         <v>308</v>
@@ -67621,7 +67518,7 @@
         <v>979</v>
       </c>
       <c r="C2817" t="s">
-        <v>4673</v>
+        <v>4656</v>
       </c>
       <c r="D2817" t="s">
         <v>312</v>
@@ -67638,10 +67535,10 @@
         <v>278</v>
       </c>
       <c r="B2818" t="s">
-        <v>4674</v>
+        <v>4657</v>
       </c>
       <c r="C2818" t="s">
-        <v>4675</v>
+        <v>4658</v>
       </c>
       <c r="D2818" t="s">
         <v>351</v>
@@ -67655,10 +67552,10 @@
         <v>278</v>
       </c>
       <c r="B2819" t="s">
-        <v>4676</v>
+        <v>4659</v>
       </c>
       <c r="C2819" t="s">
-        <v>4677</v>
+        <v>4660</v>
       </c>
       <c r="D2819" t="s">
         <v>351</v>
@@ -67672,10 +67569,10 @@
         <v>278</v>
       </c>
       <c r="B2820" t="s">
-        <v>4678</v>
+        <v>4661</v>
       </c>
       <c r="C2820" t="s">
-        <v>4679</v>
+        <v>4662</v>
       </c>
       <c r="D2820" t="s">
         <v>351</v>
@@ -67689,10 +67586,10 @@
         <v>278</v>
       </c>
       <c r="B2821" t="s">
-        <v>4680</v>
+        <v>4663</v>
       </c>
       <c r="C2821" t="s">
-        <v>4681</v>
+        <v>4664</v>
       </c>
       <c r="D2821" t="s">
         <v>881</v>
@@ -67706,10 +67603,10 @@
         <v>278</v>
       </c>
       <c r="B2822" t="s">
-        <v>4682</v>
+        <v>4665</v>
       </c>
       <c r="C2822" t="s">
-        <v>4683</v>
+        <v>4666</v>
       </c>
       <c r="D2822" t="s">
         <v>317</v>
@@ -67723,10 +67620,10 @@
         <v>278</v>
       </c>
       <c r="B2823" t="s">
-        <v>4684</v>
+        <v>4667</v>
       </c>
       <c r="C2823" t="s">
-        <v>4685</v>
+        <v>4668</v>
       </c>
       <c r="D2823" t="s">
         <v>351</v>
@@ -67743,7 +67640,7 @@
         <v>799</v>
       </c>
       <c r="C2824" t="s">
-        <v>4686</v>
+        <v>800</v>
       </c>
       <c r="D2824" t="s">
         <v>881</v>
@@ -67760,7 +67657,7 @@
         <v>1095</v>
       </c>
       <c r="C2825" t="s">
-        <v>4534</v>
+        <v>986</v>
       </c>
       <c r="D2825" t="s">
         <v>312</v>
@@ -67774,10 +67671,10 @@
         <v>278</v>
       </c>
       <c r="B2826" t="s">
-        <v>4687</v>
+        <v>4669</v>
       </c>
       <c r="C2826" t="s">
-        <v>4688</v>
+        <v>4670</v>
       </c>
       <c r="D2826" t="s">
         <v>320</v>
@@ -67794,7 +67691,7 @@
         <v>302</v>
       </c>
       <c r="C2827" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2827" t="s">
         <v>304</v>
@@ -67811,7 +67708,7 @@
         <v>306</v>
       </c>
       <c r="C2828" t="s">
-        <v>4533</v>
+        <v>803</v>
       </c>
       <c r="D2828" t="s">
         <v>308</v>
@@ -67825,10 +67722,10 @@
         <v>276</v>
       </c>
       <c r="B2829" t="s">
-        <v>4689</v>
+        <v>4671</v>
       </c>
       <c r="C2829" t="s">
-        <v>4690</v>
+        <v>4672</v>
       </c>
       <c r="D2829" t="s">
         <v>308</v>
@@ -67845,7 +67742,7 @@
         <v>1111</v>
       </c>
       <c r="C2830" t="s">
-        <v>4691</v>
+        <v>4673</v>
       </c>
       <c r="D2830" t="s">
         <v>312</v>
@@ -67862,7 +67759,7 @@
         <v>1113</v>
       </c>
       <c r="C2831" t="s">
-        <v>4692</v>
+        <v>4674</v>
       </c>
       <c r="D2831" t="s">
         <v>312</v>
@@ -67879,7 +67776,7 @@
         <v>799</v>
       </c>
       <c r="C2832" t="s">
-        <v>4686</v>
+        <v>800</v>
       </c>
       <c r="D2832" t="s">
         <v>317</v>
@@ -67896,7 +67793,7 @@
         <v>302</v>
       </c>
       <c r="C2833" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2833" t="s">
         <v>304</v>
@@ -67913,7 +67810,7 @@
         <v>306</v>
       </c>
       <c r="C2834" t="s">
-        <v>4500</v>
+        <v>307</v>
       </c>
       <c r="D2834" t="s">
         <v>308</v>
@@ -67927,10 +67824,10 @@
         <v>294</v>
       </c>
       <c r="B2835" t="s">
-        <v>4693</v>
+        <v>4675</v>
       </c>
       <c r="C2835" t="s">
-        <v>4694</v>
+        <v>4676</v>
       </c>
       <c r="D2835" t="s">
         <v>312</v>
@@ -67947,10 +67844,10 @@
         <v>294</v>
       </c>
       <c r="B2836" t="s">
-        <v>4695</v>
+        <v>4677</v>
       </c>
       <c r="C2836" t="s">
-        <v>4696</v>
+        <v>4678</v>
       </c>
       <c r="D2836" t="s">
         <v>312</v>
@@ -67964,10 +67861,10 @@
         <v>294</v>
       </c>
       <c r="B2837" t="s">
-        <v>4697</v>
+        <v>4679</v>
       </c>
       <c r="C2837" t="s">
-        <v>4698</v>
+        <v>4680</v>
       </c>
       <c r="D2837" t="s">
         <v>312</v>
@@ -67981,10 +67878,10 @@
         <v>294</v>
       </c>
       <c r="B2838" t="s">
-        <v>4699</v>
+        <v>4681</v>
       </c>
       <c r="C2838" t="s">
-        <v>4700</v>
+        <v>4682</v>
       </c>
       <c r="D2838" t="s">
         <v>312</v>
@@ -67998,10 +67895,10 @@
         <v>294</v>
       </c>
       <c r="B2839" t="s">
-        <v>4701</v>
+        <v>4683</v>
       </c>
       <c r="C2839" t="s">
-        <v>4702</v>
+        <v>4684</v>
       </c>
       <c r="D2839" t="s">
         <v>320</v>
@@ -68015,10 +67912,10 @@
         <v>294</v>
       </c>
       <c r="B2840" t="s">
-        <v>4703</v>
+        <v>4685</v>
       </c>
       <c r="C2840" t="s">
-        <v>4704</v>
+        <v>4686</v>
       </c>
       <c r="D2840" t="s">
         <v>940</v>
@@ -68032,10 +67929,10 @@
         <v>294</v>
       </c>
       <c r="B2841" t="s">
-        <v>4705</v>
+        <v>4687</v>
       </c>
       <c r="C2841" t="s">
-        <v>4706</v>
+        <v>4688</v>
       </c>
       <c r="D2841" t="s">
         <v>430</v>
@@ -68052,7 +67949,7 @@
         <v>302</v>
       </c>
       <c r="C2842" t="s">
-        <v>4499</v>
+        <v>303</v>
       </c>
       <c r="D2842" t="s">
         <v>304</v>
@@ -68069,7 +67966,7 @@
         <v>306</v>
       </c>
       <c r="C2843" t="s">
-        <v>4500</v>
+        <v>307</v>
       </c>
       <c r="D2843" t="s">
         <v>308</v>
@@ -68086,7 +67983,7 @@
         <v>3484</v>
       </c>
       <c r="C2844" t="s">
-        <v>4707</v>
+        <v>3485</v>
       </c>
       <c r="D2844" t="s">
         <v>312</v>
@@ -68103,7 +68000,7 @@
         <v>3396</v>
       </c>
       <c r="C2845" t="s">
-        <v>4708</v>
+        <v>3483</v>
       </c>
       <c r="D2845" t="s">
         <v>317</v>
@@ -68120,7 +68017,7 @@
         <v>3486</v>
       </c>
       <c r="C2846" t="s">
-        <v>4709</v>
+        <v>3487</v>
       </c>
       <c r="D2846" t="s">
         <v>351</v>
@@ -68137,7 +68034,7 @@
         <v>315</v>
       </c>
       <c r="C2847" t="s">
-        <v>2635</v>
+        <v>316</v>
       </c>
       <c r="D2847" t="s">
         <v>317</v>
@@ -68154,7 +68051,7 @@
         <v>3488</v>
       </c>
       <c r="C2848" t="s">
-        <v>4710</v>
+        <v>3489</v>
       </c>
       <c r="D2848" t="s">
         <v>312</v>
@@ -68171,7 +68068,7 @@
         <v>3078</v>
       </c>
       <c r="C2849" t="s">
-        <v>4711</v>
+        <v>3411</v>
       </c>
       <c r="D2849" t="s">
         <v>312</v>
@@ -68188,7 +68085,7 @@
         <v>3490</v>
       </c>
       <c r="C2850" t="s">
-        <v>4712</v>
+        <v>3491</v>
       </c>
       <c r="D2850" t="s">
         <v>312</v>
@@ -68205,7 +68102,7 @@
         <v>3412</v>
       </c>
       <c r="C2851" t="s">
-        <v>4713</v>
+        <v>3492</v>
       </c>
       <c r="D2851" t="s">
         <v>312</v>
@@ -68225,7 +68122,7 @@
         <v>3493</v>
       </c>
       <c r="C2852" t="s">
-        <v>4714</v>
+        <v>3494</v>
       </c>
       <c r="D2852" t="s">
         <v>312</v>
@@ -68242,7 +68139,7 @@
         <v>3420</v>
       </c>
       <c r="C2853" t="s">
-        <v>4715</v>
+        <v>3495</v>
       </c>
       <c r="D2853" t="s">
         <v>312</v>
@@ -68259,7 +68156,7 @@
         <v>3496</v>
       </c>
       <c r="C2854" t="s">
-        <v>4716</v>
+        <v>3497</v>
       </c>
       <c r="D2854" t="s">
         <v>312</v>
@@ -68276,7 +68173,7 @@
         <v>3498</v>
       </c>
       <c r="C2855" t="s">
-        <v>4717</v>
+        <v>3499</v>
       </c>
       <c r="D2855" t="s">
         <v>320</v>
@@ -68293,7 +68190,7 @@
         <v>3500</v>
       </c>
       <c r="C2856" t="s">
-        <v>4718</v>
+        <v>3501</v>
       </c>
       <c r="D2856" t="s">
         <v>320</v>
@@ -68310,7 +68207,7 @@
         <v>3502</v>
       </c>
       <c r="C2857" t="s">
-        <v>4719</v>
+        <v>3503</v>
       </c>
       <c r="D2857" t="s">
         <v>312</v>
@@ -68327,7 +68224,7 @@
         <v>3504</v>
       </c>
       <c r="C2858" t="s">
-        <v>4720</v>
+        <v>3505</v>
       </c>
       <c r="D2858" t="s">
         <v>320</v>
@@ -68344,7 +68241,7 @@
         <v>3506</v>
       </c>
       <c r="C2859" t="s">
-        <v>4721</v>
+        <v>3507</v>
       </c>
       <c r="D2859" t="s">
         <v>312</v>
@@ -68361,7 +68258,7 @@
         <v>3508</v>
       </c>
       <c r="C2860" t="s">
-        <v>4722</v>
+        <v>3509</v>
       </c>
       <c r="D2860" t="s">
         <v>312</v>
@@ -68378,7 +68275,7 @@
         <v>3510</v>
       </c>
       <c r="C2861" t="s">
-        <v>4723</v>
+        <v>3511</v>
       </c>
       <c r="D2861" t="s">
         <v>312</v>
@@ -68395,7 +68292,7 @@
         <v>1095</v>
       </c>
       <c r="C2862" t="s">
-        <v>4534</v>
+        <v>986</v>
       </c>
       <c r="D2862" t="s">
         <v>312</v>
@@ -68412,7 +68309,7 @@
         <v>3512</v>
       </c>
       <c r="C2863" t="s">
-        <v>4724</v>
+        <v>3513</v>
       </c>
       <c r="D2863" t="s">
         <v>304</v>
@@ -68429,7 +68326,7 @@
         <v>3514</v>
       </c>
       <c r="C2864" t="s">
-        <v>4725</v>
+        <v>3515</v>
       </c>
       <c r="D2864" t="s">
         <v>312</v>
@@ -68439,243 +68336,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2379">
+  <autoFilter ref="A1:G2864">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="29.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4499</v>
-      </c>
-      <c r="C1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4501</v>
-      </c>
-      <c r="C3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4652</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4348</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4654</v>
-      </c>
-      <c r="C6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4655</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4656</v>
-      </c>
-      <c r="C7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4657</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4658</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4357</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4659</v>
-      </c>
-      <c r="C9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4660</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4661</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4662</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4663</v>
-      </c>
-      <c r="C11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4352</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4664</v>
-      </c>
-      <c r="C12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>4665</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4666</v>
-      </c>
-      <c r="C13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>4667</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4668</v>
-      </c>
-      <c r="C14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4534</v>
-      </c>
-      <c r="C15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>4669</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4670</v>
-      </c>
-      <c r="C16" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>4671</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4672</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4511</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4512</v>
-      </c>
-      <c r="C18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4513</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4514</v>
-      </c>
-      <c r="C19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>